--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cp/Documents/GitHub/DecatlonEstadistics/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D6AC7D-B397-1D4A-819F-58CA37D2A7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859CDFA6-C478-B04B-9250-0438D3B3C2BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="460" windowWidth="35860" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5505,8 +5505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A837" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="D855" sqref="D855"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6574,6 +6574,9 @@
       <c r="U13">
         <v>449</v>
       </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
       <c r="W13">
         <v>0</v>
       </c>
@@ -7925,6 +7928,9 @@
       <c r="B30" t="s">
         <v>90</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
       <c r="D30" t="s">
         <v>1674</v>
       </c>
@@ -8228,6 +8234,9 @@
       <c r="U33">
         <v>418</v>
       </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
       <c r="W33">
         <v>0</v>
       </c>
@@ -8417,6 +8426,9 @@
       <c r="B36" t="s">
         <v>96</v>
       </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
       <c r="D36" t="s">
         <v>661</v>
       </c>
@@ -8497,6 +8509,9 @@
       <c r="B37" t="s">
         <v>97</v>
       </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
       <c r="D37" t="s">
         <v>662</v>
       </c>
@@ -10211,6 +10226,9 @@
       <c r="U57">
         <v>604</v>
       </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
       <c r="W57">
         <v>0</v>
       </c>
@@ -10234,6 +10252,9 @@
       <c r="B58" t="s">
         <v>97</v>
       </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
       <c r="D58" t="s">
         <v>662</v>
       </c>
@@ -10383,6 +10404,9 @@
       <c r="Y59">
         <v>488</v>
       </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
       <c r="AA59">
         <v>0</v>
       </c>
@@ -10581,6 +10605,9 @@
       <c r="I62">
         <v>683</v>
       </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
       <c r="K62">
         <v>0</v>
       </c>
@@ -10723,6 +10750,9 @@
       <c r="B64" t="s">
         <v>120</v>
       </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
       <c r="D64" t="s">
         <v>665</v>
       </c>
@@ -10872,6 +10902,9 @@
       <c r="Y65">
         <v>337</v>
       </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
       <c r="AA65">
         <v>0</v>
       </c>
@@ -14950,6 +14983,9 @@
       <c r="B115" t="s">
         <v>167</v>
       </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
       <c r="D115" t="s">
         <v>670</v>
       </c>
@@ -15362,6 +15398,9 @@
       <c r="B120" t="s">
         <v>172</v>
       </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
       <c r="D120" t="s">
         <v>652</v>
       </c>
@@ -15442,6 +15481,9 @@
       <c r="B121" t="s">
         <v>173</v>
       </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
       <c r="D121" t="s">
         <v>675</v>
       </c>
@@ -18178,6 +18220,9 @@
       <c r="B154" t="s">
         <v>201</v>
       </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
       <c r="D154" t="s">
         <v>681</v>
       </c>
@@ -19524,6 +19569,9 @@
       <c r="I170">
         <v>763</v>
       </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
       <c r="K170">
         <v>0</v>
       </c>
@@ -20138,6 +20186,9 @@
       <c r="U177">
         <v>487</v>
       </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
       <c r="W177">
         <v>0</v>
       </c>
@@ -21489,6 +21540,9 @@
       <c r="B194" t="s">
         <v>234</v>
       </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
       <c r="D194" t="s">
         <v>684</v>
       </c>
@@ -22800,6 +22854,12 @@
       <c r="Y209">
         <v>734</v>
       </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
@@ -24952,6 +25012,9 @@
       <c r="Y235">
         <v>621</v>
       </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
       <c r="AA235">
         <v>0</v>
       </c>
@@ -25008,6 +25071,9 @@
       <c r="Q236">
         <v>969</v>
       </c>
+      <c r="R236">
+        <v>0</v>
+      </c>
       <c r="S236">
         <v>0</v>
       </c>
@@ -26843,6 +26909,9 @@
       <c r="U258">
         <v>661</v>
       </c>
+      <c r="V258">
+        <v>0</v>
+      </c>
       <c r="W258">
         <v>0</v>
       </c>
@@ -27006,6 +27075,9 @@
       <c r="U260">
         <v>784</v>
       </c>
+      <c r="V260">
+        <v>0</v>
+      </c>
       <c r="W260">
         <v>0</v>
       </c>
@@ -28331,6 +28403,9 @@
       <c r="U276">
         <v>330</v>
       </c>
+      <c r="V276">
+        <v>0</v>
+      </c>
       <c r="W276">
         <v>0</v>
       </c>
@@ -30014,6 +30089,9 @@
       <c r="B297" t="s">
         <v>318</v>
       </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
       <c r="D297" t="s">
         <v>694</v>
       </c>
@@ -30163,6 +30241,9 @@
       <c r="Y298">
         <v>801</v>
       </c>
+      <c r="Z298">
+        <v>0</v>
+      </c>
       <c r="AA298">
         <v>0</v>
       </c>
@@ -33162,6 +33243,9 @@
       <c r="B335" t="s">
         <v>351</v>
       </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
       <c r="D335" t="s">
         <v>704</v>
       </c>
@@ -38000,6 +38084,9 @@
       <c r="K393">
         <v>809</v>
       </c>
+      <c r="L393">
+        <v>0</v>
+      </c>
       <c r="M393">
         <v>0</v>
       </c>
@@ -38110,6 +38197,9 @@
       <c r="U394">
         <v>727</v>
       </c>
+      <c r="V394">
+        <v>0</v>
+      </c>
       <c r="W394">
         <v>0</v>
       </c>
@@ -40170,6 +40260,9 @@
       <c r="Q419">
         <v>819</v>
       </c>
+      <c r="R419">
+        <v>0</v>
+      </c>
       <c r="S419">
         <v>0</v>
       </c>
@@ -42473,6 +42566,9 @@
       <c r="K447">
         <v>776</v>
       </c>
+      <c r="L447">
+        <v>0</v>
+      </c>
       <c r="M447">
         <v>0</v>
       </c>
@@ -48778,6 +48874,9 @@
       <c r="K523">
         <v>847</v>
       </c>
+      <c r="L523">
+        <v>0</v>
+      </c>
       <c r="M523">
         <v>0</v>
       </c>
@@ -48888,6 +48987,9 @@
       <c r="U524">
         <v>756</v>
       </c>
+      <c r="V524">
+        <v>0</v>
+      </c>
       <c r="W524">
         <v>0</v>
       </c>
@@ -48896,6 +48998,9 @@
       </c>
       <c r="Y524">
         <v>693</v>
+      </c>
+      <c r="Z524">
+        <v>0</v>
       </c>
       <c r="AA524">
         <v>0</v>

--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cp/Documents/GitHub/DecatlonEstadistics/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F021562-5121-4841-A903-9877C2F40DC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECFB89E-998D-7F48-9628-E60095D6EF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3251,7 +3251,7 @@
   <dimension ref="A1:AE954"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+      <selection activeCell="AC11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3348,6 +3348,7 @@
         <v>25</v>
       </c>
       <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -3433,6 +3434,7 @@
         <v>680</v>
       </c>
       <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
       <c r="AE2" s="5"/>
     </row>
@@ -3519,6 +3521,7 @@
         <v>649</v>
       </c>
       <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -3604,6 +3607,7 @@
         <v>492</v>
       </c>
       <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -3689,6 +3693,7 @@
         <v>668</v>
       </c>
       <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -3774,6 +3779,7 @@
         <v>655</v>
       </c>
       <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -3859,6 +3865,7 @@
         <v>641</v>
       </c>
       <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -3944,6 +3951,7 @@
         <v>656</v>
       </c>
       <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -4029,6 +4037,7 @@
         <v>658</v>
       </c>
       <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -4114,6 +4123,7 @@
         <v>544</v>
       </c>
       <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -4199,6 +4209,7 @@
         <v>530</v>
       </c>
       <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -4284,6 +4295,7 @@
         <v>641</v>
       </c>
       <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -4369,6 +4381,7 @@
         <v>511</v>
       </c>
       <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -4454,6 +4467,7 @@
         <v>619</v>
       </c>
       <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -4539,6 +4553,7 @@
         <v>361</v>
       </c>
       <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -4624,6 +4639,7 @@
         <v>471</v>
       </c>
       <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
@@ -4709,6 +4725,7 @@
         <v>698</v>
       </c>
       <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
@@ -4794,6 +4811,7 @@
         <v>455</v>
       </c>
       <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
@@ -4879,6 +4897,7 @@
         <v>513</v>
       </c>
       <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
@@ -4964,6 +4983,7 @@
         <v>440</v>
       </c>
       <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
@@ -5049,6 +5069,7 @@
         <v>545</v>
       </c>
       <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
@@ -5134,6 +5155,7 @@
         <v>511</v>
       </c>
       <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
@@ -5219,6 +5241,7 @@
         <v>474</v>
       </c>
       <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
@@ -5304,6 +5327,7 @@
         <v>583</v>
       </c>
       <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
@@ -5389,6 +5413,7 @@
         <v>495</v>
       </c>
       <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
@@ -5474,6 +5499,7 @@
         <v>729</v>
       </c>
       <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
@@ -5559,6 +5585,7 @@
         <v>455</v>
       </c>
       <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
@@ -5644,6 +5671,7 @@
         <v>576</v>
       </c>
       <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
@@ -5729,6 +5757,7 @@
         <v>388</v>
       </c>
       <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
@@ -5814,6 +5843,7 @@
         <v>703</v>
       </c>
       <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
@@ -5899,6 +5929,7 @@
         <v>699</v>
       </c>
       <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
@@ -5984,6 +6015,7 @@
         <v>345</v>
       </c>
       <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
@@ -6069,6 +6101,7 @@
         <v>621</v>
       </c>
       <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
@@ -6154,6 +6187,7 @@
         <v>655</v>
       </c>
       <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
@@ -6239,6 +6273,7 @@
         <v>644</v>
       </c>
       <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
@@ -6324,6 +6359,7 @@
         <v>665</v>
       </c>
       <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
@@ -6409,6 +6445,7 @@
         <v>421</v>
       </c>
       <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
@@ -6494,6 +6531,7 @@
         <v>494</v>
       </c>
       <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
@@ -6579,6 +6617,7 @@
         <v>655</v>
       </c>
       <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
@@ -6664,6 +6703,7 @@
         <v>604</v>
       </c>
       <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
@@ -6749,6 +6789,7 @@
         <v>595</v>
       </c>
       <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
@@ -6834,6 +6875,7 @@
         <v>466</v>
       </c>
       <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
@@ -6919,6 +6961,7 @@
         <v>589</v>
       </c>
       <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.2">
@@ -7004,6 +7047,7 @@
         <v>414</v>
       </c>
       <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.2">
@@ -7089,6 +7133,7 @@
         <v>637</v>
       </c>
       <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.2">
@@ -7174,6 +7219,7 @@
         <v>654</v>
       </c>
       <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
@@ -7259,6 +7305,7 @@
         <v>434</v>
       </c>
       <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
@@ -7344,6 +7391,7 @@
         <v>668</v>
       </c>
       <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
@@ -7429,6 +7477,7 @@
         <v>534</v>
       </c>
       <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
@@ -7514,6 +7563,7 @@
         <v>499</v>
       </c>
       <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
@@ -7599,6 +7649,7 @@
         <v>470</v>
       </c>
       <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
@@ -7684,6 +7735,7 @@
         <v>713</v>
       </c>
       <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
       <c r="AD52" s="6"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
@@ -7769,6 +7821,7 @@
         <v>643</v>
       </c>
       <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
       <c r="AD53" s="6"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
@@ -7854,6 +7907,7 @@
         <v>650</v>
       </c>
       <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
       <c r="AD54" s="6"/>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.2">
@@ -7939,6 +7993,7 @@
         <v>270</v>
       </c>
       <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
       <c r="AD55" s="6"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
@@ -8024,6 +8079,7 @@
         <v>496</v>
       </c>
       <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
       <c r="AD56" s="6"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
@@ -8109,6 +8165,7 @@
         <v>670</v>
       </c>
       <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
       <c r="AD57" s="6"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.2">
@@ -8194,6 +8251,7 @@
         <v>483</v>
       </c>
       <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
       <c r="AD58" s="6"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.2">
@@ -8279,6 +8337,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.2">
@@ -8364,6 +8423,7 @@
         <v>287</v>
       </c>
       <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
       <c r="AD60" s="6"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
@@ -8449,6 +8509,7 @@
         <v>610</v>
       </c>
       <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
       <c r="AD61" s="6"/>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.2">
@@ -8534,6 +8595,7 @@
         <v>303</v>
       </c>
       <c r="AB62" s="6"/>
+      <c r="AC62" s="6"/>
       <c r="AD62" s="6"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.2">
@@ -8619,6 +8681,7 @@
         <v>457</v>
       </c>
       <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
       <c r="AD63" s="6"/>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
@@ -8704,6 +8767,7 @@
         <v>538</v>
       </c>
       <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
       <c r="AD64" s="6"/>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.2">
@@ -8789,6 +8853,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
       <c r="AD65" s="6"/>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.2">
@@ -8874,6 +8939,7 @@
         <v>466</v>
       </c>
       <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
       <c r="AD66" s="6"/>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.2">
@@ -8959,6 +9025,7 @@
         <v>637</v>
       </c>
       <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
       <c r="AD67" s="6"/>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
@@ -9044,6 +9111,7 @@
         <v>716</v>
       </c>
       <c r="AB68" s="6"/>
+      <c r="AC68" s="6"/>
       <c r="AD68" s="6"/>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.2">
@@ -9129,6 +9197,7 @@
         <v>682</v>
       </c>
       <c r="AB69" s="6"/>
+      <c r="AC69" s="6"/>
       <c r="AD69" s="6"/>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.2">
@@ -9214,6 +9283,7 @@
         <v>461</v>
       </c>
       <c r="AB70" s="6"/>
+      <c r="AC70" s="6"/>
       <c r="AD70" s="6"/>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.2">
@@ -9299,6 +9369,7 @@
         <v>697</v>
       </c>
       <c r="AB71" s="6"/>
+      <c r="AC71" s="6"/>
       <c r="AD71" s="6"/>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.2">
@@ -9384,6 +9455,7 @@
         <v>631</v>
       </c>
       <c r="AB72" s="6"/>
+      <c r="AC72" s="6"/>
       <c r="AD72" s="6"/>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.2">
@@ -9469,6 +9541,7 @@
         <v>716</v>
       </c>
       <c r="AB73" s="6"/>
+      <c r="AC73" s="6"/>
       <c r="AD73" s="6"/>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.2">
@@ -9554,6 +9627,7 @@
         <v>632</v>
       </c>
       <c r="AB74" s="6"/>
+      <c r="AC74" s="6"/>
       <c r="AD74" s="6"/>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.2">
@@ -9639,6 +9713,7 @@
         <v>377</v>
       </c>
       <c r="AB75" s="6"/>
+      <c r="AC75" s="6"/>
       <c r="AD75" s="6"/>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.2">
@@ -9724,6 +9799,7 @@
         <v>314</v>
       </c>
       <c r="AB76" s="6"/>
+      <c r="AC76" s="6"/>
       <c r="AD76" s="6"/>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.2">
@@ -9809,6 +9885,7 @@
         <v>724</v>
       </c>
       <c r="AB77" s="6"/>
+      <c r="AC77" s="6"/>
       <c r="AD77" s="6"/>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.2">
@@ -9894,6 +9971,7 @@
         <v>653</v>
       </c>
       <c r="AB78" s="6"/>
+      <c r="AC78" s="6"/>
       <c r="AD78" s="6"/>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.2">
@@ -9979,6 +10057,7 @@
         <v>516</v>
       </c>
       <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
       <c r="AD79" s="6"/>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.2">
@@ -10064,6 +10143,7 @@
         <v>711</v>
       </c>
       <c r="AB80" s="6"/>
+      <c r="AC80" s="6"/>
       <c r="AD80" s="6"/>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.2">
@@ -10149,6 +10229,7 @@
         <v>526</v>
       </c>
       <c r="AB81" s="6"/>
+      <c r="AC81" s="6"/>
       <c r="AD81" s="6"/>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.2">
@@ -10234,6 +10315,7 @@
         <v>623</v>
       </c>
       <c r="AB82" s="6"/>
+      <c r="AC82" s="6"/>
       <c r="AD82" s="6"/>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.2">
@@ -10319,6 +10401,7 @@
         <v>678</v>
       </c>
       <c r="AB83" s="6"/>
+      <c r="AC83" s="6"/>
       <c r="AD83" s="6"/>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.2">
@@ -10404,6 +10487,7 @@
         <v>595</v>
       </c>
       <c r="AB84" s="6"/>
+      <c r="AC84" s="6"/>
       <c r="AD84" s="6"/>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
@@ -10489,6 +10573,7 @@
         <v>537</v>
       </c>
       <c r="AB85" s="6"/>
+      <c r="AC85" s="6"/>
       <c r="AD85" s="6"/>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
@@ -10574,6 +10659,7 @@
         <v>531</v>
       </c>
       <c r="AB86" s="6"/>
+      <c r="AC86" s="6"/>
       <c r="AD86" s="6"/>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.2">
@@ -10659,6 +10745,7 @@
         <v>729</v>
       </c>
       <c r="AB87" s="6"/>
+      <c r="AC87" s="6"/>
       <c r="AD87" s="6"/>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.2">
@@ -10744,6 +10831,7 @@
         <v>396</v>
       </c>
       <c r="AB88" s="6"/>
+      <c r="AC88" s="6"/>
       <c r="AD88" s="6"/>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
@@ -10829,6 +10917,7 @@
         <v>631</v>
       </c>
       <c r="AB89" s="6"/>
+      <c r="AC89" s="6"/>
       <c r="AD89" s="6"/>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
@@ -10914,6 +11003,7 @@
         <v>379</v>
       </c>
       <c r="AB90" s="6"/>
+      <c r="AC90" s="6"/>
       <c r="AD90" s="6"/>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
@@ -10999,6 +11089,7 @@
         <v>715</v>
       </c>
       <c r="AB91" s="6"/>
+      <c r="AC91" s="6"/>
       <c r="AD91" s="6"/>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
@@ -11084,6 +11175,7 @@
         <v>621</v>
       </c>
       <c r="AB92" s="6"/>
+      <c r="AC92" s="6"/>
       <c r="AD92" s="6"/>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
@@ -11169,6 +11261,7 @@
         <v>712</v>
       </c>
       <c r="AB93" s="6"/>
+      <c r="AC93" s="6"/>
       <c r="AD93" s="6"/>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
@@ -11254,6 +11347,7 @@
         <v>498</v>
       </c>
       <c r="AB94" s="6"/>
+      <c r="AC94" s="6"/>
       <c r="AD94" s="6"/>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
@@ -11339,6 +11433,7 @@
         <v>657</v>
       </c>
       <c r="AB95" s="6"/>
+      <c r="AC95" s="6"/>
       <c r="AD95" s="6"/>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
@@ -11424,6 +11519,7 @@
         <v>571</v>
       </c>
       <c r="AB96" s="6"/>
+      <c r="AC96" s="6"/>
       <c r="AD96" s="6"/>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
@@ -11509,6 +11605,7 @@
         <v>621</v>
       </c>
       <c r="AB97" s="6"/>
+      <c r="AC97" s="6"/>
       <c r="AD97" s="6"/>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
@@ -11594,6 +11691,7 @@
         <v>719</v>
       </c>
       <c r="AB98" s="6"/>
+      <c r="AC98" s="6"/>
       <c r="AD98" s="6"/>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
@@ -11679,6 +11777,7 @@
         <v>463</v>
       </c>
       <c r="AB99" s="6"/>
+      <c r="AC99" s="6"/>
       <c r="AD99" s="6"/>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
@@ -11764,6 +11863,7 @@
         <v>707</v>
       </c>
       <c r="AB100" s="6"/>
+      <c r="AC100" s="6"/>
       <c r="AD100" s="6"/>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
@@ -11849,6 +11949,7 @@
         <v>620</v>
       </c>
       <c r="AB101" s="6"/>
+      <c r="AC101" s="6"/>
       <c r="AD101" s="6"/>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
@@ -11934,6 +12035,7 @@
         <v>552</v>
       </c>
       <c r="AB102" s="6"/>
+      <c r="AC102" s="6"/>
       <c r="AD102" s="6"/>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
@@ -12019,6 +12121,7 @@
         <v>754</v>
       </c>
       <c r="AB103" s="6"/>
+      <c r="AC103" s="6"/>
       <c r="AD103" s="6"/>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
@@ -12104,6 +12207,7 @@
         <v>518</v>
       </c>
       <c r="AB104" s="6"/>
+      <c r="AC104" s="6"/>
       <c r="AD104" s="6"/>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
@@ -12189,6 +12293,7 @@
         <v>520</v>
       </c>
       <c r="AB105" s="6"/>
+      <c r="AC105" s="6"/>
       <c r="AD105" s="6"/>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.2">
@@ -12274,6 +12379,7 @@
         <v>571</v>
       </c>
       <c r="AB106" s="6"/>
+      <c r="AC106" s="6"/>
       <c r="AD106" s="6"/>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.2">
@@ -12359,6 +12465,7 @@
         <v>719</v>
       </c>
       <c r="AB107" s="6"/>
+      <c r="AC107" s="6"/>
       <c r="AD107" s="6"/>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.2">
@@ -12444,6 +12551,7 @@
         <v>532</v>
       </c>
       <c r="AB108" s="6"/>
+      <c r="AC108" s="6"/>
       <c r="AD108" s="6"/>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
@@ -12529,6 +12637,7 @@
         <v>669</v>
       </c>
       <c r="AB109" s="6"/>
+      <c r="AC109" s="6"/>
       <c r="AD109" s="6"/>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.2">
@@ -12614,6 +12723,7 @@
         <v>549</v>
       </c>
       <c r="AB110" s="6"/>
+      <c r="AC110" s="6"/>
       <c r="AD110" s="6"/>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
@@ -12699,6 +12809,7 @@
         <v>588</v>
       </c>
       <c r="AB111" s="6"/>
+      <c r="AC111" s="6"/>
       <c r="AD111" s="6"/>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
@@ -12784,6 +12895,7 @@
         <v>462</v>
       </c>
       <c r="AB112" s="6"/>
+      <c r="AC112" s="6"/>
       <c r="AD112" s="6"/>
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.2">
@@ -12869,6 +12981,7 @@
         <v>523</v>
       </c>
       <c r="AB113" s="6"/>
+      <c r="AC113" s="6"/>
       <c r="AD113" s="6"/>
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.2">
@@ -12954,6 +13067,7 @@
         <v>509</v>
       </c>
       <c r="AB114" s="6"/>
+      <c r="AC114" s="6"/>
       <c r="AD114" s="6"/>
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.2">
@@ -13039,6 +13153,7 @@
         <v>446</v>
       </c>
       <c r="AB115" s="6"/>
+      <c r="AC115" s="6"/>
       <c r="AD115" s="6"/>
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.2">
@@ -13124,6 +13239,7 @@
         <v>545</v>
       </c>
       <c r="AB116" s="6"/>
+      <c r="AC116" s="6"/>
       <c r="AD116" s="6"/>
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
@@ -13209,6 +13325,7 @@
         <v>590</v>
       </c>
       <c r="AB117" s="6"/>
+      <c r="AC117" s="6"/>
       <c r="AD117" s="6"/>
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.2">
@@ -13294,6 +13411,7 @@
         <v>490</v>
       </c>
       <c r="AB118" s="6"/>
+      <c r="AC118" s="6"/>
       <c r="AD118" s="6"/>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
@@ -13379,6 +13497,7 @@
         <v>553</v>
       </c>
       <c r="AB119" s="6"/>
+      <c r="AC119" s="6"/>
       <c r="AD119" s="6"/>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.2">
@@ -13464,6 +13583,7 @@
         <v>499</v>
       </c>
       <c r="AB120" s="6"/>
+      <c r="AC120" s="6"/>
       <c r="AD120" s="6"/>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
@@ -13549,6 +13669,7 @@
         <v>512</v>
       </c>
       <c r="AB121" s="6"/>
+      <c r="AC121" s="6"/>
       <c r="AD121" s="6"/>
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
@@ -13634,6 +13755,7 @@
         <v>612</v>
       </c>
       <c r="AB122" s="6"/>
+      <c r="AC122" s="6"/>
       <c r="AD122" s="6"/>
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
@@ -13719,6 +13841,7 @@
         <v>517</v>
       </c>
       <c r="AB123" s="6"/>
+      <c r="AC123" s="6"/>
       <c r="AD123" s="6"/>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
@@ -13804,6 +13927,7 @@
         <v>597</v>
       </c>
       <c r="AB124" s="6"/>
+      <c r="AC124" s="6"/>
       <c r="AD124" s="6"/>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
@@ -13889,6 +14013,7 @@
         <v>723</v>
       </c>
       <c r="AB125" s="6"/>
+      <c r="AC125" s="6"/>
       <c r="AD125" s="6"/>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
@@ -13974,6 +14099,7 @@
         <v>575</v>
       </c>
       <c r="AB126" s="6"/>
+      <c r="AC126" s="6"/>
       <c r="AD126" s="6"/>
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
@@ -14059,6 +14185,7 @@
         <v>688</v>
       </c>
       <c r="AB127" s="6"/>
+      <c r="AC127" s="6"/>
       <c r="AD127" s="6"/>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
@@ -14144,6 +14271,7 @@
         <v>573</v>
       </c>
       <c r="AB128" s="6"/>
+      <c r="AC128" s="6"/>
       <c r="AD128" s="6"/>
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.2">
@@ -14229,6 +14357,7 @@
         <v>631</v>
       </c>
       <c r="AB129" s="6"/>
+      <c r="AC129" s="6"/>
       <c r="AD129" s="6"/>
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.2">
@@ -14314,6 +14443,7 @@
         <v>538</v>
       </c>
       <c r="AB130" s="6"/>
+      <c r="AC130" s="6"/>
       <c r="AD130" s="6"/>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.2">
@@ -14399,6 +14529,7 @@
         <v>666</v>
       </c>
       <c r="AB131" s="6"/>
+      <c r="AC131" s="6"/>
       <c r="AD131" s="6"/>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.2">
@@ -14484,6 +14615,7 @@
         <v>480</v>
       </c>
       <c r="AB132" s="6"/>
+      <c r="AC132" s="6"/>
       <c r="AD132" s="6"/>
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.2">
@@ -14569,6 +14701,7 @@
         <v>619</v>
       </c>
       <c r="AB133" s="6"/>
+      <c r="AC133" s="6"/>
       <c r="AD133" s="6"/>
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.2">
@@ -14654,6 +14787,7 @@
         <v>758</v>
       </c>
       <c r="AB134" s="6"/>
+      <c r="AC134" s="6"/>
       <c r="AD134" s="6"/>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.2">
@@ -14739,6 +14873,7 @@
         <v>554</v>
       </c>
       <c r="AB135" s="6"/>
+      <c r="AC135" s="6"/>
       <c r="AD135" s="6"/>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
@@ -14824,6 +14959,7 @@
         <v>549</v>
       </c>
       <c r="AB136" s="6"/>
+      <c r="AC136" s="6"/>
       <c r="AD136" s="6"/>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.2">
@@ -14909,6 +15045,7 @@
         <v>697</v>
       </c>
       <c r="AB137" s="6"/>
+      <c r="AC137" s="6"/>
       <c r="AD137" s="6"/>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.2">
@@ -14994,6 +15131,7 @@
         <v>568</v>
       </c>
       <c r="AB138" s="6"/>
+      <c r="AC138" s="6"/>
       <c r="AD138" s="6"/>
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.2">
@@ -15079,6 +15217,7 @@
         <v>571</v>
       </c>
       <c r="AB139" s="6"/>
+      <c r="AC139" s="6"/>
       <c r="AD139" s="6"/>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.2">
@@ -15164,6 +15303,7 @@
         <v>576</v>
       </c>
       <c r="AB140" s="6"/>
+      <c r="AC140" s="6"/>
       <c r="AD140" s="6"/>
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.2">
@@ -15249,6 +15389,7 @@
         <v>479</v>
       </c>
       <c r="AB141" s="6"/>
+      <c r="AC141" s="6"/>
       <c r="AD141" s="6"/>
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.2">
@@ -15334,6 +15475,7 @@
         <v>605</v>
       </c>
       <c r="AB142" s="6"/>
+      <c r="AC142" s="6"/>
       <c r="AD142" s="6"/>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.2">
@@ -15419,6 +15561,7 @@
         <v>615</v>
       </c>
       <c r="AB143" s="6"/>
+      <c r="AC143" s="6"/>
       <c r="AD143" s="6"/>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.2">
@@ -15504,6 +15647,7 @@
         <v>594</v>
       </c>
       <c r="AB144" s="6"/>
+      <c r="AC144" s="6"/>
       <c r="AD144" s="6"/>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.2">
@@ -15589,6 +15733,7 @@
         <v>596</v>
       </c>
       <c r="AB145" s="6"/>
+      <c r="AC145" s="6"/>
       <c r="AD145" s="6"/>
     </row>
     <row r="146" spans="1:30" x14ac:dyDescent="0.2">
@@ -15674,6 +15819,7 @@
         <v>708</v>
       </c>
       <c r="AB146" s="6"/>
+      <c r="AC146" s="6"/>
       <c r="AD146" s="6"/>
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.2">
@@ -15759,6 +15905,7 @@
         <v>657</v>
       </c>
       <c r="AB147" s="6"/>
+      <c r="AC147" s="6"/>
       <c r="AD147" s="6"/>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.2">
@@ -15844,6 +15991,7 @@
         <v>807</v>
       </c>
       <c r="AB148" s="6"/>
+      <c r="AC148" s="6"/>
       <c r="AD148" s="6"/>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.2">
@@ -15929,6 +16077,7 @@
         <v>704</v>
       </c>
       <c r="AB149" s="6"/>
+      <c r="AC149" s="6"/>
       <c r="AD149" s="6"/>
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.2">
@@ -16014,6 +16163,7 @@
         <v>555</v>
       </c>
       <c r="AB150" s="6"/>
+      <c r="AC150" s="6"/>
       <c r="AD150" s="6"/>
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.2">
@@ -16099,6 +16249,7 @@
         <v>578</v>
       </c>
       <c r="AB151" s="6"/>
+      <c r="AC151" s="6"/>
       <c r="AD151" s="6"/>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
@@ -16184,6 +16335,7 @@
         <v>623</v>
       </c>
       <c r="AB152" s="6"/>
+      <c r="AC152" s="6"/>
       <c r="AD152" s="6"/>
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.2">
@@ -16269,6 +16421,7 @@
         <v>616</v>
       </c>
       <c r="AB153" s="6"/>
+      <c r="AC153" s="6"/>
       <c r="AD153" s="6"/>
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.2">
@@ -16354,6 +16507,7 @@
         <v>779</v>
       </c>
       <c r="AB154" s="6"/>
+      <c r="AC154" s="6"/>
       <c r="AD154" s="6"/>
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.2">
@@ -16439,6 +16593,7 @@
         <v>620</v>
       </c>
       <c r="AB155" s="6"/>
+      <c r="AC155" s="6"/>
       <c r="AD155" s="6"/>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.2">
@@ -16524,6 +16679,7 @@
         <v>628</v>
       </c>
       <c r="AB156" s="6"/>
+      <c r="AC156" s="6"/>
       <c r="AD156" s="6"/>
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.2">
@@ -16609,6 +16765,7 @@
         <v>596</v>
       </c>
       <c r="AB157" s="6"/>
+      <c r="AC157" s="6"/>
       <c r="AD157" s="6"/>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.2">
@@ -16694,6 +16851,7 @@
         <v>654</v>
       </c>
       <c r="AB158" s="6"/>
+      <c r="AC158" s="6"/>
       <c r="AD158" s="6"/>
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.2">
@@ -16779,6 +16937,7 @@
         <v>658</v>
       </c>
       <c r="AB159" s="6"/>
+      <c r="AC159" s="6"/>
       <c r="AD159" s="6"/>
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.2">
@@ -16864,6 +17023,7 @@
         <v>623</v>
       </c>
       <c r="AB160" s="6"/>
+      <c r="AC160" s="6"/>
       <c r="AD160" s="6"/>
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.2">
@@ -16949,6 +17109,7 @@
         <v>793</v>
       </c>
       <c r="AB161" s="6"/>
+      <c r="AC161" s="6"/>
       <c r="AD161" s="6"/>
     </row>
     <row r="162" spans="1:30" x14ac:dyDescent="0.2">
@@ -17034,6 +17195,7 @@
         <v>764</v>
       </c>
       <c r="AB162" s="6"/>
+      <c r="AC162" s="6"/>
       <c r="AD162" s="6"/>
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.2">
@@ -17119,6 +17281,7 @@
         <v>695</v>
       </c>
       <c r="AB163" s="6"/>
+      <c r="AC163" s="6"/>
       <c r="AD163" s="6"/>
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.2">
@@ -17204,6 +17367,7 @@
         <v>760</v>
       </c>
       <c r="AB164" s="6"/>
+      <c r="AC164" s="6"/>
       <c r="AD164" s="6"/>
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.2">
@@ -17289,6 +17453,7 @@
         <v>760</v>
       </c>
       <c r="AB165" s="6"/>
+      <c r="AC165" s="6"/>
       <c r="AD165" s="6"/>
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.2">
@@ -17374,6 +17539,7 @@
         <v>532</v>
       </c>
       <c r="AB166" s="6"/>
+      <c r="AC166" s="6"/>
       <c r="AD166" s="6"/>
     </row>
     <row r="167" spans="1:30" x14ac:dyDescent="0.2">
@@ -17459,6 +17625,7 @@
         <v>587</v>
       </c>
       <c r="AB167" s="6"/>
+      <c r="AC167" s="6"/>
       <c r="AD167" s="6"/>
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.2">
@@ -17544,6 +17711,7 @@
         <v>677</v>
       </c>
       <c r="AB168" s="6"/>
+      <c r="AC168" s="6"/>
       <c r="AD168" s="6"/>
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.2">
@@ -17629,6 +17797,7 @@
         <v>443</v>
       </c>
       <c r="AB169" s="6"/>
+      <c r="AC169" s="6"/>
       <c r="AD169" s="6"/>
     </row>
     <row r="170" spans="1:30" x14ac:dyDescent="0.2">
@@ -17714,6 +17883,7 @@
         <v>741</v>
       </c>
       <c r="AB170" s="6"/>
+      <c r="AC170" s="6"/>
       <c r="AD170" s="6"/>
     </row>
     <row r="171" spans="1:30" x14ac:dyDescent="0.2">
@@ -17799,6 +17969,7 @@
         <v>789</v>
       </c>
       <c r="AB171" s="6"/>
+      <c r="AC171" s="6"/>
       <c r="AD171" s="6"/>
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.2">
@@ -17884,6 +18055,7 @@
         <v>680</v>
       </c>
       <c r="AB172" s="6"/>
+      <c r="AC172" s="6"/>
       <c r="AD172" s="6"/>
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.2">
@@ -17969,6 +18141,7 @@
         <v>574</v>
       </c>
       <c r="AB173" s="6"/>
+      <c r="AC173" s="6"/>
       <c r="AD173" s="6"/>
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.2">
@@ -18054,6 +18227,7 @@
         <v>423</v>
       </c>
       <c r="AB174" s="6"/>
+      <c r="AC174" s="6"/>
       <c r="AD174" s="6"/>
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.2">
@@ -18139,6 +18313,7 @@
         <v>623</v>
       </c>
       <c r="AB175" s="6"/>
+      <c r="AC175" s="6"/>
       <c r="AD175" s="6"/>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.2">
@@ -18224,6 +18399,7 @@
         <v>562</v>
       </c>
       <c r="AB176" s="6"/>
+      <c r="AC176" s="6"/>
       <c r="AD176" s="6"/>
     </row>
     <row r="177" spans="1:30" x14ac:dyDescent="0.2">
@@ -18309,6 +18485,7 @@
         <v>589</v>
       </c>
       <c r="AB177" s="6"/>
+      <c r="AC177" s="6"/>
       <c r="AD177" s="6"/>
     </row>
     <row r="178" spans="1:30" x14ac:dyDescent="0.2">
@@ -18394,6 +18571,7 @@
         <v>717</v>
       </c>
       <c r="AB178" s="6"/>
+      <c r="AC178" s="6"/>
       <c r="AD178" s="6"/>
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.2">
@@ -18479,6 +18657,7 @@
         <v>796</v>
       </c>
       <c r="AB179" s="6"/>
+      <c r="AC179" s="6"/>
       <c r="AD179" s="6"/>
     </row>
     <row r="180" spans="1:30" x14ac:dyDescent="0.2">
@@ -18564,6 +18743,7 @@
         <v>699</v>
       </c>
       <c r="AB180" s="6"/>
+      <c r="AC180" s="6"/>
       <c r="AD180" s="6"/>
     </row>
     <row r="181" spans="1:30" x14ac:dyDescent="0.2">
@@ -18649,6 +18829,7 @@
         <v>775</v>
       </c>
       <c r="AB181" s="6"/>
+      <c r="AC181" s="6"/>
       <c r="AD181" s="6"/>
     </row>
     <row r="182" spans="1:30" x14ac:dyDescent="0.2">
@@ -18734,6 +18915,7 @@
         <v>628</v>
       </c>
       <c r="AB182" s="6"/>
+      <c r="AC182" s="6"/>
       <c r="AD182" s="6"/>
     </row>
     <row r="183" spans="1:30" x14ac:dyDescent="0.2">
@@ -18819,6 +19001,7 @@
         <v>787</v>
       </c>
       <c r="AB183" s="6"/>
+      <c r="AC183" s="6"/>
       <c r="AD183" s="6"/>
     </row>
     <row r="184" spans="1:30" x14ac:dyDescent="0.2">
@@ -18904,6 +19087,7 @@
         <v>545</v>
       </c>
       <c r="AB184" s="6"/>
+      <c r="AC184" s="6"/>
       <c r="AD184" s="6"/>
     </row>
     <row r="185" spans="1:30" x14ac:dyDescent="0.2">
@@ -18989,6 +19173,7 @@
         <v>556</v>
       </c>
       <c r="AB185" s="6"/>
+      <c r="AC185" s="6"/>
       <c r="AD185" s="6"/>
     </row>
     <row r="186" spans="1:30" x14ac:dyDescent="0.2">
@@ -19074,6 +19259,7 @@
         <v>778</v>
       </c>
       <c r="AB186" s="6"/>
+      <c r="AC186" s="6"/>
       <c r="AD186" s="6"/>
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.2">
@@ -19159,6 +19345,7 @@
         <v>816</v>
       </c>
       <c r="AB187" s="6"/>
+      <c r="AC187" s="6"/>
       <c r="AD187" s="6"/>
     </row>
     <row r="188" spans="1:30" x14ac:dyDescent="0.2">
@@ -19244,6 +19431,7 @@
         <v>781</v>
       </c>
       <c r="AB188" s="6"/>
+      <c r="AC188" s="6"/>
       <c r="AD188" s="6"/>
     </row>
     <row r="189" spans="1:30" x14ac:dyDescent="0.2">
@@ -19329,6 +19517,7 @@
         <v>556</v>
       </c>
       <c r="AB189" s="6"/>
+      <c r="AC189" s="6"/>
       <c r="AD189" s="6"/>
     </row>
     <row r="190" spans="1:30" x14ac:dyDescent="0.2">
@@ -19414,6 +19603,7 @@
         <v>512</v>
       </c>
       <c r="AB190" s="6"/>
+      <c r="AC190" s="6"/>
       <c r="AD190" s="6"/>
     </row>
     <row r="191" spans="1:30" x14ac:dyDescent="0.2">
@@ -19499,6 +19689,7 @@
         <v>754</v>
       </c>
       <c r="AB191" s="6"/>
+      <c r="AC191" s="6"/>
       <c r="AD191" s="6"/>
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.2">
@@ -19584,6 +19775,7 @@
         <v>757</v>
       </c>
       <c r="AB192" s="6"/>
+      <c r="AC192" s="6"/>
       <c r="AD192" s="6"/>
     </row>
     <row r="193" spans="1:30" x14ac:dyDescent="0.2">
@@ -19669,6 +19861,7 @@
         <v>688</v>
       </c>
       <c r="AB193" s="6"/>
+      <c r="AC193" s="6"/>
       <c r="AD193" s="6"/>
     </row>
     <row r="194" spans="1:30" x14ac:dyDescent="0.2">
@@ -19754,6 +19947,7 @@
         <v>670</v>
       </c>
       <c r="AB194" s="6"/>
+      <c r="AC194" s="6"/>
       <c r="AD194" s="6"/>
     </row>
     <row r="195" spans="1:30" x14ac:dyDescent="0.2">
@@ -19839,6 +20033,7 @@
         <v>610</v>
       </c>
       <c r="AB195" s="6"/>
+      <c r="AC195" s="6"/>
       <c r="AD195" s="6"/>
     </row>
     <row r="196" spans="1:30" x14ac:dyDescent="0.2">
@@ -19924,6 +20119,7 @@
         <v>424</v>
       </c>
       <c r="AB196" s="6"/>
+      <c r="AC196" s="6"/>
       <c r="AD196" s="6"/>
     </row>
     <row r="197" spans="1:30" x14ac:dyDescent="0.2">
@@ -20009,6 +20205,7 @@
         <v>416</v>
       </c>
       <c r="AB197" s="6"/>
+      <c r="AC197" s="6"/>
       <c r="AD197" s="6"/>
     </row>
     <row r="198" spans="1:30" x14ac:dyDescent="0.2">
@@ -20094,6 +20291,7 @@
         <v>356</v>
       </c>
       <c r="AB198" s="6"/>
+      <c r="AC198" s="6"/>
       <c r="AD198" s="6"/>
     </row>
     <row r="199" spans="1:30" x14ac:dyDescent="0.2">
@@ -20179,6 +20377,7 @@
         <v>404</v>
       </c>
       <c r="AB199" s="6"/>
+      <c r="AC199" s="6"/>
       <c r="AD199" s="6"/>
     </row>
     <row r="200" spans="1:30" x14ac:dyDescent="0.2">
@@ -20264,6 +20463,7 @@
         <v>305</v>
       </c>
       <c r="AB200" s="6"/>
+      <c r="AC200" s="6"/>
       <c r="AD200" s="6"/>
     </row>
     <row r="201" spans="1:30" x14ac:dyDescent="0.2">
@@ -20349,6 +20549,7 @@
         <v>384</v>
       </c>
       <c r="AB201" s="6"/>
+      <c r="AC201" s="6"/>
       <c r="AD201" s="6"/>
     </row>
     <row r="202" spans="1:30" x14ac:dyDescent="0.2">
@@ -20434,6 +20635,7 @@
         <v>500</v>
       </c>
       <c r="AB202" s="6"/>
+      <c r="AC202" s="6"/>
       <c r="AD202" s="6"/>
     </row>
     <row r="203" spans="1:30" x14ac:dyDescent="0.2">
@@ -20519,6 +20721,7 @@
         <v>517</v>
       </c>
       <c r="AB203" s="6"/>
+      <c r="AC203" s="6"/>
       <c r="AD203" s="6"/>
     </row>
     <row r="204" spans="1:30" x14ac:dyDescent="0.2">
@@ -20604,6 +20807,7 @@
         <v>539</v>
       </c>
       <c r="AB204" s="6"/>
+      <c r="AC204" s="6"/>
       <c r="AD204" s="6"/>
     </row>
     <row r="205" spans="1:30" x14ac:dyDescent="0.2">
@@ -20689,6 +20893,7 @@
         <v>244</v>
       </c>
       <c r="AB205" s="6"/>
+      <c r="AC205" s="6"/>
       <c r="AD205" s="6"/>
     </row>
     <row r="206" spans="1:30" x14ac:dyDescent="0.2">
@@ -20774,6 +20979,7 @@
         <v>350</v>
       </c>
       <c r="AB206" s="6"/>
+      <c r="AC206" s="6"/>
       <c r="AD206" s="6"/>
     </row>
     <row r="207" spans="1:30" x14ac:dyDescent="0.2">
@@ -20859,6 +21065,7 @@
         <v>307</v>
       </c>
       <c r="AB207" s="6"/>
+      <c r="AC207" s="6"/>
       <c r="AD207" s="6"/>
     </row>
     <row r="208" spans="1:30" x14ac:dyDescent="0.2">
@@ -20944,6 +21151,7 @@
         <v>312</v>
       </c>
       <c r="AB208" s="6"/>
+      <c r="AC208" s="6"/>
       <c r="AD208" s="6"/>
     </row>
     <row r="209" spans="1:30" x14ac:dyDescent="0.2">
@@ -21029,6 +21237,7 @@
         <v>0</v>
       </c>
       <c r="AB209" s="6"/>
+      <c r="AC209" s="6"/>
       <c r="AD209" s="6"/>
     </row>
     <row r="210" spans="1:30" x14ac:dyDescent="0.2">
@@ -21114,6 +21323,7 @@
         <v>361</v>
       </c>
       <c r="AB210" s="6"/>
+      <c r="AC210" s="6"/>
       <c r="AD210" s="6"/>
     </row>
     <row r="211" spans="1:30" x14ac:dyDescent="0.2">
@@ -21199,6 +21409,7 @@
         <v>328</v>
       </c>
       <c r="AB211" s="6"/>
+      <c r="AC211" s="6"/>
       <c r="AD211" s="6"/>
     </row>
     <row r="212" spans="1:30" x14ac:dyDescent="0.2">
@@ -21284,6 +21495,7 @@
         <v>425</v>
       </c>
       <c r="AB212" s="6"/>
+      <c r="AC212" s="6"/>
       <c r="AD212" s="6"/>
     </row>
     <row r="213" spans="1:30" x14ac:dyDescent="0.2">
@@ -21369,6 +21581,7 @@
         <v>337</v>
       </c>
       <c r="AB213" s="6"/>
+      <c r="AC213" s="6"/>
       <c r="AD213" s="6"/>
     </row>
     <row r="214" spans="1:30" x14ac:dyDescent="0.2">
@@ -21454,6 +21667,7 @@
         <v>476</v>
       </c>
       <c r="AB214" s="6"/>
+      <c r="AC214" s="6"/>
       <c r="AD214" s="6"/>
     </row>
     <row r="215" spans="1:30" x14ac:dyDescent="0.2">
@@ -21539,6 +21753,7 @@
         <v>190</v>
       </c>
       <c r="AB215" s="6"/>
+      <c r="AC215" s="6"/>
       <c r="AD215" s="6"/>
     </row>
     <row r="216" spans="1:30" x14ac:dyDescent="0.2">
@@ -21624,6 +21839,7 @@
         <v>793</v>
       </c>
       <c r="AB216" s="6"/>
+      <c r="AC216" s="6"/>
       <c r="AD216" s="6"/>
     </row>
     <row r="217" spans="1:30" x14ac:dyDescent="0.2">
@@ -21709,6 +21925,7 @@
         <v>910</v>
       </c>
       <c r="AB217" s="6"/>
+      <c r="AC217" s="6"/>
       <c r="AD217" s="6"/>
     </row>
     <row r="218" spans="1:30" x14ac:dyDescent="0.2">
@@ -21794,6 +22011,7 @@
         <v>732</v>
       </c>
       <c r="AB218" s="6"/>
+      <c r="AC218" s="6"/>
       <c r="AD218" s="6"/>
     </row>
     <row r="219" spans="1:30" x14ac:dyDescent="0.2">
@@ -21879,6 +22097,7 @@
         <v>866</v>
       </c>
       <c r="AB219" s="6"/>
+      <c r="AC219" s="6"/>
       <c r="AD219" s="6"/>
     </row>
     <row r="220" spans="1:30" x14ac:dyDescent="0.2">
@@ -21964,6 +22183,7 @@
         <v>630</v>
       </c>
       <c r="AB220" s="6"/>
+      <c r="AC220" s="6"/>
       <c r="AD220" s="6"/>
     </row>
     <row r="221" spans="1:30" x14ac:dyDescent="0.2">
@@ -22049,6 +22269,7 @@
         <v>760</v>
       </c>
       <c r="AB221" s="6"/>
+      <c r="AC221" s="6"/>
       <c r="AD221" s="6"/>
     </row>
     <row r="222" spans="1:30" x14ac:dyDescent="0.2">
@@ -22134,6 +22355,7 @@
         <v>780</v>
       </c>
       <c r="AB222" s="6"/>
+      <c r="AC222" s="6"/>
       <c r="AD222" s="6"/>
     </row>
     <row r="223" spans="1:30" x14ac:dyDescent="0.2">
@@ -22219,6 +22441,7 @@
         <v>551</v>
       </c>
       <c r="AB223" s="6"/>
+      <c r="AC223" s="6"/>
       <c r="AD223" s="6"/>
     </row>
     <row r="224" spans="1:30" x14ac:dyDescent="0.2">
@@ -22304,6 +22527,7 @@
         <v>570</v>
       </c>
       <c r="AB224" s="6"/>
+      <c r="AC224" s="6"/>
       <c r="AD224" s="6"/>
     </row>
     <row r="225" spans="1:30" x14ac:dyDescent="0.2">
@@ -22389,6 +22613,7 @@
         <v>819</v>
       </c>
       <c r="AB225" s="6"/>
+      <c r="AC225" s="6"/>
       <c r="AD225" s="6"/>
     </row>
     <row r="226" spans="1:30" x14ac:dyDescent="0.2">
@@ -22474,6 +22699,7 @@
         <v>816</v>
       </c>
       <c r="AB226" s="6"/>
+      <c r="AC226" s="6"/>
       <c r="AD226" s="6"/>
     </row>
     <row r="227" spans="1:30" x14ac:dyDescent="0.2">
@@ -22559,6 +22785,7 @@
         <v>566</v>
       </c>
       <c r="AB227" s="6"/>
+      <c r="AC227" s="6"/>
       <c r="AD227" s="6"/>
     </row>
     <row r="228" spans="1:30" x14ac:dyDescent="0.2">
@@ -22644,6 +22871,7 @@
         <v>697</v>
       </c>
       <c r="AB228" s="6"/>
+      <c r="AC228" s="6"/>
       <c r="AD228" s="6"/>
     </row>
     <row r="229" spans="1:30" x14ac:dyDescent="0.2">
@@ -22729,6 +22957,7 @@
         <v>753</v>
       </c>
       <c r="AB229" s="6"/>
+      <c r="AC229" s="6"/>
       <c r="AD229" s="6"/>
     </row>
     <row r="230" spans="1:30" x14ac:dyDescent="0.2">
@@ -22814,6 +23043,7 @@
         <v>689</v>
       </c>
       <c r="AB230" s="6"/>
+      <c r="AC230" s="6"/>
       <c r="AD230" s="6"/>
     </row>
     <row r="231" spans="1:30" x14ac:dyDescent="0.2">
@@ -22899,6 +23129,7 @@
         <v>661</v>
       </c>
       <c r="AB231" s="6"/>
+      <c r="AC231" s="6"/>
       <c r="AD231" s="6"/>
     </row>
     <row r="232" spans="1:30" x14ac:dyDescent="0.2">
@@ -22984,6 +23215,7 @@
         <v>689</v>
       </c>
       <c r="AB232" s="6"/>
+      <c r="AC232" s="6"/>
       <c r="AD232" s="6"/>
     </row>
     <row r="233" spans="1:30" x14ac:dyDescent="0.2">
@@ -23069,6 +23301,7 @@
         <v>688</v>
       </c>
       <c r="AB233" s="6"/>
+      <c r="AC233" s="6"/>
       <c r="AD233" s="6"/>
     </row>
     <row r="234" spans="1:30" x14ac:dyDescent="0.2">
@@ -23154,6 +23387,7 @@
         <v>631</v>
       </c>
       <c r="AB234" s="6"/>
+      <c r="AC234" s="6"/>
       <c r="AD234" s="6"/>
     </row>
     <row r="235" spans="1:30" x14ac:dyDescent="0.2">
@@ -23239,6 +23473,7 @@
         <v>0</v>
       </c>
       <c r="AB235" s="6"/>
+      <c r="AC235" s="6"/>
       <c r="AD235" s="6"/>
     </row>
     <row r="236" spans="1:30" x14ac:dyDescent="0.2">
@@ -23324,6 +23559,7 @@
         <v>840</v>
       </c>
       <c r="AB236" s="6"/>
+      <c r="AC236" s="6"/>
       <c r="AD236" s="6"/>
     </row>
     <row r="237" spans="1:30" x14ac:dyDescent="0.2">
@@ -23409,6 +23645,7 @@
         <v>697</v>
       </c>
       <c r="AB237" s="6"/>
+      <c r="AC237" s="6"/>
       <c r="AD237" s="6"/>
     </row>
     <row r="238" spans="1:30" x14ac:dyDescent="0.2">
@@ -23494,6 +23731,7 @@
         <v>863</v>
       </c>
       <c r="AB238" s="6"/>
+      <c r="AC238" s="6"/>
       <c r="AD238" s="6"/>
     </row>
     <row r="239" spans="1:30" x14ac:dyDescent="0.2">
@@ -23579,6 +23817,7 @@
         <v>751</v>
       </c>
       <c r="AB239" s="6"/>
+      <c r="AC239" s="6"/>
       <c r="AD239" s="6"/>
     </row>
     <row r="240" spans="1:30" x14ac:dyDescent="0.2">
@@ -23664,6 +23903,7 @@
         <v>769</v>
       </c>
       <c r="AB240" s="6"/>
+      <c r="AC240" s="6"/>
       <c r="AD240" s="6"/>
     </row>
     <row r="241" spans="1:30" x14ac:dyDescent="0.2">
@@ -23749,6 +23989,7 @@
         <v>753</v>
       </c>
       <c r="AB241" s="6"/>
+      <c r="AC241" s="6"/>
       <c r="AD241" s="6"/>
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.2">
@@ -23834,6 +24075,7 @@
         <v>745</v>
       </c>
       <c r="AB242" s="6"/>
+      <c r="AC242" s="6"/>
       <c r="AD242" s="6"/>
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.2">
@@ -23919,6 +24161,7 @@
         <v>778</v>
       </c>
       <c r="AB243" s="6"/>
+      <c r="AC243" s="6"/>
       <c r="AD243" s="6"/>
     </row>
     <row r="244" spans="1:30" x14ac:dyDescent="0.2">
@@ -24004,6 +24247,7 @@
         <v>871</v>
       </c>
       <c r="AB244" s="6"/>
+      <c r="AC244" s="6"/>
       <c r="AD244" s="6"/>
     </row>
     <row r="245" spans="1:30" x14ac:dyDescent="0.2">
@@ -24089,6 +24333,7 @@
         <v>654</v>
       </c>
       <c r="AB245" s="6"/>
+      <c r="AC245" s="6"/>
       <c r="AD245" s="6"/>
     </row>
     <row r="246" spans="1:30" x14ac:dyDescent="0.2">
@@ -24174,6 +24419,7 @@
         <v>683</v>
       </c>
       <c r="AB246" s="6"/>
+      <c r="AC246" s="6"/>
       <c r="AD246" s="6"/>
     </row>
     <row r="247" spans="1:30" x14ac:dyDescent="0.2">
@@ -24259,6 +24505,7 @@
         <v>759</v>
       </c>
       <c r="AB247" s="6"/>
+      <c r="AC247" s="6"/>
       <c r="AD247" s="6"/>
     </row>
     <row r="248" spans="1:30" x14ac:dyDescent="0.2">
@@ -24344,6 +24591,7 @@
         <v>644</v>
       </c>
       <c r="AB248" s="6"/>
+      <c r="AC248" s="6"/>
       <c r="AD248" s="6"/>
     </row>
     <row r="249" spans="1:30" x14ac:dyDescent="0.2">
@@ -24429,6 +24677,7 @@
         <v>637</v>
       </c>
       <c r="AB249" s="6"/>
+      <c r="AC249" s="6"/>
       <c r="AD249" s="6"/>
     </row>
     <row r="250" spans="1:30" x14ac:dyDescent="0.2">
@@ -24514,6 +24763,7 @@
         <v>796</v>
       </c>
       <c r="AB250" s="6"/>
+      <c r="AC250" s="6"/>
       <c r="AD250" s="6"/>
     </row>
     <row r="251" spans="1:30" x14ac:dyDescent="0.2">
@@ -24599,6 +24849,7 @@
         <v>562</v>
       </c>
       <c r="AB251" s="6"/>
+      <c r="AC251" s="6"/>
       <c r="AD251" s="6"/>
     </row>
     <row r="252" spans="1:30" x14ac:dyDescent="0.2">
@@ -24684,6 +24935,7 @@
         <v>679</v>
       </c>
       <c r="AB252" s="6"/>
+      <c r="AC252" s="6"/>
       <c r="AD252" s="6"/>
     </row>
     <row r="253" spans="1:30" x14ac:dyDescent="0.2">
@@ -24769,6 +25021,7 @@
         <v>762</v>
       </c>
       <c r="AB253" s="6"/>
+      <c r="AC253" s="6"/>
       <c r="AD253" s="6"/>
     </row>
     <row r="254" spans="1:30" x14ac:dyDescent="0.2">
@@ -24854,6 +25107,7 @@
         <v>733</v>
       </c>
       <c r="AB254" s="6"/>
+      <c r="AC254" s="6"/>
       <c r="AD254" s="6"/>
     </row>
     <row r="255" spans="1:30" x14ac:dyDescent="0.2">
@@ -24939,6 +25193,7 @@
         <v>748</v>
       </c>
       <c r="AB255" s="6"/>
+      <c r="AC255" s="6"/>
       <c r="AD255" s="6"/>
     </row>
     <row r="256" spans="1:30" x14ac:dyDescent="0.2">
@@ -25024,6 +25279,7 @@
         <v>701</v>
       </c>
       <c r="AB256" s="6"/>
+      <c r="AC256" s="6"/>
       <c r="AD256" s="6"/>
     </row>
     <row r="257" spans="1:30" x14ac:dyDescent="0.2">
@@ -25109,6 +25365,7 @@
         <v>575</v>
       </c>
       <c r="AB257" s="6"/>
+      <c r="AC257" s="6"/>
       <c r="AD257" s="6"/>
     </row>
     <row r="258" spans="1:30" x14ac:dyDescent="0.2">
@@ -25194,6 +25451,7 @@
         <v>761</v>
       </c>
       <c r="AB258" s="6"/>
+      <c r="AC258" s="6"/>
       <c r="AD258" s="6"/>
     </row>
     <row r="259" spans="1:30" x14ac:dyDescent="0.2">
@@ -25279,6 +25537,7 @@
         <v>661</v>
       </c>
       <c r="AB259" s="6"/>
+      <c r="AC259" s="6"/>
       <c r="AD259" s="6"/>
     </row>
     <row r="260" spans="1:30" x14ac:dyDescent="0.2">
@@ -25364,6 +25623,7 @@
         <v>690</v>
       </c>
       <c r="AB260" s="6"/>
+      <c r="AC260" s="6"/>
       <c r="AD260" s="6"/>
     </row>
     <row r="261" spans="1:30" x14ac:dyDescent="0.2">
@@ -25449,6 +25709,7 @@
         <v>681</v>
       </c>
       <c r="AB261" s="6"/>
+      <c r="AC261" s="6"/>
       <c r="AD261" s="6"/>
     </row>
     <row r="262" spans="1:30" x14ac:dyDescent="0.2">
@@ -25534,6 +25795,7 @@
         <v>794</v>
       </c>
       <c r="AB262" s="6"/>
+      <c r="AC262" s="6"/>
       <c r="AD262" s="6"/>
     </row>
     <row r="263" spans="1:30" x14ac:dyDescent="0.2">
@@ -25619,6 +25881,7 @@
         <v>761</v>
       </c>
       <c r="AB263" s="6"/>
+      <c r="AC263" s="6"/>
       <c r="AD263" s="6"/>
     </row>
     <row r="264" spans="1:30" x14ac:dyDescent="0.2">
@@ -25704,6 +25967,7 @@
         <v>789</v>
       </c>
       <c r="AB264" s="6"/>
+      <c r="AC264" s="6"/>
       <c r="AD264" s="6"/>
     </row>
     <row r="265" spans="1:30" x14ac:dyDescent="0.2">
@@ -25789,6 +26053,7 @@
         <v>741</v>
       </c>
       <c r="AB265" s="6"/>
+      <c r="AC265" s="6"/>
       <c r="AD265" s="6"/>
     </row>
     <row r="266" spans="1:30" x14ac:dyDescent="0.2">
@@ -25874,6 +26139,7 @@
         <v>747</v>
       </c>
       <c r="AB266" s="6"/>
+      <c r="AC266" s="6"/>
       <c r="AD266" s="6"/>
     </row>
     <row r="267" spans="1:30" x14ac:dyDescent="0.2">
@@ -25959,6 +26225,7 @@
         <v>750</v>
       </c>
       <c r="AB267" s="6"/>
+      <c r="AC267" s="6"/>
       <c r="AD267" s="6"/>
     </row>
     <row r="268" spans="1:30" x14ac:dyDescent="0.2">
@@ -26044,6 +26311,7 @@
         <v>743</v>
       </c>
       <c r="AB268" s="6"/>
+      <c r="AC268" s="6"/>
       <c r="AD268" s="6"/>
     </row>
     <row r="269" spans="1:30" x14ac:dyDescent="0.2">
@@ -26129,6 +26397,7 @@
         <v>716</v>
       </c>
       <c r="AB269" s="6"/>
+      <c r="AC269" s="6"/>
       <c r="AD269" s="6"/>
     </row>
     <row r="270" spans="1:30" x14ac:dyDescent="0.2">
@@ -26214,6 +26483,7 @@
         <v>650</v>
       </c>
       <c r="AB270" s="6"/>
+      <c r="AC270" s="6"/>
       <c r="AD270" s="6"/>
     </row>
     <row r="271" spans="1:30" x14ac:dyDescent="0.2">
@@ -26299,6 +26569,7 @@
         <v>655</v>
       </c>
       <c r="AB271" s="6"/>
+      <c r="AC271" s="6"/>
       <c r="AD271" s="6"/>
     </row>
     <row r="272" spans="1:30" x14ac:dyDescent="0.2">
@@ -26384,6 +26655,7 @@
         <v>650</v>
       </c>
       <c r="AB272" s="6"/>
+      <c r="AC272" s="6"/>
       <c r="AD272" s="6"/>
     </row>
     <row r="273" spans="1:30" x14ac:dyDescent="0.2">
@@ -26469,6 +26741,7 @@
         <v>651</v>
       </c>
       <c r="AB273" s="6"/>
+      <c r="AC273" s="6"/>
       <c r="AD273" s="6"/>
     </row>
     <row r="274" spans="1:30" x14ac:dyDescent="0.2">
@@ -26554,6 +26827,7 @@
         <v>611</v>
       </c>
       <c r="AB274" s="6"/>
+      <c r="AC274" s="6"/>
       <c r="AD274" s="6"/>
     </row>
     <row r="275" spans="1:30" x14ac:dyDescent="0.2">
@@ -26639,6 +26913,7 @@
         <v>738</v>
       </c>
       <c r="AB275" s="6"/>
+      <c r="AC275" s="6"/>
       <c r="AD275" s="6"/>
     </row>
     <row r="276" spans="1:30" x14ac:dyDescent="0.2">
@@ -26724,6 +26999,7 @@
         <v>435</v>
       </c>
       <c r="AB276" s="6"/>
+      <c r="AC276" s="6"/>
       <c r="AD276" s="6"/>
     </row>
     <row r="277" spans="1:30" x14ac:dyDescent="0.2">
@@ -26809,6 +27085,7 @@
         <v>712</v>
       </c>
       <c r="AB277" s="6"/>
+      <c r="AC277" s="6"/>
       <c r="AD277" s="6"/>
     </row>
     <row r="278" spans="1:30" x14ac:dyDescent="0.2">
@@ -26894,6 +27171,7 @@
         <v>794</v>
       </c>
       <c r="AB278" s="6"/>
+      <c r="AC278" s="6"/>
       <c r="AD278" s="6"/>
     </row>
     <row r="279" spans="1:30" x14ac:dyDescent="0.2">
@@ -26979,6 +27257,7 @@
         <v>719</v>
       </c>
       <c r="AB279" s="6"/>
+      <c r="AC279" s="6"/>
       <c r="AD279" s="6"/>
     </row>
     <row r="280" spans="1:30" x14ac:dyDescent="0.2">
@@ -27064,6 +27343,7 @@
         <v>631</v>
       </c>
       <c r="AB280" s="6"/>
+      <c r="AC280" s="6"/>
       <c r="AD280" s="6"/>
     </row>
     <row r="281" spans="1:30" x14ac:dyDescent="0.2">
@@ -27149,6 +27429,7 @@
         <v>711</v>
       </c>
       <c r="AB281" s="6"/>
+      <c r="AC281" s="6"/>
       <c r="AD281" s="6"/>
     </row>
     <row r="282" spans="1:30" x14ac:dyDescent="0.2">
@@ -27234,6 +27515,7 @@
         <v>786</v>
       </c>
       <c r="AB282" s="6"/>
+      <c r="AC282" s="6"/>
       <c r="AD282" s="6"/>
     </row>
     <row r="283" spans="1:30" x14ac:dyDescent="0.2">
@@ -27319,6 +27601,7 @@
         <v>756</v>
       </c>
       <c r="AB283" s="6"/>
+      <c r="AC283" s="6"/>
       <c r="AD283" s="6"/>
     </row>
     <row r="284" spans="1:30" x14ac:dyDescent="0.2">
@@ -27404,6 +27687,7 @@
         <v>827</v>
       </c>
       <c r="AB284" s="6"/>
+      <c r="AC284" s="6"/>
       <c r="AD284" s="6"/>
     </row>
     <row r="285" spans="1:30" x14ac:dyDescent="0.2">
@@ -27489,6 +27773,7 @@
         <v>836</v>
       </c>
       <c r="AB285" s="6"/>
+      <c r="AC285" s="6"/>
       <c r="AD285" s="6"/>
     </row>
     <row r="286" spans="1:30" x14ac:dyDescent="0.2">
@@ -27574,6 +27859,7 @@
         <v>684</v>
       </c>
       <c r="AB286" s="6"/>
+      <c r="AC286" s="6"/>
       <c r="AD286" s="6"/>
     </row>
     <row r="287" spans="1:30" x14ac:dyDescent="0.2">
@@ -27659,6 +27945,7 @@
         <v>777</v>
       </c>
       <c r="AB287" s="6"/>
+      <c r="AC287" s="6"/>
       <c r="AD287" s="6"/>
     </row>
     <row r="288" spans="1:30" x14ac:dyDescent="0.2">
@@ -27744,6 +28031,7 @@
         <v>623</v>
       </c>
       <c r="AB288" s="6"/>
+      <c r="AC288" s="6"/>
       <c r="AD288" s="6"/>
     </row>
     <row r="289" spans="1:30" x14ac:dyDescent="0.2">
@@ -27829,6 +28117,7 @@
         <v>589</v>
       </c>
       <c r="AB289" s="6"/>
+      <c r="AC289" s="6"/>
       <c r="AD289" s="6"/>
     </row>
     <row r="290" spans="1:30" x14ac:dyDescent="0.2">
@@ -27914,6 +28203,7 @@
         <v>772</v>
       </c>
       <c r="AB290" s="6"/>
+      <c r="AC290" s="6"/>
       <c r="AD290" s="6"/>
     </row>
     <row r="291" spans="1:30" x14ac:dyDescent="0.2">
@@ -27999,6 +28289,7 @@
         <v>718</v>
       </c>
       <c r="AB291" s="6"/>
+      <c r="AC291" s="6"/>
       <c r="AD291" s="6"/>
     </row>
     <row r="292" spans="1:30" x14ac:dyDescent="0.2">
@@ -28084,6 +28375,7 @@
         <v>614</v>
       </c>
       <c r="AB292" s="6"/>
+      <c r="AC292" s="6"/>
       <c r="AD292" s="6"/>
     </row>
     <row r="293" spans="1:30" x14ac:dyDescent="0.2">
@@ -28169,6 +28461,7 @@
         <v>661</v>
       </c>
       <c r="AB293" s="6"/>
+      <c r="AC293" s="6"/>
       <c r="AD293" s="6"/>
     </row>
     <row r="294" spans="1:30" x14ac:dyDescent="0.2">
@@ -28254,6 +28547,7 @@
         <v>785</v>
       </c>
       <c r="AB294" s="6"/>
+      <c r="AC294" s="6"/>
       <c r="AD294" s="6"/>
     </row>
     <row r="295" spans="1:30" x14ac:dyDescent="0.2">
@@ -28339,6 +28633,7 @@
         <v>644</v>
       </c>
       <c r="AB295" s="6"/>
+      <c r="AC295" s="6"/>
       <c r="AD295" s="6"/>
     </row>
     <row r="296" spans="1:30" x14ac:dyDescent="0.2">
@@ -28424,6 +28719,7 @@
         <v>728</v>
       </c>
       <c r="AB296" s="6"/>
+      <c r="AC296" s="6"/>
       <c r="AD296" s="6"/>
     </row>
     <row r="297" spans="1:30" x14ac:dyDescent="0.2">
@@ -28509,6 +28805,7 @@
         <v>708</v>
       </c>
       <c r="AB297" s="6"/>
+      <c r="AC297" s="6"/>
       <c r="AD297" s="6"/>
     </row>
     <row r="298" spans="1:30" x14ac:dyDescent="0.2">
@@ -28594,6 +28891,7 @@
         <v>0</v>
       </c>
       <c r="AB298" s="6"/>
+      <c r="AC298" s="6"/>
       <c r="AD298" s="6"/>
     </row>
     <row r="299" spans="1:30" x14ac:dyDescent="0.2">
@@ -28679,6 +28977,7 @@
         <v>518</v>
       </c>
       <c r="AB299" s="6"/>
+      <c r="AC299" s="6"/>
       <c r="AD299" s="6"/>
     </row>
     <row r="300" spans="1:30" x14ac:dyDescent="0.2">
@@ -28764,6 +29063,7 @@
         <v>770</v>
       </c>
       <c r="AB300" s="6"/>
+      <c r="AC300" s="6"/>
       <c r="AD300" s="6"/>
     </row>
     <row r="301" spans="1:30" x14ac:dyDescent="0.2">
@@ -28849,6 +29149,7 @@
         <v>769</v>
       </c>
       <c r="AB301" s="6"/>
+      <c r="AC301" s="6"/>
       <c r="AD301" s="6"/>
     </row>
     <row r="302" spans="1:30" x14ac:dyDescent="0.2">
@@ -28934,6 +29235,7 @@
         <v>752</v>
       </c>
       <c r="AB302" s="6"/>
+      <c r="AC302" s="6"/>
       <c r="AD302" s="6"/>
     </row>
     <row r="303" spans="1:30" x14ac:dyDescent="0.2">
@@ -29019,6 +29321,7 @@
         <v>725</v>
       </c>
       <c r="AB303" s="6"/>
+      <c r="AC303" s="6"/>
       <c r="AD303" s="6"/>
     </row>
     <row r="304" spans="1:30" x14ac:dyDescent="0.2">
@@ -29104,6 +29407,7 @@
         <v>790</v>
       </c>
       <c r="AB304" s="6"/>
+      <c r="AC304" s="6"/>
       <c r="AD304" s="6"/>
     </row>
     <row r="305" spans="1:30" x14ac:dyDescent="0.2">
@@ -29189,6 +29493,7 @@
         <v>648</v>
       </c>
       <c r="AB305" s="6"/>
+      <c r="AC305" s="6"/>
       <c r="AD305" s="6"/>
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.2">
@@ -29274,6 +29579,7 @@
         <v>718</v>
       </c>
       <c r="AB306" s="6"/>
+      <c r="AC306" s="6"/>
       <c r="AD306" s="6"/>
     </row>
     <row r="307" spans="1:30" x14ac:dyDescent="0.2">
@@ -29359,6 +29665,7 @@
         <v>835</v>
       </c>
       <c r="AB307" s="6"/>
+      <c r="AC307" s="6"/>
       <c r="AD307" s="6"/>
     </row>
     <row r="308" spans="1:30" x14ac:dyDescent="0.2">
@@ -29444,6 +29751,7 @@
         <v>611</v>
       </c>
       <c r="AB308" s="6"/>
+      <c r="AC308" s="6"/>
       <c r="AD308" s="6"/>
     </row>
     <row r="309" spans="1:30" x14ac:dyDescent="0.2">
@@ -29529,6 +29837,7 @@
         <v>772</v>
       </c>
       <c r="AB309" s="6"/>
+      <c r="AC309" s="6"/>
       <c r="AD309" s="6"/>
     </row>
     <row r="310" spans="1:30" x14ac:dyDescent="0.2">
@@ -29614,6 +29923,7 @@
         <v>747</v>
       </c>
       <c r="AB310" s="6"/>
+      <c r="AC310" s="6"/>
       <c r="AD310" s="6"/>
     </row>
     <row r="311" spans="1:30" x14ac:dyDescent="0.2">
@@ -29699,6 +30009,7 @@
         <v>605</v>
       </c>
       <c r="AB311" s="6"/>
+      <c r="AC311" s="6"/>
       <c r="AD311" s="6"/>
     </row>
     <row r="312" spans="1:30" x14ac:dyDescent="0.2">
@@ -29784,6 +30095,7 @@
         <v>584</v>
       </c>
       <c r="AB312" s="6"/>
+      <c r="AC312" s="6"/>
       <c r="AD312" s="6"/>
     </row>
     <row r="313" spans="1:30" x14ac:dyDescent="0.2">
@@ -29869,6 +30181,7 @@
         <v>834</v>
       </c>
       <c r="AB313" s="6"/>
+      <c r="AC313" s="6"/>
       <c r="AD313" s="6"/>
     </row>
     <row r="314" spans="1:30" x14ac:dyDescent="0.2">
@@ -29954,6 +30267,7 @@
         <v>826</v>
       </c>
       <c r="AB314" s="6"/>
+      <c r="AC314" s="6"/>
       <c r="AD314" s="6"/>
     </row>
     <row r="315" spans="1:30" x14ac:dyDescent="0.2">
@@ -30039,6 +30353,7 @@
         <v>751</v>
       </c>
       <c r="AB315" s="6"/>
+      <c r="AC315" s="6"/>
       <c r="AD315" s="6"/>
     </row>
     <row r="316" spans="1:30" x14ac:dyDescent="0.2">
@@ -30124,6 +30439,7 @@
         <v>761</v>
       </c>
       <c r="AB316" s="6"/>
+      <c r="AC316" s="6"/>
       <c r="AD316" s="6"/>
     </row>
     <row r="317" spans="1:30" x14ac:dyDescent="0.2">
@@ -30209,6 +30525,7 @@
         <v>754</v>
       </c>
       <c r="AB317" s="6"/>
+      <c r="AC317" s="6"/>
       <c r="AD317" s="6"/>
     </row>
     <row r="318" spans="1:30" x14ac:dyDescent="0.2">
@@ -30294,6 +30611,7 @@
         <v>546</v>
       </c>
       <c r="AB318" s="6"/>
+      <c r="AC318" s="6"/>
       <c r="AD318" s="6"/>
     </row>
     <row r="319" spans="1:30" x14ac:dyDescent="0.2">
@@ -30379,6 +30697,7 @@
         <v>643</v>
       </c>
       <c r="AB319" s="6"/>
+      <c r="AC319" s="6"/>
       <c r="AD319" s="6"/>
     </row>
     <row r="320" spans="1:30" x14ac:dyDescent="0.2">
@@ -30464,6 +30783,7 @@
         <v>795</v>
       </c>
       <c r="AB320" s="6"/>
+      <c r="AC320" s="6"/>
       <c r="AD320" s="6"/>
     </row>
     <row r="321" spans="1:30" x14ac:dyDescent="0.2">
@@ -30549,6 +30869,7 @@
         <v>522</v>
       </c>
       <c r="AB321" s="6"/>
+      <c r="AC321" s="6"/>
       <c r="AD321" s="6"/>
     </row>
     <row r="322" spans="1:30" x14ac:dyDescent="0.2">
@@ -30634,6 +30955,7 @@
         <v>768</v>
       </c>
       <c r="AB322" s="6"/>
+      <c r="AC322" s="6"/>
       <c r="AD322" s="6"/>
     </row>
     <row r="323" spans="1:30" x14ac:dyDescent="0.2">
@@ -30719,6 +31041,7 @@
         <v>798</v>
       </c>
       <c r="AB323" s="6"/>
+      <c r="AC323" s="6"/>
       <c r="AD323" s="6"/>
     </row>
     <row r="324" spans="1:30" x14ac:dyDescent="0.2">
@@ -30804,6 +31127,7 @@
         <v>727</v>
       </c>
       <c r="AB324" s="6"/>
+      <c r="AC324" s="6"/>
       <c r="AD324" s="6"/>
     </row>
     <row r="325" spans="1:30" x14ac:dyDescent="0.2">
@@ -30889,6 +31213,7 @@
         <v>694</v>
       </c>
       <c r="AB325" s="6"/>
+      <c r="AC325" s="6"/>
       <c r="AD325" s="6"/>
     </row>
     <row r="326" spans="1:30" x14ac:dyDescent="0.2">
@@ -30974,6 +31299,7 @@
         <v>646</v>
       </c>
       <c r="AB326" s="6"/>
+      <c r="AC326" s="6"/>
       <c r="AD326" s="6"/>
     </row>
     <row r="327" spans="1:30" x14ac:dyDescent="0.2">
@@ -31059,6 +31385,7 @@
         <v>744</v>
       </c>
       <c r="AB327" s="6"/>
+      <c r="AC327" s="6"/>
       <c r="AD327" s="6"/>
     </row>
     <row r="328" spans="1:30" x14ac:dyDescent="0.2">
@@ -31144,6 +31471,7 @@
         <v>799</v>
       </c>
       <c r="AB328" s="6"/>
+      <c r="AC328" s="6"/>
       <c r="AD328" s="6"/>
     </row>
     <row r="329" spans="1:30" x14ac:dyDescent="0.2">
@@ -31229,6 +31557,7 @@
         <v>542</v>
       </c>
       <c r="AB329" s="6"/>
+      <c r="AC329" s="6"/>
       <c r="AD329" s="6"/>
     </row>
     <row r="330" spans="1:30" x14ac:dyDescent="0.2">
@@ -31314,6 +31643,7 @@
         <v>731</v>
       </c>
       <c r="AB330" s="6"/>
+      <c r="AC330" s="6"/>
       <c r="AD330" s="6"/>
     </row>
     <row r="331" spans="1:30" x14ac:dyDescent="0.2">
@@ -31399,6 +31729,7 @@
         <v>596</v>
       </c>
       <c r="AB331" s="6"/>
+      <c r="AC331" s="6"/>
       <c r="AD331" s="6"/>
     </row>
     <row r="332" spans="1:30" x14ac:dyDescent="0.2">
@@ -31484,6 +31815,7 @@
         <v>589</v>
       </c>
       <c r="AB332" s="6"/>
+      <c r="AC332" s="6"/>
       <c r="AD332" s="6"/>
     </row>
     <row r="333" spans="1:30" x14ac:dyDescent="0.2">
@@ -31569,6 +31901,7 @@
         <v>596</v>
       </c>
       <c r="AB333" s="6"/>
+      <c r="AC333" s="6"/>
       <c r="AD333" s="6"/>
     </row>
     <row r="334" spans="1:30" x14ac:dyDescent="0.2">
@@ -31654,6 +31987,7 @@
         <v>745</v>
       </c>
       <c r="AB334" s="6"/>
+      <c r="AC334" s="6"/>
       <c r="AD334" s="6"/>
     </row>
     <row r="335" spans="1:30" x14ac:dyDescent="0.2">
@@ -31739,6 +32073,7 @@
         <v>673</v>
       </c>
       <c r="AB335" s="6"/>
+      <c r="AC335" s="6"/>
       <c r="AD335" s="6"/>
     </row>
     <row r="336" spans="1:30" x14ac:dyDescent="0.2">
@@ -31824,6 +32159,7 @@
         <v>763</v>
       </c>
       <c r="AB336" s="6"/>
+      <c r="AC336" s="6"/>
       <c r="AD336" s="6"/>
     </row>
     <row r="337" spans="1:30" x14ac:dyDescent="0.2">
@@ -31909,6 +32245,7 @@
         <v>693</v>
       </c>
       <c r="AB337" s="6"/>
+      <c r="AC337" s="6"/>
       <c r="AD337" s="6"/>
     </row>
     <row r="338" spans="1:30" x14ac:dyDescent="0.2">
@@ -31994,6 +32331,7 @@
         <v>702</v>
       </c>
       <c r="AB338" s="6"/>
+      <c r="AC338" s="6"/>
       <c r="AD338" s="6"/>
     </row>
     <row r="339" spans="1:30" x14ac:dyDescent="0.2">
@@ -32079,6 +32417,7 @@
         <v>812</v>
       </c>
       <c r="AB339" s="6"/>
+      <c r="AC339" s="6"/>
       <c r="AD339" s="6"/>
     </row>
     <row r="340" spans="1:30" x14ac:dyDescent="0.2">
@@ -32164,6 +32503,7 @@
         <v>735</v>
       </c>
       <c r="AB340" s="6"/>
+      <c r="AC340" s="6"/>
       <c r="AD340" s="6"/>
     </row>
     <row r="341" spans="1:30" x14ac:dyDescent="0.2">
@@ -32249,6 +32589,7 @@
         <v>692</v>
       </c>
       <c r="AB341" s="6"/>
+      <c r="AC341" s="6"/>
       <c r="AD341" s="6"/>
     </row>
     <row r="342" spans="1:30" x14ac:dyDescent="0.2">
@@ -32334,6 +32675,7 @@
         <v>625</v>
       </c>
       <c r="AB342" s="6"/>
+      <c r="AC342" s="6"/>
       <c r="AD342" s="6"/>
     </row>
     <row r="343" spans="1:30" x14ac:dyDescent="0.2">
@@ -32419,6 +32761,7 @@
         <v>667</v>
       </c>
       <c r="AB343" s="6"/>
+      <c r="AC343" s="6"/>
       <c r="AD343" s="6"/>
     </row>
     <row r="344" spans="1:30" x14ac:dyDescent="0.2">
@@ -32504,6 +32847,7 @@
         <v>750</v>
       </c>
       <c r="AB344" s="6"/>
+      <c r="AC344" s="6"/>
       <c r="AD344" s="6"/>
     </row>
     <row r="345" spans="1:30" x14ac:dyDescent="0.2">
@@ -32589,6 +32933,7 @@
         <v>672</v>
       </c>
       <c r="AB345" s="6"/>
+      <c r="AC345" s="6"/>
       <c r="AD345" s="6"/>
     </row>
     <row r="346" spans="1:30" x14ac:dyDescent="0.2">
@@ -32674,6 +33019,7 @@
         <v>603</v>
       </c>
       <c r="AB346" s="6"/>
+      <c r="AC346" s="6"/>
       <c r="AD346" s="6"/>
     </row>
     <row r="347" spans="1:30" x14ac:dyDescent="0.2">
@@ -32759,6 +33105,7 @@
         <v>722</v>
       </c>
       <c r="AB347" s="6"/>
+      <c r="AC347" s="6"/>
       <c r="AD347" s="6"/>
     </row>
     <row r="348" spans="1:30" x14ac:dyDescent="0.2">
@@ -32844,6 +33191,7 @@
         <v>750</v>
       </c>
       <c r="AB348" s="6"/>
+      <c r="AC348" s="6"/>
       <c r="AD348" s="6"/>
     </row>
     <row r="349" spans="1:30" x14ac:dyDescent="0.2">
@@ -32929,6 +33277,7 @@
         <v>770</v>
       </c>
       <c r="AB349" s="6"/>
+      <c r="AC349" s="6"/>
       <c r="AD349" s="6"/>
     </row>
     <row r="350" spans="1:30" x14ac:dyDescent="0.2">
@@ -33014,6 +33363,7 @@
         <v>786</v>
       </c>
       <c r="AB350" s="6"/>
+      <c r="AC350" s="6"/>
       <c r="AD350" s="6"/>
     </row>
     <row r="351" spans="1:30" x14ac:dyDescent="0.2">
@@ -33099,6 +33449,7 @@
         <v>795</v>
       </c>
       <c r="AB351" s="6"/>
+      <c r="AC351" s="6"/>
       <c r="AD351" s="6"/>
     </row>
     <row r="352" spans="1:30" x14ac:dyDescent="0.2">
@@ -33184,6 +33535,7 @@
         <v>650</v>
       </c>
       <c r="AB352" s="6"/>
+      <c r="AC352" s="6"/>
       <c r="AD352" s="6"/>
     </row>
     <row r="353" spans="1:30" x14ac:dyDescent="0.2">
@@ -33269,6 +33621,7 @@
         <v>762</v>
       </c>
       <c r="AB353" s="6"/>
+      <c r="AC353" s="6"/>
       <c r="AD353" s="6"/>
     </row>
     <row r="354" spans="1:30" x14ac:dyDescent="0.2">
@@ -33354,6 +33707,7 @@
         <v>638</v>
       </c>
       <c r="AB354" s="6"/>
+      <c r="AC354" s="6"/>
       <c r="AD354" s="6"/>
     </row>
     <row r="355" spans="1:30" x14ac:dyDescent="0.2">
@@ -33439,6 +33793,7 @@
         <v>821</v>
       </c>
       <c r="AB355" s="6"/>
+      <c r="AC355" s="6"/>
       <c r="AD355" s="6"/>
     </row>
     <row r="356" spans="1:30" x14ac:dyDescent="0.2">
@@ -33524,6 +33879,7 @@
         <v>867</v>
       </c>
       <c r="AB356" s="6"/>
+      <c r="AC356" s="6"/>
       <c r="AD356" s="6"/>
     </row>
     <row r="357" spans="1:30" x14ac:dyDescent="0.2">
@@ -33609,6 +33965,7 @@
         <v>664</v>
       </c>
       <c r="AB357" s="6"/>
+      <c r="AC357" s="6"/>
       <c r="AD357" s="6"/>
     </row>
     <row r="358" spans="1:30" x14ac:dyDescent="0.2">
@@ -33694,6 +34051,7 @@
         <v>644</v>
       </c>
       <c r="AB358" s="6"/>
+      <c r="AC358" s="6"/>
       <c r="AD358" s="6"/>
     </row>
     <row r="359" spans="1:30" x14ac:dyDescent="0.2">
@@ -33779,6 +34137,7 @@
         <v>626</v>
       </c>
       <c r="AB359" s="6"/>
+      <c r="AC359" s="6"/>
       <c r="AD359" s="6"/>
     </row>
     <row r="360" spans="1:30" x14ac:dyDescent="0.2">
@@ -33864,6 +34223,7 @@
         <v>639</v>
       </c>
       <c r="AB360" s="6"/>
+      <c r="AC360" s="6"/>
       <c r="AD360" s="6"/>
     </row>
     <row r="361" spans="1:30" x14ac:dyDescent="0.2">
@@ -33949,6 +34309,7 @@
         <v>463</v>
       </c>
       <c r="AB361" s="6"/>
+      <c r="AC361" s="6"/>
       <c r="AD361" s="6"/>
     </row>
     <row r="362" spans="1:30" x14ac:dyDescent="0.2">
@@ -34034,6 +34395,7 @@
         <v>584</v>
       </c>
       <c r="AB362" s="6"/>
+      <c r="AC362" s="6"/>
       <c r="AD362" s="6"/>
     </row>
     <row r="363" spans="1:30" x14ac:dyDescent="0.2">
@@ -34119,6 +34481,7 @@
         <v>536</v>
       </c>
       <c r="AB363" s="6"/>
+      <c r="AC363" s="6"/>
       <c r="AD363" s="6"/>
     </row>
     <row r="364" spans="1:30" x14ac:dyDescent="0.2">
@@ -34204,6 +34567,7 @@
         <v>644</v>
       </c>
       <c r="AB364" s="6"/>
+      <c r="AC364" s="6"/>
       <c r="AD364" s="6"/>
     </row>
     <row r="365" spans="1:30" x14ac:dyDescent="0.2">
@@ -34289,6 +34653,7 @@
         <v>735</v>
       </c>
       <c r="AB365" s="6"/>
+      <c r="AC365" s="6"/>
       <c r="AD365" s="6"/>
     </row>
     <row r="366" spans="1:30" x14ac:dyDescent="0.2">
@@ -34374,6 +34739,7 @@
         <v>736</v>
       </c>
       <c r="AB366" s="6"/>
+      <c r="AC366" s="6"/>
       <c r="AD366" s="6"/>
     </row>
     <row r="367" spans="1:30" x14ac:dyDescent="0.2">
@@ -34459,6 +34825,7 @@
         <v>691</v>
       </c>
       <c r="AB367" s="6"/>
+      <c r="AC367" s="6"/>
       <c r="AD367" s="6"/>
     </row>
     <row r="368" spans="1:30" x14ac:dyDescent="0.2">
@@ -34544,6 +34911,7 @@
         <v>714</v>
       </c>
       <c r="AB368" s="6"/>
+      <c r="AC368" s="6"/>
       <c r="AD368" s="6"/>
     </row>
     <row r="369" spans="1:30" x14ac:dyDescent="0.2">
@@ -34629,6 +34997,7 @@
         <v>659</v>
       </c>
       <c r="AB369" s="6"/>
+      <c r="AC369" s="6"/>
       <c r="AD369" s="6"/>
     </row>
     <row r="370" spans="1:30" x14ac:dyDescent="0.2">
@@ -34714,6 +35083,7 @@
         <v>690</v>
       </c>
       <c r="AB370" s="6"/>
+      <c r="AC370" s="6"/>
       <c r="AD370" s="6"/>
     </row>
     <row r="371" spans="1:30" x14ac:dyDescent="0.2">
@@ -34799,6 +35169,7 @@
         <v>663</v>
       </c>
       <c r="AB371" s="6"/>
+      <c r="AC371" s="6"/>
       <c r="AD371" s="6"/>
     </row>
     <row r="372" spans="1:30" x14ac:dyDescent="0.2">
@@ -34884,6 +35255,7 @@
         <v>695</v>
       </c>
       <c r="AB372" s="6"/>
+      <c r="AC372" s="6"/>
       <c r="AD372" s="6"/>
     </row>
     <row r="373" spans="1:30" x14ac:dyDescent="0.2">
@@ -34969,6 +35341,7 @@
         <v>480</v>
       </c>
       <c r="AB373" s="6"/>
+      <c r="AC373" s="6"/>
       <c r="AD373" s="6"/>
     </row>
     <row r="374" spans="1:30" x14ac:dyDescent="0.2">
@@ -35054,6 +35427,7 @@
         <v>712</v>
       </c>
       <c r="AB374" s="6"/>
+      <c r="AC374" s="6"/>
       <c r="AD374" s="6"/>
     </row>
     <row r="375" spans="1:30" x14ac:dyDescent="0.2">
@@ -35139,6 +35513,7 @@
         <v>637</v>
       </c>
       <c r="AB375" s="6"/>
+      <c r="AC375" s="6"/>
       <c r="AD375" s="6"/>
     </row>
     <row r="376" spans="1:30" x14ac:dyDescent="0.2">
@@ -35224,6 +35599,7 @@
         <v>656</v>
       </c>
       <c r="AB376" s="6"/>
+      <c r="AC376" s="6"/>
       <c r="AD376" s="6"/>
     </row>
     <row r="377" spans="1:30" x14ac:dyDescent="0.2">
@@ -35309,6 +35685,7 @@
         <v>696</v>
       </c>
       <c r="AB377" s="6"/>
+      <c r="AC377" s="6"/>
       <c r="AD377" s="6"/>
     </row>
     <row r="378" spans="1:30" x14ac:dyDescent="0.2">
@@ -35394,6 +35771,7 @@
         <v>765</v>
       </c>
       <c r="AB378" s="6"/>
+      <c r="AC378" s="6"/>
       <c r="AD378" s="6"/>
     </row>
     <row r="379" spans="1:30" x14ac:dyDescent="0.2">
@@ -35479,6 +35857,7 @@
         <v>765</v>
       </c>
       <c r="AB379" s="6"/>
+      <c r="AC379" s="6"/>
       <c r="AD379" s="6"/>
     </row>
     <row r="380" spans="1:30" x14ac:dyDescent="0.2">
@@ -35564,6 +35943,7 @@
         <v>748</v>
       </c>
       <c r="AB380" s="6"/>
+      <c r="AC380" s="6"/>
       <c r="AD380" s="6"/>
     </row>
     <row r="381" spans="1:30" x14ac:dyDescent="0.2">
@@ -35649,6 +36029,7 @@
         <v>688</v>
       </c>
       <c r="AB381" s="6"/>
+      <c r="AC381" s="6"/>
       <c r="AD381" s="6"/>
     </row>
     <row r="382" spans="1:30" x14ac:dyDescent="0.2">
@@ -35734,6 +36115,7 @@
         <v>705</v>
       </c>
       <c r="AB382" s="6"/>
+      <c r="AC382" s="6"/>
       <c r="AD382" s="6"/>
     </row>
     <row r="383" spans="1:30" x14ac:dyDescent="0.2">
@@ -35819,6 +36201,7 @@
         <v>801</v>
       </c>
       <c r="AB383" s="6"/>
+      <c r="AC383" s="6"/>
       <c r="AD383" s="6"/>
     </row>
     <row r="384" spans="1:30" x14ac:dyDescent="0.2">
@@ -35904,6 +36287,7 @@
         <v>771</v>
       </c>
       <c r="AB384" s="6"/>
+      <c r="AC384" s="6"/>
       <c r="AD384" s="6"/>
     </row>
     <row r="385" spans="1:30" x14ac:dyDescent="0.2">
@@ -35989,6 +36373,7 @@
         <v>529</v>
       </c>
       <c r="AB385" s="6"/>
+      <c r="AC385" s="6"/>
       <c r="AD385" s="6"/>
     </row>
     <row r="386" spans="1:30" x14ac:dyDescent="0.2">
@@ -36074,6 +36459,7 @@
         <v>739</v>
       </c>
       <c r="AB386" s="6"/>
+      <c r="AC386" s="6"/>
       <c r="AD386" s="6"/>
     </row>
     <row r="387" spans="1:30" x14ac:dyDescent="0.2">
@@ -36159,6 +36545,7 @@
         <v>686</v>
       </c>
       <c r="AB387" s="6"/>
+      <c r="AC387" s="6"/>
       <c r="AD387" s="6"/>
     </row>
     <row r="388" spans="1:30" x14ac:dyDescent="0.2">
@@ -36244,6 +36631,7 @@
         <v>687</v>
       </c>
       <c r="AB388" s="6"/>
+      <c r="AC388" s="6"/>
       <c r="AD388" s="6"/>
     </row>
     <row r="389" spans="1:30" x14ac:dyDescent="0.2">
@@ -36329,6 +36717,7 @@
         <v>708</v>
       </c>
       <c r="AB389" s="6"/>
+      <c r="AC389" s="6"/>
       <c r="AD389" s="6"/>
     </row>
     <row r="390" spans="1:30" x14ac:dyDescent="0.2">
@@ -36414,6 +36803,7 @@
         <v>660</v>
       </c>
       <c r="AB390" s="6"/>
+      <c r="AC390" s="6"/>
       <c r="AD390" s="6"/>
     </row>
     <row r="391" spans="1:30" x14ac:dyDescent="0.2">
@@ -36499,6 +36889,7 @@
         <v>824</v>
       </c>
       <c r="AB391" s="6"/>
+      <c r="AC391" s="6"/>
       <c r="AD391" s="6"/>
     </row>
     <row r="392" spans="1:30" x14ac:dyDescent="0.2">
@@ -36584,6 +36975,7 @@
         <v>689</v>
       </c>
       <c r="AB392" s="6"/>
+      <c r="AC392" s="6"/>
       <c r="AD392" s="6"/>
     </row>
     <row r="393" spans="1:30" x14ac:dyDescent="0.2">
@@ -36669,6 +37061,7 @@
         <v>570</v>
       </c>
       <c r="AB393" s="6"/>
+      <c r="AC393" s="6"/>
       <c r="AD393" s="6"/>
     </row>
     <row r="394" spans="1:30" x14ac:dyDescent="0.2">
@@ -36754,6 +37147,7 @@
         <v>674</v>
       </c>
       <c r="AB394" s="6"/>
+      <c r="AC394" s="6"/>
       <c r="AD394" s="6"/>
     </row>
     <row r="395" spans="1:30" x14ac:dyDescent="0.2">
@@ -36839,6 +37233,7 @@
         <v>748</v>
       </c>
       <c r="AB395" s="6"/>
+      <c r="AC395" s="6"/>
       <c r="AD395" s="6"/>
     </row>
     <row r="396" spans="1:30" x14ac:dyDescent="0.2">
@@ -36924,6 +37319,7 @@
         <v>753</v>
       </c>
       <c r="AB396" s="6"/>
+      <c r="AC396" s="6"/>
       <c r="AD396" s="6"/>
     </row>
     <row r="397" spans="1:30" x14ac:dyDescent="0.2">
@@ -37009,6 +37405,7 @@
         <v>688</v>
       </c>
       <c r="AB397" s="6"/>
+      <c r="AC397" s="6"/>
       <c r="AD397" s="6"/>
     </row>
     <row r="398" spans="1:30" x14ac:dyDescent="0.2">
@@ -37094,6 +37491,7 @@
         <v>788</v>
       </c>
       <c r="AB398" s="6"/>
+      <c r="AC398" s="6"/>
       <c r="AD398" s="6"/>
     </row>
     <row r="399" spans="1:30" x14ac:dyDescent="0.2">
@@ -37179,6 +37577,7 @@
         <v>649</v>
       </c>
       <c r="AB399" s="6"/>
+      <c r="AC399" s="6"/>
       <c r="AD399" s="6"/>
     </row>
     <row r="400" spans="1:30" x14ac:dyDescent="0.2">
@@ -37264,6 +37663,7 @@
         <v>730</v>
       </c>
       <c r="AB400" s="6"/>
+      <c r="AC400" s="6"/>
       <c r="AD400" s="6"/>
     </row>
     <row r="401" spans="1:30" x14ac:dyDescent="0.2">
@@ -37349,6 +37749,7 @@
         <v>776</v>
       </c>
       <c r="AB401" s="6"/>
+      <c r="AC401" s="6"/>
       <c r="AD401" s="6"/>
     </row>
     <row r="402" spans="1:30" x14ac:dyDescent="0.2">
@@ -37434,6 +37835,7 @@
         <v>789</v>
       </c>
       <c r="AB402" s="6"/>
+      <c r="AC402" s="6"/>
       <c r="AD402" s="6"/>
     </row>
     <row r="403" spans="1:30" x14ac:dyDescent="0.2">
@@ -37519,6 +37921,7 @@
         <v>703</v>
       </c>
       <c r="AB403" s="6"/>
+      <c r="AC403" s="6"/>
       <c r="AD403" s="6"/>
     </row>
     <row r="404" spans="1:30" x14ac:dyDescent="0.2">
@@ -37604,6 +38007,7 @@
         <v>622</v>
       </c>
       <c r="AB404" s="6"/>
+      <c r="AC404" s="6"/>
       <c r="AD404" s="6"/>
     </row>
     <row r="405" spans="1:30" x14ac:dyDescent="0.2">
@@ -37689,6 +38093,7 @@
         <v>659</v>
       </c>
       <c r="AB405" s="6"/>
+      <c r="AC405" s="6"/>
       <c r="AD405" s="6"/>
     </row>
     <row r="406" spans="1:30" x14ac:dyDescent="0.2">
@@ -37774,6 +38179,7 @@
         <v>727</v>
       </c>
       <c r="AB406" s="6"/>
+      <c r="AC406" s="6"/>
       <c r="AD406" s="6"/>
     </row>
     <row r="407" spans="1:30" x14ac:dyDescent="0.2">
@@ -37859,6 +38265,7 @@
         <v>614</v>
       </c>
       <c r="AB407" s="6"/>
+      <c r="AC407" s="6"/>
       <c r="AD407" s="6"/>
     </row>
     <row r="408" spans="1:30" x14ac:dyDescent="0.2">
@@ -37944,6 +38351,7 @@
         <v>824</v>
       </c>
       <c r="AB408" s="6"/>
+      <c r="AC408" s="6"/>
       <c r="AD408" s="6"/>
     </row>
     <row r="409" spans="1:30" x14ac:dyDescent="0.2">
@@ -38029,6 +38437,7 @@
         <v>747</v>
       </c>
       <c r="AB409" s="6"/>
+      <c r="AC409" s="6"/>
       <c r="AD409" s="6"/>
     </row>
     <row r="410" spans="1:30" x14ac:dyDescent="0.2">
@@ -38114,6 +38523,7 @@
         <v>681</v>
       </c>
       <c r="AB410" s="6"/>
+      <c r="AC410" s="6"/>
       <c r="AD410" s="6"/>
     </row>
     <row r="411" spans="1:30" x14ac:dyDescent="0.2">
@@ -38199,6 +38609,7 @@
         <v>708</v>
       </c>
       <c r="AB411" s="6"/>
+      <c r="AC411" s="6"/>
       <c r="AD411" s="6"/>
     </row>
     <row r="412" spans="1:30" x14ac:dyDescent="0.2">
@@ -38284,6 +38695,7 @@
         <v>674</v>
       </c>
       <c r="AB412" s="6"/>
+      <c r="AC412" s="6"/>
       <c r="AD412" s="6"/>
     </row>
     <row r="413" spans="1:30" x14ac:dyDescent="0.2">
@@ -38369,6 +38781,7 @@
         <v>694</v>
       </c>
       <c r="AB413" s="6"/>
+      <c r="AC413" s="6"/>
       <c r="AD413" s="6"/>
     </row>
     <row r="414" spans="1:30" x14ac:dyDescent="0.2">
@@ -38454,6 +38867,7 @@
         <v>708</v>
       </c>
       <c r="AB414" s="6"/>
+      <c r="AC414" s="6"/>
       <c r="AD414" s="6"/>
     </row>
     <row r="415" spans="1:30" x14ac:dyDescent="0.2">
@@ -38539,6 +38953,7 @@
         <v>827</v>
       </c>
       <c r="AB415" s="6"/>
+      <c r="AC415" s="6"/>
       <c r="AD415" s="6"/>
     </row>
     <row r="416" spans="1:30" x14ac:dyDescent="0.2">
@@ -38624,6 +39039,7 @@
         <v>704</v>
       </c>
       <c r="AB416" s="6"/>
+      <c r="AC416" s="6"/>
       <c r="AD416" s="6"/>
     </row>
     <row r="417" spans="1:30" x14ac:dyDescent="0.2">
@@ -38709,6 +39125,7 @@
         <v>671</v>
       </c>
       <c r="AB417" s="6"/>
+      <c r="AC417" s="6"/>
       <c r="AD417" s="6"/>
     </row>
     <row r="418" spans="1:30" x14ac:dyDescent="0.2">
@@ -38794,6 +39211,7 @@
         <v>594</v>
       </c>
       <c r="AB418" s="6"/>
+      <c r="AC418" s="6"/>
       <c r="AD418" s="6"/>
     </row>
     <row r="419" spans="1:30" x14ac:dyDescent="0.2">
@@ -38879,6 +39297,7 @@
         <v>758</v>
       </c>
       <c r="AB419" s="6"/>
+      <c r="AC419" s="6"/>
       <c r="AD419" s="6"/>
     </row>
     <row r="420" spans="1:30" x14ac:dyDescent="0.2">
@@ -38964,6 +39383,7 @@
         <v>680</v>
       </c>
       <c r="AB420" s="6"/>
+      <c r="AC420" s="6"/>
       <c r="AD420" s="6"/>
     </row>
     <row r="421" spans="1:30" x14ac:dyDescent="0.2">
@@ -39049,6 +39469,7 @@
         <v>670</v>
       </c>
       <c r="AB421" s="6"/>
+      <c r="AC421" s="6"/>
       <c r="AD421" s="6"/>
     </row>
     <row r="422" spans="1:30" x14ac:dyDescent="0.2">
@@ -39134,6 +39555,7 @@
         <v>692</v>
       </c>
       <c r="AB422" s="6"/>
+      <c r="AC422" s="6"/>
       <c r="AD422" s="6"/>
     </row>
     <row r="423" spans="1:30" x14ac:dyDescent="0.2">
@@ -39219,6 +39641,7 @@
         <v>775</v>
       </c>
       <c r="AB423" s="6"/>
+      <c r="AC423" s="6"/>
       <c r="AD423" s="6"/>
     </row>
     <row r="424" spans="1:30" x14ac:dyDescent="0.2">
@@ -39304,6 +39727,7 @@
         <v>693</v>
       </c>
       <c r="AB424" s="6"/>
+      <c r="AC424" s="6"/>
       <c r="AD424" s="6"/>
     </row>
     <row r="425" spans="1:30" x14ac:dyDescent="0.2">
@@ -39389,6 +39813,7 @@
         <v>748</v>
       </c>
       <c r="AB425" s="6"/>
+      <c r="AC425" s="6"/>
       <c r="AD425" s="6"/>
     </row>
     <row r="426" spans="1:30" x14ac:dyDescent="0.2">
@@ -39474,6 +39899,7 @@
         <v>782</v>
       </c>
       <c r="AB426" s="6"/>
+      <c r="AC426" s="6"/>
       <c r="AD426" s="6"/>
     </row>
     <row r="427" spans="1:30" x14ac:dyDescent="0.2">
@@ -39559,6 +39985,7 @@
         <v>704</v>
       </c>
       <c r="AB427" s="6"/>
+      <c r="AC427" s="6"/>
       <c r="AD427" s="6"/>
     </row>
     <row r="428" spans="1:30" x14ac:dyDescent="0.2">
@@ -39644,6 +40071,7 @@
         <v>704</v>
       </c>
       <c r="AB428" s="6"/>
+      <c r="AC428" s="6"/>
       <c r="AD428" s="6"/>
     </row>
     <row r="429" spans="1:30" x14ac:dyDescent="0.2">
@@ -39729,6 +40157,7 @@
         <v>721</v>
       </c>
       <c r="AB429" s="6"/>
+      <c r="AC429" s="6"/>
       <c r="AD429" s="6"/>
     </row>
     <row r="430" spans="1:30" x14ac:dyDescent="0.2">
@@ -39814,6 +40243,7 @@
         <v>633</v>
       </c>
       <c r="AB430" s="6"/>
+      <c r="AC430" s="6"/>
       <c r="AD430" s="6"/>
     </row>
     <row r="431" spans="1:30" x14ac:dyDescent="0.2">
@@ -39899,6 +40329,7 @@
         <v>688</v>
       </c>
       <c r="AB431" s="6"/>
+      <c r="AC431" s="6"/>
       <c r="AD431" s="6"/>
     </row>
     <row r="432" spans="1:30" x14ac:dyDescent="0.2">
@@ -39984,6 +40415,7 @@
         <v>764</v>
       </c>
       <c r="AB432" s="6"/>
+      <c r="AC432" s="6"/>
       <c r="AD432" s="6"/>
     </row>
     <row r="433" spans="1:30" x14ac:dyDescent="0.2">
@@ -40069,6 +40501,7 @@
         <v>727</v>
       </c>
       <c r="AB433" s="6"/>
+      <c r="AC433" s="6"/>
       <c r="AD433" s="6"/>
     </row>
     <row r="434" spans="1:30" x14ac:dyDescent="0.2">
@@ -40154,6 +40587,7 @@
         <v>738</v>
       </c>
       <c r="AB434" s="6"/>
+      <c r="AC434" s="6"/>
       <c r="AD434" s="6"/>
     </row>
     <row r="435" spans="1:30" x14ac:dyDescent="0.2">
@@ -40239,6 +40673,7 @@
         <v>708</v>
       </c>
       <c r="AB435" s="6"/>
+      <c r="AC435" s="6"/>
       <c r="AD435" s="6"/>
     </row>
     <row r="436" spans="1:30" x14ac:dyDescent="0.2">
@@ -40324,6 +40759,7 @@
         <v>789</v>
       </c>
       <c r="AB436" s="6"/>
+      <c r="AC436" s="6"/>
       <c r="AD436" s="6"/>
     </row>
     <row r="437" spans="1:30" x14ac:dyDescent="0.2">
@@ -40409,6 +40845,7 @@
         <v>727</v>
       </c>
       <c r="AB437" s="6"/>
+      <c r="AC437" s="6"/>
       <c r="AD437" s="6"/>
     </row>
     <row r="438" spans="1:30" x14ac:dyDescent="0.2">
@@ -40494,6 +40931,7 @@
         <v>717</v>
       </c>
       <c r="AB438" s="6"/>
+      <c r="AC438" s="6"/>
       <c r="AD438" s="6"/>
     </row>
     <row r="439" spans="1:30" x14ac:dyDescent="0.2">
@@ -40579,6 +41017,7 @@
         <v>693</v>
       </c>
       <c r="AB439" s="6"/>
+      <c r="AC439" s="6"/>
       <c r="AD439" s="6"/>
     </row>
     <row r="440" spans="1:30" x14ac:dyDescent="0.2">
@@ -40664,6 +41103,7 @@
         <v>616</v>
       </c>
       <c r="AB440" s="6"/>
+      <c r="AC440" s="6"/>
       <c r="AD440" s="6"/>
     </row>
     <row r="441" spans="1:30" x14ac:dyDescent="0.2">
@@ -40749,6 +41189,7 @@
         <v>747</v>
       </c>
       <c r="AB441" s="6"/>
+      <c r="AC441" s="6"/>
       <c r="AD441" s="6"/>
     </row>
     <row r="442" spans="1:30" x14ac:dyDescent="0.2">
@@ -40834,6 +41275,7 @@
         <v>619</v>
       </c>
       <c r="AB442" s="6"/>
+      <c r="AC442" s="6"/>
       <c r="AD442" s="6"/>
     </row>
     <row r="443" spans="1:30" x14ac:dyDescent="0.2">
@@ -40919,6 +41361,7 @@
         <v>791</v>
       </c>
       <c r="AB443" s="6"/>
+      <c r="AC443" s="6"/>
       <c r="AD443" s="6"/>
     </row>
     <row r="444" spans="1:30" x14ac:dyDescent="0.2">
@@ -41004,6 +41447,7 @@
         <v>466</v>
       </c>
       <c r="AB444" s="6"/>
+      <c r="AC444" s="6"/>
       <c r="AD444" s="6"/>
     </row>
     <row r="445" spans="1:30" x14ac:dyDescent="0.2">
@@ -41089,6 +41533,7 @@
         <v>670</v>
       </c>
       <c r="AB445" s="6"/>
+      <c r="AC445" s="6"/>
       <c r="AD445" s="6"/>
     </row>
     <row r="446" spans="1:30" x14ac:dyDescent="0.2">
@@ -41174,6 +41619,7 @@
         <v>582</v>
       </c>
       <c r="AB446" s="6"/>
+      <c r="AC446" s="6"/>
       <c r="AD446" s="6"/>
     </row>
     <row r="447" spans="1:30" x14ac:dyDescent="0.2">
@@ -41259,6 +41705,7 @@
         <v>733</v>
       </c>
       <c r="AB447" s="6"/>
+      <c r="AC447" s="6"/>
       <c r="AD447" s="6"/>
     </row>
     <row r="448" spans="1:30" x14ac:dyDescent="0.2">
@@ -41344,6 +41791,7 @@
         <v>786</v>
       </c>
       <c r="AB448" s="6"/>
+      <c r="AC448" s="6"/>
       <c r="AD448" s="6"/>
     </row>
     <row r="449" spans="1:30" x14ac:dyDescent="0.2">
@@ -41429,6 +41877,7 @@
         <v>522</v>
       </c>
       <c r="AB449" s="6"/>
+      <c r="AC449" s="6"/>
       <c r="AD449" s="6"/>
     </row>
     <row r="450" spans="1:30" x14ac:dyDescent="0.2">
@@ -41514,6 +41963,7 @@
         <v>761</v>
       </c>
       <c r="AB450" s="6"/>
+      <c r="AC450" s="6"/>
       <c r="AD450" s="6"/>
     </row>
     <row r="451" spans="1:30" x14ac:dyDescent="0.2">
@@ -41599,6 +42049,7 @@
         <v>750</v>
       </c>
       <c r="AB451" s="6"/>
+      <c r="AC451" s="6"/>
       <c r="AD451" s="6"/>
     </row>
     <row r="452" spans="1:30" x14ac:dyDescent="0.2">
@@ -41684,6 +42135,7 @@
         <v>551</v>
       </c>
       <c r="AB452" s="6"/>
+      <c r="AC452" s="6"/>
       <c r="AD452" s="6"/>
     </row>
     <row r="453" spans="1:30" x14ac:dyDescent="0.2">
@@ -41769,6 +42221,7 @@
         <v>749</v>
       </c>
       <c r="AB453" s="6"/>
+      <c r="AC453" s="6"/>
       <c r="AD453" s="6"/>
     </row>
     <row r="454" spans="1:30" x14ac:dyDescent="0.2">
@@ -41854,6 +42307,7 @@
         <v>621</v>
       </c>
       <c r="AB454" s="6"/>
+      <c r="AC454" s="6"/>
       <c r="AD454" s="6"/>
     </row>
     <row r="455" spans="1:30" x14ac:dyDescent="0.2">
@@ -41939,6 +42393,7 @@
         <v>752</v>
       </c>
       <c r="AB455" s="6"/>
+      <c r="AC455" s="6"/>
       <c r="AD455" s="6"/>
     </row>
     <row r="456" spans="1:30" x14ac:dyDescent="0.2">
@@ -42024,6 +42479,7 @@
         <v>726</v>
       </c>
       <c r="AB456" s="6"/>
+      <c r="AC456" s="6"/>
       <c r="AD456" s="6"/>
     </row>
     <row r="457" spans="1:30" x14ac:dyDescent="0.2">
@@ -42109,6 +42565,7 @@
         <v>734</v>
       </c>
       <c r="AB457" s="6"/>
+      <c r="AC457" s="6"/>
       <c r="AD457" s="6"/>
     </row>
     <row r="458" spans="1:30" x14ac:dyDescent="0.2">
@@ -42194,6 +42651,7 @@
         <v>766</v>
       </c>
       <c r="AB458" s="6"/>
+      <c r="AC458" s="6"/>
       <c r="AD458" s="6"/>
     </row>
     <row r="459" spans="1:30" x14ac:dyDescent="0.2">
@@ -42279,6 +42737,7 @@
         <v>637</v>
       </c>
       <c r="AB459" s="6"/>
+      <c r="AC459" s="6"/>
       <c r="AD459" s="6"/>
     </row>
     <row r="460" spans="1:30" x14ac:dyDescent="0.2">
@@ -42364,6 +42823,7 @@
         <v>672</v>
       </c>
       <c r="AB460" s="6"/>
+      <c r="AC460" s="6"/>
       <c r="AD460" s="6"/>
     </row>
     <row r="461" spans="1:30" x14ac:dyDescent="0.2">
@@ -42449,6 +42909,7 @@
         <v>621</v>
       </c>
       <c r="AB461" s="6"/>
+      <c r="AC461" s="6"/>
       <c r="AD461" s="6"/>
     </row>
     <row r="462" spans="1:30" x14ac:dyDescent="0.2">
@@ -42534,6 +42995,7 @@
         <v>693</v>
       </c>
       <c r="AB462" s="6"/>
+      <c r="AC462" s="6"/>
       <c r="AD462" s="6"/>
     </row>
     <row r="463" spans="1:30" x14ac:dyDescent="0.2">
@@ -42619,6 +43081,7 @@
         <v>557</v>
       </c>
       <c r="AB463" s="6"/>
+      <c r="AC463" s="6"/>
       <c r="AD463" s="6"/>
     </row>
     <row r="464" spans="1:30" x14ac:dyDescent="0.2">
@@ -42704,6 +43167,7 @@
         <v>692</v>
       </c>
       <c r="AB464" s="6"/>
+      <c r="AC464" s="6"/>
       <c r="AD464" s="6"/>
     </row>
     <row r="465" spans="1:30" x14ac:dyDescent="0.2">
@@ -42789,6 +43253,7 @@
         <v>648</v>
       </c>
       <c r="AB465" s="6"/>
+      <c r="AC465" s="6"/>
       <c r="AD465" s="6"/>
     </row>
     <row r="466" spans="1:30" x14ac:dyDescent="0.2">
@@ -42874,6 +43339,7 @@
         <v>685</v>
       </c>
       <c r="AB466" s="6"/>
+      <c r="AC466" s="6"/>
       <c r="AD466" s="6"/>
     </row>
     <row r="467" spans="1:30" x14ac:dyDescent="0.2">
@@ -42959,6 +43425,7 @@
         <v>666</v>
       </c>
       <c r="AB467" s="6"/>
+      <c r="AC467" s="6"/>
       <c r="AD467" s="6"/>
     </row>
     <row r="468" spans="1:30" x14ac:dyDescent="0.2">
@@ -43044,6 +43511,7 @@
         <v>491</v>
       </c>
       <c r="AB468" s="6"/>
+      <c r="AC468" s="6"/>
       <c r="AD468" s="6"/>
     </row>
     <row r="469" spans="1:30" x14ac:dyDescent="0.2">
@@ -43129,6 +43597,7 @@
         <v>650</v>
       </c>
       <c r="AB469" s="6"/>
+      <c r="AC469" s="6"/>
       <c r="AD469" s="6"/>
     </row>
     <row r="470" spans="1:30" x14ac:dyDescent="0.2">
@@ -43214,6 +43683,7 @@
         <v>522</v>
       </c>
       <c r="AB470" s="6"/>
+      <c r="AC470" s="6"/>
       <c r="AD470" s="6"/>
     </row>
     <row r="471" spans="1:30" x14ac:dyDescent="0.2">
@@ -43299,6 +43769,7 @@
         <v>697</v>
       </c>
       <c r="AB471" s="6"/>
+      <c r="AC471" s="6"/>
       <c r="AD471" s="6"/>
     </row>
     <row r="472" spans="1:30" x14ac:dyDescent="0.2">
@@ -43384,6 +43855,7 @@
         <v>740</v>
       </c>
       <c r="AB472" s="6"/>
+      <c r="AC472" s="6"/>
       <c r="AD472" s="6"/>
     </row>
     <row r="473" spans="1:30" x14ac:dyDescent="0.2">
@@ -43469,6 +43941,7 @@
         <v>449</v>
       </c>
       <c r="AB473" s="6"/>
+      <c r="AC473" s="6"/>
       <c r="AD473" s="6"/>
     </row>
     <row r="474" spans="1:30" x14ac:dyDescent="0.2">
@@ -43554,6 +44027,7 @@
         <v>721</v>
       </c>
       <c r="AB474" s="6"/>
+      <c r="AC474" s="6"/>
       <c r="AD474" s="6"/>
     </row>
     <row r="475" spans="1:30" x14ac:dyDescent="0.2">
@@ -43639,6 +44113,7 @@
         <v>674</v>
       </c>
       <c r="AB475" s="6"/>
+      <c r="AC475" s="6"/>
       <c r="AD475" s="6"/>
     </row>
     <row r="476" spans="1:30" x14ac:dyDescent="0.2">
@@ -43724,6 +44199,7 @@
         <v>744</v>
       </c>
       <c r="AB476" s="6"/>
+      <c r="AC476" s="6"/>
       <c r="AD476" s="6"/>
     </row>
     <row r="477" spans="1:30" x14ac:dyDescent="0.2">
@@ -43809,6 +44285,7 @@
         <v>795</v>
       </c>
       <c r="AB477" s="6"/>
+      <c r="AC477" s="6"/>
       <c r="AD477" s="6"/>
     </row>
     <row r="478" spans="1:30" x14ac:dyDescent="0.2">
@@ -43894,6 +44371,7 @@
         <v>746</v>
       </c>
       <c r="AB478" s="6"/>
+      <c r="AC478" s="6"/>
       <c r="AD478" s="6"/>
     </row>
     <row r="479" spans="1:30" x14ac:dyDescent="0.2">
@@ -43979,6 +44457,7 @@
         <v>695</v>
       </c>
       <c r="AB479" s="6"/>
+      <c r="AC479" s="6"/>
       <c r="AD479" s="6"/>
     </row>
     <row r="480" spans="1:30" x14ac:dyDescent="0.2">
@@ -44064,6 +44543,7 @@
         <v>721</v>
       </c>
       <c r="AB480" s="6"/>
+      <c r="AC480" s="6"/>
       <c r="AD480" s="6"/>
     </row>
     <row r="481" spans="1:30" x14ac:dyDescent="0.2">
@@ -44149,6 +44629,7 @@
         <v>702</v>
       </c>
       <c r="AB481" s="6"/>
+      <c r="AC481" s="6"/>
       <c r="AD481" s="6"/>
     </row>
     <row r="482" spans="1:30" x14ac:dyDescent="0.2">
@@ -44234,6 +44715,7 @@
         <v>768</v>
       </c>
       <c r="AB482" s="6"/>
+      <c r="AC482" s="6"/>
       <c r="AD482" s="6"/>
     </row>
     <row r="483" spans="1:30" x14ac:dyDescent="0.2">
@@ -44319,6 +44801,7 @@
         <v>696</v>
       </c>
       <c r="AB483" s="6"/>
+      <c r="AC483" s="6"/>
       <c r="AD483" s="6"/>
     </row>
     <row r="484" spans="1:30" x14ac:dyDescent="0.2">
@@ -44404,6 +44887,7 @@
         <v>737</v>
       </c>
       <c r="AB484" s="6"/>
+      <c r="AC484" s="6"/>
       <c r="AD484" s="6"/>
     </row>
     <row r="485" spans="1:30" x14ac:dyDescent="0.2">
@@ -44489,6 +44973,7 @@
         <v>692</v>
       </c>
       <c r="AB485" s="6"/>
+      <c r="AC485" s="6"/>
       <c r="AD485" s="6"/>
     </row>
     <row r="486" spans="1:30" x14ac:dyDescent="0.2">
@@ -44574,6 +45059,7 @@
         <v>629</v>
       </c>
       <c r="AB486" s="6"/>
+      <c r="AC486" s="6"/>
       <c r="AD486" s="6"/>
     </row>
     <row r="487" spans="1:30" x14ac:dyDescent="0.2">
@@ -44659,6 +45145,7 @@
         <v>689</v>
       </c>
       <c r="AB487" s="6"/>
+      <c r="AC487" s="6"/>
       <c r="AD487" s="6"/>
     </row>
     <row r="488" spans="1:30" x14ac:dyDescent="0.2">
@@ -44744,6 +45231,7 @@
         <v>791</v>
       </c>
       <c r="AB488" s="6"/>
+      <c r="AC488" s="6"/>
       <c r="AD488" s="6"/>
     </row>
     <row r="489" spans="1:30" x14ac:dyDescent="0.2">
@@ -44829,6 +45317,7 @@
         <v>663</v>
       </c>
       <c r="AB489" s="6"/>
+      <c r="AC489" s="6"/>
       <c r="AD489" s="6"/>
     </row>
     <row r="490" spans="1:30" x14ac:dyDescent="0.2">
@@ -44914,6 +45403,7 @@
         <v>693</v>
       </c>
       <c r="AB490" s="6"/>
+      <c r="AC490" s="6"/>
       <c r="AD490" s="6"/>
     </row>
     <row r="491" spans="1:30" x14ac:dyDescent="0.2">
@@ -44999,6 +45489,7 @@
         <v>467</v>
       </c>
       <c r="AB491" s="6"/>
+      <c r="AC491" s="6"/>
       <c r="AD491" s="6"/>
     </row>
     <row r="492" spans="1:30" x14ac:dyDescent="0.2">
@@ -45084,6 +45575,7 @@
         <v>693</v>
       </c>
       <c r="AB492" s="6"/>
+      <c r="AC492" s="6"/>
       <c r="AD492" s="6"/>
     </row>
     <row r="493" spans="1:30" x14ac:dyDescent="0.2">
@@ -45169,6 +45661,7 @@
         <v>685</v>
       </c>
       <c r="AB493" s="6"/>
+      <c r="AC493" s="6"/>
       <c r="AD493" s="6"/>
     </row>
     <row r="494" spans="1:30" x14ac:dyDescent="0.2">
@@ -45254,6 +45747,7 @@
         <v>619</v>
       </c>
       <c r="AB494" s="6"/>
+      <c r="AC494" s="6"/>
       <c r="AD494" s="6"/>
     </row>
     <row r="495" spans="1:30" x14ac:dyDescent="0.2">
@@ -45339,6 +45833,7 @@
         <v>706</v>
       </c>
       <c r="AB495" s="6"/>
+      <c r="AC495" s="6"/>
       <c r="AD495" s="6"/>
     </row>
     <row r="496" spans="1:30" x14ac:dyDescent="0.2">
@@ -45424,6 +45919,7 @@
         <v>514</v>
       </c>
       <c r="AB496" s="6"/>
+      <c r="AC496" s="6"/>
       <c r="AD496" s="6"/>
     </row>
     <row r="497" spans="1:30" x14ac:dyDescent="0.2">
@@ -45509,6 +46005,7 @@
         <v>596</v>
       </c>
       <c r="AB497" s="6"/>
+      <c r="AC497" s="6"/>
       <c r="AD497" s="6"/>
     </row>
     <row r="498" spans="1:30" x14ac:dyDescent="0.2">
@@ -45594,6 +46091,7 @@
         <v>542</v>
       </c>
       <c r="AB498" s="6"/>
+      <c r="AC498" s="6"/>
       <c r="AD498" s="6"/>
     </row>
     <row r="499" spans="1:30" x14ac:dyDescent="0.2">
@@ -45679,6 +46177,7 @@
         <v>506</v>
       </c>
       <c r="AB499" s="6"/>
+      <c r="AC499" s="6"/>
       <c r="AD499" s="6"/>
     </row>
     <row r="500" spans="1:30" x14ac:dyDescent="0.2">
@@ -45764,6 +46263,7 @@
         <v>789</v>
       </c>
       <c r="AB500" s="6"/>
+      <c r="AC500" s="6"/>
       <c r="AD500" s="6"/>
     </row>
     <row r="501" spans="1:30" x14ac:dyDescent="0.2">
@@ -45849,6 +46349,7 @@
         <v>774</v>
       </c>
       <c r="AB501" s="6"/>
+      <c r="AC501" s="6"/>
       <c r="AD501" s="6"/>
     </row>
     <row r="502" spans="1:30" x14ac:dyDescent="0.2">
@@ -45934,6 +46435,7 @@
         <v>778</v>
       </c>
       <c r="AB502" s="6"/>
+      <c r="AC502" s="6"/>
       <c r="AD502" s="6"/>
     </row>
     <row r="503" spans="1:30" x14ac:dyDescent="0.2">
@@ -46019,6 +46521,7 @@
         <v>736</v>
       </c>
       <c r="AB503" s="6"/>
+      <c r="AC503" s="6"/>
       <c r="AD503" s="6"/>
     </row>
     <row r="504" spans="1:30" x14ac:dyDescent="0.2">
@@ -46104,6 +46607,7 @@
         <v>849</v>
       </c>
       <c r="AB504" s="6"/>
+      <c r="AC504" s="6"/>
       <c r="AD504" s="6"/>
     </row>
     <row r="505" spans="1:30" x14ac:dyDescent="0.2">
@@ -46189,6 +46693,7 @@
         <v>756</v>
       </c>
       <c r="AB505" s="6"/>
+      <c r="AC505" s="6"/>
       <c r="AD505" s="6"/>
     </row>
     <row r="506" spans="1:30" x14ac:dyDescent="0.2">
@@ -46274,6 +46779,7 @@
         <v>662</v>
       </c>
       <c r="AB506" s="6"/>
+      <c r="AC506" s="6"/>
       <c r="AD506" s="6"/>
     </row>
     <row r="507" spans="1:30" x14ac:dyDescent="0.2">
@@ -46359,6 +46865,7 @@
         <v>717</v>
       </c>
       <c r="AB507" s="6"/>
+      <c r="AC507" s="6"/>
       <c r="AD507" s="6"/>
     </row>
     <row r="508" spans="1:30" x14ac:dyDescent="0.2">
@@ -46444,6 +46951,7 @@
         <v>741</v>
       </c>
       <c r="AB508" s="6"/>
+      <c r="AC508" s="6"/>
       <c r="AD508" s="6"/>
     </row>
     <row r="509" spans="1:30" x14ac:dyDescent="0.2">
@@ -46529,6 +47037,7 @@
         <v>735</v>
       </c>
       <c r="AB509" s="6"/>
+      <c r="AC509" s="6"/>
       <c r="AD509" s="6"/>
     </row>
     <row r="510" spans="1:30" x14ac:dyDescent="0.2">
@@ -46614,6 +47123,7 @@
         <v>798</v>
       </c>
       <c r="AB510" s="6"/>
+      <c r="AC510" s="6"/>
       <c r="AD510" s="6"/>
     </row>
     <row r="511" spans="1:30" x14ac:dyDescent="0.2">
@@ -46699,6 +47209,7 @@
         <v>716</v>
       </c>
       <c r="AB511" s="6"/>
+      <c r="AC511" s="6"/>
       <c r="AD511" s="6"/>
     </row>
     <row r="512" spans="1:30" x14ac:dyDescent="0.2">
@@ -46784,6 +47295,7 @@
         <v>677</v>
       </c>
       <c r="AB512" s="6"/>
+      <c r="AC512" s="6"/>
       <c r="AD512" s="6"/>
     </row>
     <row r="513" spans="1:30" x14ac:dyDescent="0.2">
@@ -46869,6 +47381,7 @@
         <v>731</v>
       </c>
       <c r="AB513" s="6"/>
+      <c r="AC513" s="6"/>
       <c r="AD513" s="6"/>
     </row>
     <row r="514" spans="1:30" x14ac:dyDescent="0.2">
@@ -46954,6 +47467,7 @@
         <v>600</v>
       </c>
       <c r="AB514" s="6"/>
+      <c r="AC514" s="6"/>
       <c r="AD514" s="6"/>
     </row>
     <row r="515" spans="1:30" x14ac:dyDescent="0.2">
@@ -47039,6 +47553,7 @@
         <v>651</v>
       </c>
       <c r="AB515" s="6"/>
+      <c r="AC515" s="6"/>
       <c r="AD515" s="6"/>
     </row>
     <row r="516" spans="1:30" x14ac:dyDescent="0.2">
@@ -47124,6 +47639,7 @@
         <v>641</v>
       </c>
       <c r="AB516" s="6"/>
+      <c r="AC516" s="6"/>
       <c r="AD516" s="6"/>
     </row>
     <row r="517" spans="1:30" x14ac:dyDescent="0.2">
@@ -47209,6 +47725,7 @@
         <v>649</v>
       </c>
       <c r="AB517" s="6"/>
+      <c r="AC517" s="6"/>
       <c r="AD517" s="6"/>
     </row>
     <row r="518" spans="1:30" x14ac:dyDescent="0.2">
@@ -47294,6 +47811,7 @@
         <v>722</v>
       </c>
       <c r="AB518" s="6"/>
+      <c r="AC518" s="6"/>
       <c r="AD518" s="6"/>
     </row>
     <row r="519" spans="1:30" x14ac:dyDescent="0.2">
@@ -47379,6 +47897,7 @@
         <v>641</v>
       </c>
       <c r="AB519" s="6"/>
+      <c r="AC519" s="6"/>
       <c r="AD519" s="6"/>
     </row>
     <row r="520" spans="1:30" x14ac:dyDescent="0.2">
@@ -47464,6 +47983,7 @@
         <v>666</v>
       </c>
       <c r="AB520" s="6"/>
+      <c r="AC520" s="6"/>
       <c r="AD520" s="6"/>
     </row>
     <row r="521" spans="1:30" x14ac:dyDescent="0.2">
@@ -47549,6 +48069,7 @@
         <v>823</v>
       </c>
       <c r="AB521" s="6"/>
+      <c r="AC521" s="6"/>
       <c r="AD521" s="6"/>
     </row>
     <row r="522" spans="1:30" x14ac:dyDescent="0.2">
@@ -47634,6 +48155,7 @@
         <v>684</v>
       </c>
       <c r="AB522" s="6"/>
+      <c r="AC522" s="6"/>
       <c r="AD522" s="6"/>
     </row>
     <row r="523" spans="1:30" x14ac:dyDescent="0.2">
@@ -47719,6 +48241,7 @@
         <v>634</v>
       </c>
       <c r="AB523" s="6"/>
+      <c r="AC523" s="6"/>
       <c r="AD523" s="6"/>
     </row>
     <row r="524" spans="1:30" x14ac:dyDescent="0.2">
@@ -47804,6 +48327,7 @@
         <v>0</v>
       </c>
       <c r="AB524" s="6"/>
+      <c r="AC524" s="6"/>
       <c r="AD524" s="6"/>
     </row>
     <row r="525" spans="1:30" x14ac:dyDescent="0.2">
@@ -47889,6 +48413,7 @@
         <v>841</v>
       </c>
       <c r="AB525" s="6"/>
+      <c r="AC525" s="6"/>
       <c r="AD525" s="6"/>
     </row>
     <row r="526" spans="1:30" x14ac:dyDescent="0.2">
@@ -47974,6 +48499,7 @@
         <v>735</v>
       </c>
       <c r="AB526" s="6"/>
+      <c r="AC526" s="6"/>
       <c r="AD526" s="6"/>
     </row>
     <row r="527" spans="1:30" x14ac:dyDescent="0.2">
@@ -48059,6 +48585,7 @@
         <v>675</v>
       </c>
       <c r="AB527" s="6"/>
+      <c r="AC527" s="6"/>
       <c r="AD527" s="6"/>
     </row>
     <row r="528" spans="1:30" x14ac:dyDescent="0.2">
@@ -48144,6 +48671,7 @@
         <v>668</v>
       </c>
       <c r="AB528" s="6"/>
+      <c r="AC528" s="6"/>
       <c r="AD528" s="6"/>
     </row>
     <row r="529" spans="1:30" x14ac:dyDescent="0.2">
@@ -48229,6 +48757,7 @@
         <v>649</v>
       </c>
       <c r="AB529" s="6"/>
+      <c r="AC529" s="6"/>
       <c r="AD529" s="6"/>
     </row>
     <row r="530" spans="1:30" x14ac:dyDescent="0.2">
@@ -48314,6 +48843,7 @@
         <v>704</v>
       </c>
       <c r="AB530" s="6"/>
+      <c r="AC530" s="6"/>
       <c r="AD530" s="6"/>
     </row>
     <row r="531" spans="1:30" x14ac:dyDescent="0.2">
@@ -48399,6 +48929,7 @@
         <v>708</v>
       </c>
       <c r="AB531" s="6"/>
+      <c r="AC531" s="6"/>
       <c r="AD531" s="6"/>
     </row>
     <row r="532" spans="1:30" x14ac:dyDescent="0.2">
@@ -48484,6 +49015,7 @@
         <v>654</v>
       </c>
       <c r="AB532" s="6"/>
+      <c r="AC532" s="6"/>
       <c r="AD532" s="6"/>
     </row>
     <row r="533" spans="1:30" x14ac:dyDescent="0.2">
@@ -48569,6 +49101,7 @@
         <v>656</v>
       </c>
       <c r="AB533" s="6"/>
+      <c r="AC533" s="6"/>
       <c r="AD533" s="6"/>
     </row>
     <row r="534" spans="1:30" x14ac:dyDescent="0.2">
@@ -48654,6 +49187,7 @@
         <v>797</v>
       </c>
       <c r="AB534" s="6"/>
+      <c r="AC534" s="6"/>
       <c r="AD534" s="6"/>
     </row>
     <row r="535" spans="1:30" x14ac:dyDescent="0.2">
@@ -48739,6 +49273,7 @@
         <v>714</v>
       </c>
       <c r="AB535" s="6"/>
+      <c r="AC535" s="6"/>
       <c r="AD535" s="6"/>
     </row>
     <row r="536" spans="1:30" x14ac:dyDescent="0.2">
@@ -48824,6 +49359,7 @@
         <v>667</v>
       </c>
       <c r="AB536" s="6"/>
+      <c r="AC536" s="6"/>
       <c r="AD536" s="6"/>
     </row>
     <row r="537" spans="1:30" x14ac:dyDescent="0.2">
@@ -48909,6 +49445,7 @@
         <v>709</v>
       </c>
       <c r="AB537" s="6"/>
+      <c r="AC537" s="6"/>
       <c r="AD537" s="6"/>
     </row>
     <row r="538" spans="1:30" x14ac:dyDescent="0.2">
@@ -48994,6 +49531,7 @@
         <v>674</v>
       </c>
       <c r="AB538" s="6"/>
+      <c r="AC538" s="6"/>
       <c r="AD538" s="6"/>
     </row>
     <row r="539" spans="1:30" x14ac:dyDescent="0.2">
@@ -49079,6 +49617,7 @@
         <v>684</v>
       </c>
       <c r="AB539" s="6"/>
+      <c r="AC539" s="6"/>
       <c r="AD539" s="6"/>
     </row>
     <row r="540" spans="1:30" x14ac:dyDescent="0.2">
@@ -49164,6 +49703,7 @@
         <v>606</v>
       </c>
       <c r="AB540" s="6"/>
+      <c r="AC540" s="6"/>
       <c r="AD540" s="6"/>
     </row>
     <row r="541" spans="1:30" x14ac:dyDescent="0.2">
@@ -49249,6 +49789,7 @@
         <v>624</v>
       </c>
       <c r="AB541" s="6"/>
+      <c r="AC541" s="6"/>
       <c r="AD541" s="6"/>
     </row>
     <row r="542" spans="1:30" x14ac:dyDescent="0.2">
@@ -49334,6 +49875,7 @@
         <v>510</v>
       </c>
       <c r="AB542" s="6"/>
+      <c r="AC542" s="6"/>
       <c r="AD542" s="6"/>
     </row>
     <row r="543" spans="1:30" x14ac:dyDescent="0.2">
@@ -49419,6 +49961,7 @@
         <v>701</v>
       </c>
       <c r="AB543" s="6"/>
+      <c r="AC543" s="6"/>
       <c r="AD543" s="6"/>
     </row>
     <row r="544" spans="1:30" x14ac:dyDescent="0.2">
@@ -49504,6 +50047,7 @@
         <v>670</v>
       </c>
       <c r="AB544" s="6"/>
+      <c r="AC544" s="6"/>
       <c r="AD544" s="6"/>
     </row>
     <row r="545" spans="1:30" x14ac:dyDescent="0.2">
@@ -49589,6 +50133,7 @@
         <v>692</v>
       </c>
       <c r="AB545" s="6"/>
+      <c r="AC545" s="6"/>
       <c r="AD545" s="6"/>
     </row>
     <row r="546" spans="1:30" x14ac:dyDescent="0.2">
@@ -49674,6 +50219,7 @@
         <v>685</v>
       </c>
       <c r="AB546" s="6"/>
+      <c r="AC546" s="6"/>
       <c r="AD546" s="6"/>
     </row>
     <row r="547" spans="1:30" x14ac:dyDescent="0.2">
@@ -49759,6 +50305,7 @@
         <v>755</v>
       </c>
       <c r="AB547" s="6"/>
+      <c r="AC547" s="6"/>
       <c r="AD547" s="6"/>
     </row>
     <row r="548" spans="1:30" x14ac:dyDescent="0.2">
@@ -49844,6 +50391,7 @@
         <v>719</v>
       </c>
       <c r="AB548" s="6"/>
+      <c r="AC548" s="6"/>
       <c r="AD548" s="6"/>
     </row>
     <row r="549" spans="1:30" x14ac:dyDescent="0.2">
@@ -49929,6 +50477,7 @@
         <v>702</v>
       </c>
       <c r="AB549" s="6"/>
+      <c r="AC549" s="6"/>
       <c r="AD549" s="6"/>
     </row>
     <row r="550" spans="1:30" x14ac:dyDescent="0.2">
@@ -50014,6 +50563,7 @@
         <v>700</v>
       </c>
       <c r="AB550" s="6"/>
+      <c r="AC550" s="6"/>
       <c r="AD550" s="6"/>
     </row>
     <row r="551" spans="1:30" x14ac:dyDescent="0.2">
@@ -50099,6 +50649,7 @@
         <v>768</v>
       </c>
       <c r="AB551" s="6"/>
+      <c r="AC551" s="6"/>
       <c r="AD551" s="6"/>
     </row>
     <row r="552" spans="1:30" x14ac:dyDescent="0.2">
@@ -50184,6 +50735,7 @@
         <v>677</v>
       </c>
       <c r="AB552" s="6"/>
+      <c r="AC552" s="6"/>
       <c r="AD552" s="6"/>
     </row>
     <row r="553" spans="1:30" x14ac:dyDescent="0.2">
@@ -50269,6 +50821,7 @@
         <v>763</v>
       </c>
       <c r="AB553" s="6"/>
+      <c r="AC553" s="6"/>
       <c r="AD553" s="6"/>
     </row>
     <row r="554" spans="1:30" x14ac:dyDescent="0.2">
@@ -50354,6 +50907,7 @@
         <v>685</v>
       </c>
       <c r="AB554" s="6"/>
+      <c r="AC554" s="6"/>
       <c r="AD554" s="6"/>
     </row>
     <row r="555" spans="1:30" x14ac:dyDescent="0.2">
@@ -50439,6 +50993,7 @@
         <v>736</v>
       </c>
       <c r="AB555" s="6"/>
+      <c r="AC555" s="6"/>
       <c r="AD555" s="6"/>
     </row>
     <row r="556" spans="1:30" x14ac:dyDescent="0.2">
@@ -50524,6 +51079,7 @@
         <v>641</v>
       </c>
       <c r="AB556" s="6"/>
+      <c r="AC556" s="6"/>
       <c r="AD556" s="6"/>
     </row>
     <row r="557" spans="1:30" x14ac:dyDescent="0.2">
@@ -50609,6 +51165,7 @@
         <v>682</v>
       </c>
       <c r="AB557" s="6"/>
+      <c r="AC557" s="6"/>
       <c r="AD557" s="6"/>
     </row>
     <row r="558" spans="1:30" x14ac:dyDescent="0.2">
@@ -50694,6 +51251,7 @@
         <v>690</v>
       </c>
       <c r="AB558" s="6"/>
+      <c r="AC558" s="6"/>
       <c r="AD558" s="6"/>
     </row>
     <row r="559" spans="1:30" x14ac:dyDescent="0.2">
@@ -50779,6 +51337,7 @@
         <v>686</v>
       </c>
       <c r="AB559" s="6"/>
+      <c r="AC559" s="6"/>
       <c r="AD559" s="6"/>
     </row>
     <row r="560" spans="1:30" x14ac:dyDescent="0.2">
@@ -50864,6 +51423,7 @@
         <v>617</v>
       </c>
       <c r="AB560" s="6"/>
+      <c r="AC560" s="6"/>
       <c r="AD560" s="6"/>
     </row>
     <row r="561" spans="1:30" x14ac:dyDescent="0.2">
@@ -50949,6 +51509,7 @@
         <v>794</v>
       </c>
       <c r="AB561" s="6"/>
+      <c r="AC561" s="6"/>
       <c r="AD561" s="6"/>
     </row>
     <row r="562" spans="1:30" x14ac:dyDescent="0.2">
@@ -51034,6 +51595,7 @@
         <v>607</v>
       </c>
       <c r="AB562" s="6"/>
+      <c r="AC562" s="6"/>
       <c r="AD562" s="6"/>
     </row>
     <row r="563" spans="1:30" x14ac:dyDescent="0.2">
@@ -51119,6 +51681,7 @@
         <v>829</v>
       </c>
       <c r="AB563" s="6"/>
+      <c r="AC563" s="6"/>
       <c r="AD563" s="6"/>
     </row>
     <row r="564" spans="1:30" x14ac:dyDescent="0.2">
@@ -51204,6 +51767,7 @@
         <v>735</v>
       </c>
       <c r="AB564" s="6"/>
+      <c r="AC564" s="6"/>
       <c r="AD564" s="6"/>
     </row>
     <row r="565" spans="1:30" x14ac:dyDescent="0.2">
@@ -51289,6 +51853,7 @@
         <v>699</v>
       </c>
       <c r="AB565" s="6"/>
+      <c r="AC565" s="6"/>
       <c r="AD565" s="6"/>
     </row>
     <row r="566" spans="1:30" x14ac:dyDescent="0.2">
@@ -51374,6 +51939,7 @@
         <v>778</v>
       </c>
       <c r="AB566" s="6"/>
+      <c r="AC566" s="6"/>
       <c r="AD566" s="6"/>
     </row>
     <row r="567" spans="1:30" x14ac:dyDescent="0.2">
@@ -51459,6 +52025,7 @@
         <v>835</v>
       </c>
       <c r="AB567" s="6"/>
+      <c r="AC567" s="6"/>
       <c r="AD567" s="6"/>
     </row>
     <row r="568" spans="1:30" x14ac:dyDescent="0.2">
@@ -51544,6 +52111,7 @@
         <v>708</v>
       </c>
       <c r="AB568" s="6"/>
+      <c r="AC568" s="6"/>
       <c r="AD568" s="6"/>
     </row>
     <row r="569" spans="1:30" x14ac:dyDescent="0.2">
@@ -51629,6 +52197,7 @@
         <v>796</v>
       </c>
       <c r="AB569" s="6"/>
+      <c r="AC569" s="6"/>
       <c r="AD569" s="6"/>
     </row>
     <row r="570" spans="1:30" x14ac:dyDescent="0.2">
@@ -51714,6 +52283,7 @@
         <v>728</v>
       </c>
       <c r="AB570" s="6"/>
+      <c r="AC570" s="6"/>
       <c r="AD570" s="6"/>
     </row>
     <row r="571" spans="1:30" x14ac:dyDescent="0.2">
@@ -51799,6 +52369,7 @@
         <v>733</v>
       </c>
       <c r="AB571" s="6"/>
+      <c r="AC571" s="6"/>
       <c r="AD571" s="6"/>
     </row>
     <row r="572" spans="1:30" x14ac:dyDescent="0.2">
@@ -51884,6 +52455,7 @@
         <v>774</v>
       </c>
       <c r="AB572" s="6"/>
+      <c r="AC572" s="6"/>
       <c r="AD572" s="6"/>
     </row>
     <row r="573" spans="1:30" x14ac:dyDescent="0.2">
@@ -51969,6 +52541,7 @@
         <v>695</v>
       </c>
       <c r="AB573" s="6"/>
+      <c r="AC573" s="6"/>
       <c r="AD573" s="6"/>
     </row>
     <row r="574" spans="1:30" x14ac:dyDescent="0.2">
@@ -52054,6 +52627,7 @@
         <v>729</v>
       </c>
       <c r="AB574" s="6"/>
+      <c r="AC574" s="6"/>
       <c r="AD574" s="6"/>
     </row>
     <row r="575" spans="1:30" x14ac:dyDescent="0.2">
@@ -52139,6 +52713,7 @@
         <v>693</v>
       </c>
       <c r="AB575" s="6"/>
+      <c r="AC575" s="6"/>
       <c r="AD575" s="6"/>
     </row>
     <row r="576" spans="1:30" x14ac:dyDescent="0.2">
@@ -52224,6 +52799,7 @@
         <v>635</v>
       </c>
       <c r="AB576" s="6"/>
+      <c r="AC576" s="6"/>
       <c r="AD576" s="6"/>
     </row>
     <row r="577" spans="1:30" x14ac:dyDescent="0.2">
@@ -52309,6 +52885,7 @@
         <v>579</v>
       </c>
       <c r="AB577" s="6"/>
+      <c r="AC577" s="6"/>
       <c r="AD577" s="6"/>
     </row>
     <row r="578" spans="1:30" x14ac:dyDescent="0.2">
@@ -52394,6 +52971,7 @@
         <v>837</v>
       </c>
       <c r="AB578" s="6"/>
+      <c r="AC578" s="6"/>
       <c r="AD578" s="6"/>
     </row>
     <row r="579" spans="1:30" x14ac:dyDescent="0.2">
@@ -52479,6 +53057,7 @@
         <v>685</v>
       </c>
       <c r="AB579" s="6"/>
+      <c r="AC579" s="6"/>
       <c r="AD579" s="6"/>
     </row>
     <row r="580" spans="1:30" x14ac:dyDescent="0.2">
@@ -52564,6 +53143,7 @@
         <v>381</v>
       </c>
       <c r="AB580" s="6"/>
+      <c r="AC580" s="6"/>
       <c r="AD580" s="6"/>
     </row>
     <row r="581" spans="1:30" x14ac:dyDescent="0.2">
@@ -52649,6 +53229,7 @@
         <v>661</v>
       </c>
       <c r="AB581" s="6"/>
+      <c r="AC581" s="6"/>
       <c r="AD581" s="6"/>
     </row>
     <row r="582" spans="1:30" x14ac:dyDescent="0.2">
@@ -52734,6 +53315,7 @@
         <v>658</v>
       </c>
       <c r="AB582" s="6"/>
+      <c r="AC582" s="6"/>
       <c r="AD582" s="6"/>
     </row>
     <row r="583" spans="1:30" x14ac:dyDescent="0.2">
@@ -52819,6 +53401,7 @@
         <v>666</v>
       </c>
       <c r="AB583" s="6"/>
+      <c r="AC583" s="6"/>
       <c r="AD583" s="6"/>
     </row>
     <row r="584" spans="1:30" x14ac:dyDescent="0.2">
@@ -52904,6 +53487,7 @@
         <v>762</v>
       </c>
       <c r="AB584" s="6"/>
+      <c r="AC584" s="6"/>
       <c r="AD584" s="6"/>
     </row>
     <row r="585" spans="1:30" x14ac:dyDescent="0.2">
@@ -52989,6 +53573,7 @@
         <v>746</v>
       </c>
       <c r="AB585" s="6"/>
+      <c r="AC585" s="6"/>
       <c r="AD585" s="6"/>
     </row>
     <row r="586" spans="1:30" x14ac:dyDescent="0.2">
@@ -53074,6 +53659,7 @@
         <v>775</v>
       </c>
       <c r="AB586" s="6"/>
+      <c r="AC586" s="6"/>
       <c r="AD586" s="6"/>
     </row>
     <row r="587" spans="1:30" x14ac:dyDescent="0.2">
@@ -53159,6 +53745,7 @@
         <v>745</v>
       </c>
       <c r="AB587" s="6"/>
+      <c r="AC587" s="6"/>
       <c r="AD587" s="6"/>
     </row>
     <row r="588" spans="1:30" x14ac:dyDescent="0.2">
@@ -53244,6 +53831,7 @@
         <v>777</v>
       </c>
       <c r="AB588" s="6"/>
+      <c r="AC588" s="6"/>
       <c r="AD588" s="6"/>
     </row>
     <row r="589" spans="1:30" x14ac:dyDescent="0.2">
@@ -53329,6 +53917,7 @@
         <v>780</v>
       </c>
       <c r="AB589" s="6"/>
+      <c r="AC589" s="6"/>
       <c r="AD589" s="6"/>
     </row>
     <row r="590" spans="1:30" x14ac:dyDescent="0.2">
@@ -53414,6 +54003,7 @@
         <v>706</v>
       </c>
       <c r="AB590" s="6"/>
+      <c r="AC590" s="6"/>
       <c r="AD590" s="6"/>
     </row>
     <row r="591" spans="1:30" x14ac:dyDescent="0.2">
@@ -53499,6 +54089,7 @@
         <v>694</v>
       </c>
       <c r="AB591" s="6"/>
+      <c r="AC591" s="6"/>
       <c r="AD591" s="6"/>
     </row>
     <row r="592" spans="1:30" x14ac:dyDescent="0.2">
@@ -53584,6 +54175,7 @@
         <v>700</v>
       </c>
       <c r="AB592" s="6"/>
+      <c r="AC592" s="6"/>
       <c r="AD592" s="6"/>
     </row>
     <row r="593" spans="1:30" x14ac:dyDescent="0.2">
@@ -53669,6 +54261,7 @@
         <v>780</v>
       </c>
       <c r="AB593" s="6"/>
+      <c r="AC593" s="6"/>
       <c r="AD593" s="6"/>
     </row>
     <row r="594" spans="1:30" x14ac:dyDescent="0.2">
@@ -53754,6 +54347,7 @@
         <v>785</v>
       </c>
       <c r="AB594" s="6"/>
+      <c r="AC594" s="6"/>
       <c r="AD594" s="6"/>
     </row>
     <row r="595" spans="1:30" x14ac:dyDescent="0.2">
@@ -53839,6 +54433,7 @@
         <v>698</v>
       </c>
       <c r="AB595" s="6"/>
+      <c r="AC595" s="6"/>
       <c r="AD595" s="6"/>
     </row>
     <row r="596" spans="1:30" x14ac:dyDescent="0.2">
@@ -53924,6 +54519,7 @@
         <v>683</v>
       </c>
       <c r="AB596" s="6"/>
+      <c r="AC596" s="6"/>
       <c r="AD596" s="6"/>
     </row>
     <row r="597" spans="1:30" x14ac:dyDescent="0.2">
@@ -54009,6 +54605,7 @@
         <v>707</v>
       </c>
       <c r="AB597" s="6"/>
+      <c r="AC597" s="6"/>
       <c r="AD597" s="6"/>
     </row>
     <row r="598" spans="1:30" x14ac:dyDescent="0.2">
@@ -54094,6 +54691,7 @@
         <v>767</v>
       </c>
       <c r="AB598" s="6"/>
+      <c r="AC598" s="6"/>
       <c r="AD598" s="6"/>
     </row>
     <row r="599" spans="1:30" x14ac:dyDescent="0.2">
@@ -54179,6 +54777,7 @@
         <v>693</v>
       </c>
       <c r="AB599" s="6"/>
+      <c r="AC599" s="6"/>
       <c r="AD599" s="6"/>
     </row>
     <row r="600" spans="1:30" x14ac:dyDescent="0.2">
@@ -54264,6 +54863,7 @@
         <v>725</v>
       </c>
       <c r="AB600" s="6"/>
+      <c r="AC600" s="6"/>
       <c r="AD600" s="6"/>
     </row>
     <row r="601" spans="1:30" x14ac:dyDescent="0.2">
@@ -54349,6 +54949,7 @@
         <v>724</v>
       </c>
       <c r="AB601" s="6"/>
+      <c r="AC601" s="6"/>
       <c r="AD601" s="6"/>
     </row>
     <row r="602" spans="1:30" x14ac:dyDescent="0.2">
@@ -54434,6 +55035,7 @@
         <v>720</v>
       </c>
       <c r="AB602" s="6"/>
+      <c r="AC602" s="6"/>
       <c r="AD602" s="6"/>
     </row>
     <row r="603" spans="1:30" x14ac:dyDescent="0.2">
@@ -54519,6 +55121,7 @@
         <v>629</v>
       </c>
       <c r="AB603" s="6"/>
+      <c r="AC603" s="6"/>
       <c r="AD603" s="6"/>
     </row>
     <row r="604" spans="1:30" x14ac:dyDescent="0.2">
@@ -54604,6 +55207,7 @@
         <v>640</v>
       </c>
       <c r="AB604" s="6"/>
+      <c r="AC604" s="6"/>
       <c r="AD604" s="6"/>
     </row>
     <row r="605" spans="1:30" x14ac:dyDescent="0.2">
@@ -54689,6 +55293,7 @@
         <v>706</v>
       </c>
       <c r="AB605" s="6"/>
+      <c r="AC605" s="6"/>
       <c r="AD605" s="6"/>
     </row>
     <row r="606" spans="1:30" x14ac:dyDescent="0.2">
@@ -54774,6 +55379,7 @@
         <v>687</v>
       </c>
       <c r="AB606" s="6"/>
+      <c r="AC606" s="6"/>
       <c r="AD606" s="6"/>
     </row>
     <row r="607" spans="1:30" x14ac:dyDescent="0.2">
@@ -54859,6 +55465,7 @@
         <v>690</v>
       </c>
       <c r="AB607" s="6"/>
+      <c r="AC607" s="6"/>
       <c r="AD607" s="6"/>
     </row>
     <row r="608" spans="1:30" x14ac:dyDescent="0.2">
@@ -54944,6 +55551,7 @@
         <v>811</v>
       </c>
       <c r="AB608" s="6"/>
+      <c r="AC608" s="6"/>
       <c r="AD608" s="6"/>
     </row>
     <row r="609" spans="1:30" x14ac:dyDescent="0.2">
@@ -55029,6 +55637,7 @@
         <v>821</v>
       </c>
       <c r="AB609" s="6"/>
+      <c r="AC609" s="6"/>
       <c r="AD609" s="6"/>
     </row>
     <row r="610" spans="1:30" x14ac:dyDescent="0.2">
@@ -55114,6 +55723,7 @@
         <v>645</v>
       </c>
       <c r="AB610" s="6"/>
+      <c r="AC610" s="6"/>
       <c r="AD610" s="6"/>
     </row>
     <row r="611" spans="1:30" x14ac:dyDescent="0.2">
@@ -55199,6 +55809,7 @@
         <v>819</v>
       </c>
       <c r="AB611" s="6"/>
+      <c r="AC611" s="6"/>
       <c r="AD611" s="6"/>
     </row>
     <row r="612" spans="1:30" x14ac:dyDescent="0.2">
@@ -55284,6 +55895,7 @@
         <v>783</v>
       </c>
       <c r="AB612" s="6"/>
+      <c r="AC612" s="6"/>
       <c r="AD612" s="6"/>
     </row>
     <row r="613" spans="1:30" x14ac:dyDescent="0.2">
@@ -55369,6 +55981,7 @@
         <v>669</v>
       </c>
       <c r="AB613" s="6"/>
+      <c r="AC613" s="6"/>
       <c r="AD613" s="6"/>
     </row>
     <row r="614" spans="1:30" x14ac:dyDescent="0.2">
@@ -55454,6 +56067,7 @@
         <v>775</v>
       </c>
       <c r="AB614" s="6"/>
+      <c r="AC614" s="6"/>
       <c r="AD614" s="6"/>
     </row>
     <row r="615" spans="1:30" x14ac:dyDescent="0.2">
@@ -55539,6 +56153,7 @@
         <v>771</v>
       </c>
       <c r="AB615" s="6"/>
+      <c r="AC615" s="6"/>
       <c r="AD615" s="6"/>
     </row>
     <row r="616" spans="1:30" x14ac:dyDescent="0.2">
@@ -55624,6 +56239,7 @@
         <v>702</v>
       </c>
       <c r="AB616" s="6"/>
+      <c r="AC616" s="6"/>
       <c r="AD616" s="6"/>
     </row>
     <row r="617" spans="1:30" x14ac:dyDescent="0.2">
@@ -55709,6 +56325,7 @@
         <v>661</v>
       </c>
       <c r="AB617" s="6"/>
+      <c r="AC617" s="6"/>
       <c r="AD617" s="6"/>
     </row>
     <row r="618" spans="1:30" x14ac:dyDescent="0.2">
@@ -55794,6 +56411,7 @@
         <v>709</v>
       </c>
       <c r="AB618" s="6"/>
+      <c r="AC618" s="6"/>
       <c r="AD618" s="6"/>
     </row>
     <row r="619" spans="1:30" x14ac:dyDescent="0.2">
@@ -55879,6 +56497,7 @@
         <v>846</v>
       </c>
       <c r="AB619" s="6"/>
+      <c r="AC619" s="6"/>
       <c r="AD619" s="6"/>
     </row>
     <row r="620" spans="1:30" x14ac:dyDescent="0.2">
@@ -55964,6 +56583,7 @@
         <v>750</v>
       </c>
       <c r="AB620" s="6"/>
+      <c r="AC620" s="6"/>
       <c r="AD620" s="6"/>
     </row>
     <row r="621" spans="1:30" x14ac:dyDescent="0.2">
@@ -56049,6 +56669,7 @@
         <v>749</v>
       </c>
       <c r="AB621" s="6"/>
+      <c r="AC621" s="6"/>
       <c r="AD621" s="6"/>
     </row>
     <row r="622" spans="1:30" x14ac:dyDescent="0.2">
@@ -56134,6 +56755,7 @@
         <v>644</v>
       </c>
       <c r="AB622" s="6"/>
+      <c r="AC622" s="6"/>
       <c r="AD622" s="6"/>
     </row>
     <row r="623" spans="1:30" x14ac:dyDescent="0.2">
@@ -56219,6 +56841,7 @@
         <v>580</v>
       </c>
       <c r="AB623" s="6"/>
+      <c r="AC623" s="6"/>
       <c r="AD623" s="6"/>
     </row>
     <row r="624" spans="1:30" x14ac:dyDescent="0.2">
@@ -56304,6 +56927,7 @@
         <v>605</v>
       </c>
       <c r="AB624" s="6"/>
+      <c r="AC624" s="6"/>
       <c r="AD624" s="6"/>
     </row>
     <row r="625" spans="1:30" x14ac:dyDescent="0.2">
@@ -56389,6 +57013,7 @@
         <v>635</v>
       </c>
       <c r="AB625" s="6"/>
+      <c r="AC625" s="6"/>
       <c r="AD625" s="6"/>
     </row>
     <row r="626" spans="1:30" x14ac:dyDescent="0.2">
@@ -56474,6 +57099,7 @@
         <v>842</v>
       </c>
       <c r="AB626" s="6"/>
+      <c r="AC626" s="6"/>
       <c r="AD626" s="6"/>
     </row>
     <row r="627" spans="1:30" x14ac:dyDescent="0.2">
@@ -56559,6 +57185,7 @@
         <v>593</v>
       </c>
       <c r="AB627" s="6"/>
+      <c r="AC627" s="6"/>
       <c r="AD627" s="6"/>
     </row>
     <row r="628" spans="1:30" x14ac:dyDescent="0.2">
@@ -56644,6 +57271,7 @@
         <v>635</v>
       </c>
       <c r="AB628" s="6"/>
+      <c r="AC628" s="6"/>
       <c r="AD628" s="6"/>
     </row>
     <row r="629" spans="1:30" x14ac:dyDescent="0.2">
@@ -56729,6 +57357,7 @@
         <v>656</v>
       </c>
       <c r="AB629" s="6"/>
+      <c r="AC629" s="6"/>
       <c r="AD629" s="6"/>
     </row>
     <row r="630" spans="1:30" x14ac:dyDescent="0.2">
@@ -56814,6 +57443,7 @@
         <v>569</v>
       </c>
       <c r="AB630" s="6"/>
+      <c r="AC630" s="6"/>
       <c r="AD630" s="6"/>
     </row>
     <row r="631" spans="1:30" x14ac:dyDescent="0.2">
@@ -56899,6 +57529,7 @@
         <v>442</v>
       </c>
       <c r="AB631" s="6"/>
+      <c r="AC631" s="6"/>
       <c r="AD631" s="6"/>
     </row>
     <row r="632" spans="1:30" x14ac:dyDescent="0.2">
@@ -56984,6 +57615,7 @@
         <v>625</v>
       </c>
       <c r="AB632" s="6"/>
+      <c r="AC632" s="6"/>
       <c r="AD632" s="6"/>
     </row>
     <row r="633" spans="1:30" x14ac:dyDescent="0.2">
@@ -57069,6 +57701,7 @@
         <v>763</v>
       </c>
       <c r="AB633" s="6"/>
+      <c r="AC633" s="6"/>
       <c r="AD633" s="6"/>
     </row>
     <row r="634" spans="1:30" x14ac:dyDescent="0.2">
@@ -57154,6 +57787,7 @@
         <v>627</v>
       </c>
       <c r="AB634" s="6"/>
+      <c r="AC634" s="6"/>
       <c r="AD634" s="6"/>
     </row>
     <row r="635" spans="1:30" x14ac:dyDescent="0.2">
@@ -57239,6 +57873,7 @@
         <v>781</v>
       </c>
       <c r="AB635" s="6"/>
+      <c r="AC635" s="6"/>
       <c r="AD635" s="6"/>
     </row>
     <row r="636" spans="1:30" x14ac:dyDescent="0.2">
@@ -57324,6 +57959,7 @@
         <v>712</v>
       </c>
       <c r="AB636" s="6"/>
+      <c r="AC636" s="6"/>
       <c r="AD636" s="6"/>
     </row>
     <row r="637" spans="1:30" x14ac:dyDescent="0.2">
@@ -57409,6 +58045,7 @@
         <v>684</v>
       </c>
       <c r="AB637" s="6"/>
+      <c r="AC637" s="6"/>
       <c r="AD637" s="6"/>
     </row>
     <row r="638" spans="1:30" x14ac:dyDescent="0.2">
@@ -57494,6 +58131,7 @@
         <v>832</v>
       </c>
       <c r="AB638" s="6"/>
+      <c r="AC638" s="6"/>
       <c r="AD638" s="6"/>
     </row>
     <row r="639" spans="1:30" x14ac:dyDescent="0.2">
@@ -57579,6 +58217,7 @@
         <v>622</v>
       </c>
       <c r="AB639" s="6"/>
+      <c r="AC639" s="6"/>
       <c r="AD639" s="6"/>
     </row>
     <row r="640" spans="1:30" x14ac:dyDescent="0.2">
@@ -57664,6 +58303,7 @@
         <v>677</v>
       </c>
       <c r="AB640" s="6"/>
+      <c r="AC640" s="6"/>
       <c r="AD640" s="6"/>
     </row>
     <row r="641" spans="1:30" x14ac:dyDescent="0.2">
@@ -57749,6 +58389,7 @@
         <v>694</v>
       </c>
       <c r="AB641" s="6"/>
+      <c r="AC641" s="6"/>
       <c r="AD641" s="6"/>
     </row>
     <row r="642" spans="1:30" x14ac:dyDescent="0.2">
@@ -57834,6 +58475,7 @@
         <v>617</v>
       </c>
       <c r="AB642" s="6"/>
+      <c r="AC642" s="6"/>
       <c r="AD642" s="6"/>
     </row>
     <row r="643" spans="1:30" x14ac:dyDescent="0.2">
@@ -57919,6 +58561,7 @@
         <v>764</v>
       </c>
       <c r="AB643" s="6"/>
+      <c r="AC643" s="6"/>
       <c r="AD643" s="6"/>
     </row>
     <row r="644" spans="1:30" x14ac:dyDescent="0.2">
@@ -58004,6 +58647,7 @@
         <v>866</v>
       </c>
       <c r="AB644" s="6"/>
+      <c r="AC644" s="6"/>
       <c r="AD644" s="6"/>
     </row>
     <row r="645" spans="1:30" x14ac:dyDescent="0.2">
@@ -58089,6 +58733,7 @@
         <v>728</v>
       </c>
       <c r="AB645" s="6"/>
+      <c r="AC645" s="6"/>
       <c r="AD645" s="6"/>
     </row>
     <row r="646" spans="1:30" x14ac:dyDescent="0.2">
@@ -58174,6 +58819,7 @@
         <v>676</v>
       </c>
       <c r="AB646" s="6"/>
+      <c r="AC646" s="6"/>
       <c r="AD646" s="6"/>
     </row>
     <row r="647" spans="1:30" x14ac:dyDescent="0.2">
@@ -58259,6 +58905,7 @@
         <v>725</v>
       </c>
       <c r="AB647" s="6"/>
+      <c r="AC647" s="6"/>
       <c r="AD647" s="6"/>
     </row>
     <row r="648" spans="1:30" x14ac:dyDescent="0.2">
@@ -58344,6 +58991,7 @@
         <v>671</v>
       </c>
       <c r="AB648" s="6"/>
+      <c r="AC648" s="6"/>
       <c r="AD648" s="6"/>
     </row>
     <row r="649" spans="1:30" x14ac:dyDescent="0.2">
@@ -58429,6 +59077,7 @@
         <v>649</v>
       </c>
       <c r="AB649" s="6"/>
+      <c r="AC649" s="6"/>
       <c r="AD649" s="6"/>
     </row>
     <row r="650" spans="1:30" x14ac:dyDescent="0.2">
@@ -58514,6 +59163,7 @@
         <v>710</v>
       </c>
       <c r="AB650" s="6"/>
+      <c r="AC650" s="6"/>
       <c r="AD650" s="6"/>
     </row>
     <row r="651" spans="1:30" x14ac:dyDescent="0.2">
@@ -58599,6 +59249,7 @@
         <v>754</v>
       </c>
       <c r="AB651" s="6"/>
+      <c r="AC651" s="6"/>
       <c r="AD651" s="6"/>
     </row>
     <row r="652" spans="1:30" x14ac:dyDescent="0.2">
@@ -58684,6 +59335,7 @@
         <v>597</v>
       </c>
       <c r="AB652" s="6"/>
+      <c r="AC652" s="6"/>
       <c r="AD652" s="6"/>
     </row>
     <row r="653" spans="1:30" x14ac:dyDescent="0.2">
@@ -58769,6 +59421,7 @@
         <v>836</v>
       </c>
       <c r="AB653" s="6"/>
+      <c r="AC653" s="6"/>
       <c r="AD653" s="6"/>
     </row>
     <row r="654" spans="1:30" x14ac:dyDescent="0.2">
@@ -58854,6 +59507,7 @@
         <v>741</v>
       </c>
       <c r="AB654" s="6"/>
+      <c r="AC654" s="6"/>
       <c r="AD654" s="6"/>
     </row>
     <row r="655" spans="1:30" x14ac:dyDescent="0.2">
@@ -58939,6 +59593,7 @@
         <v>706</v>
       </c>
       <c r="AB655" s="6"/>
+      <c r="AC655" s="6"/>
       <c r="AD655" s="6"/>
     </row>
     <row r="656" spans="1:30" x14ac:dyDescent="0.2">
@@ -59024,6 +59679,7 @@
         <v>857</v>
       </c>
       <c r="AB656" s="6"/>
+      <c r="AC656" s="6"/>
       <c r="AD656" s="6"/>
     </row>
     <row r="657" spans="1:30" x14ac:dyDescent="0.2">
@@ -59109,6 +59765,7 @@
         <v>795</v>
       </c>
       <c r="AB657" s="6"/>
+      <c r="AC657" s="6"/>
       <c r="AD657" s="6"/>
     </row>
     <row r="658" spans="1:30" x14ac:dyDescent="0.2">
@@ -59194,6 +59851,7 @@
         <v>771</v>
       </c>
       <c r="AB658" s="6"/>
+      <c r="AC658" s="6"/>
       <c r="AD658" s="6"/>
     </row>
     <row r="659" spans="1:30" x14ac:dyDescent="0.2">
@@ -59279,6 +59937,7 @@
         <v>680</v>
       </c>
       <c r="AB659" s="6"/>
+      <c r="AC659" s="6"/>
       <c r="AD659" s="6"/>
     </row>
     <row r="660" spans="1:30" x14ac:dyDescent="0.2">
@@ -59364,6 +60023,7 @@
         <v>809</v>
       </c>
       <c r="AB660" s="6"/>
+      <c r="AC660" s="6"/>
       <c r="AD660" s="6"/>
     </row>
     <row r="661" spans="1:30" x14ac:dyDescent="0.2">
@@ -59449,6 +60109,7 @@
         <v>553</v>
       </c>
       <c r="AB661" s="6"/>
+      <c r="AC661" s="6"/>
       <c r="AD661" s="6"/>
     </row>
     <row r="662" spans="1:30" x14ac:dyDescent="0.2">
@@ -59534,6 +60195,7 @@
         <v>645</v>
       </c>
       <c r="AB662" s="6"/>
+      <c r="AC662" s="6"/>
       <c r="AD662" s="6"/>
     </row>
     <row r="663" spans="1:30" x14ac:dyDescent="0.2">
@@ -59619,6 +60281,7 @@
         <v>557</v>
       </c>
       <c r="AB663" s="6"/>
+      <c r="AC663" s="6"/>
       <c r="AD663" s="6"/>
     </row>
     <row r="664" spans="1:30" x14ac:dyDescent="0.2">
@@ -59704,6 +60367,7 @@
         <v>654</v>
       </c>
       <c r="AB664" s="6"/>
+      <c r="AC664" s="6"/>
       <c r="AD664" s="6"/>
     </row>
     <row r="665" spans="1:30" x14ac:dyDescent="0.2">
@@ -59789,6 +60453,7 @@
         <v>606</v>
       </c>
       <c r="AB665" s="6"/>
+      <c r="AC665" s="6"/>
       <c r="AD665" s="6"/>
     </row>
     <row r="666" spans="1:30" x14ac:dyDescent="0.2">
@@ -59874,6 +60539,7 @@
         <v>710</v>
       </c>
       <c r="AB666" s="6"/>
+      <c r="AC666" s="6"/>
       <c r="AD666" s="6"/>
     </row>
     <row r="667" spans="1:30" x14ac:dyDescent="0.2">
@@ -59959,6 +60625,7 @@
         <v>722</v>
       </c>
       <c r="AB667" s="6"/>
+      <c r="AC667" s="6"/>
       <c r="AD667" s="6"/>
     </row>
     <row r="668" spans="1:30" x14ac:dyDescent="0.2">
@@ -60044,6 +60711,7 @@
         <v>682</v>
       </c>
       <c r="AB668" s="6"/>
+      <c r="AC668" s="6"/>
       <c r="AD668" s="6"/>
     </row>
     <row r="669" spans="1:30" x14ac:dyDescent="0.2">
@@ -60129,6 +60797,7 @@
         <v>700</v>
       </c>
       <c r="AB669" s="6"/>
+      <c r="AC669" s="6"/>
       <c r="AD669" s="6"/>
     </row>
     <row r="670" spans="1:30" x14ac:dyDescent="0.2">
@@ -60214,6 +60883,7 @@
         <v>728</v>
       </c>
       <c r="AB670" s="6"/>
+      <c r="AC670" s="6"/>
       <c r="AD670" s="6"/>
     </row>
     <row r="671" spans="1:30" x14ac:dyDescent="0.2">
@@ -60299,6 +60969,7 @@
         <v>705</v>
       </c>
       <c r="AB671" s="6"/>
+      <c r="AC671" s="6"/>
       <c r="AD671" s="6"/>
     </row>
     <row r="672" spans="1:30" x14ac:dyDescent="0.2">
@@ -60384,6 +61055,7 @@
         <v>773</v>
       </c>
       <c r="AB672" s="6"/>
+      <c r="AC672" s="6"/>
       <c r="AD672" s="6"/>
     </row>
     <row r="673" spans="1:30" x14ac:dyDescent="0.2">
@@ -60469,6 +61141,7 @@
         <v>586</v>
       </c>
       <c r="AB673" s="6"/>
+      <c r="AC673" s="6"/>
       <c r="AD673" s="6"/>
     </row>
     <row r="674" spans="1:30" x14ac:dyDescent="0.2">
@@ -60554,6 +61227,7 @@
         <v>800</v>
       </c>
       <c r="AB674" s="6"/>
+      <c r="AC674" s="6"/>
       <c r="AD674" s="6"/>
     </row>
     <row r="675" spans="1:30" x14ac:dyDescent="0.2">
@@ -60639,6 +61313,7 @@
         <v>697</v>
       </c>
       <c r="AB675" s="6"/>
+      <c r="AC675" s="6"/>
       <c r="AD675" s="6"/>
     </row>
     <row r="676" spans="1:30" x14ac:dyDescent="0.2">
@@ -60724,6 +61399,7 @@
         <v>795</v>
       </c>
       <c r="AB676" s="6"/>
+      <c r="AC676" s="6"/>
       <c r="AD676" s="6"/>
     </row>
     <row r="677" spans="1:30" x14ac:dyDescent="0.2">
@@ -60809,6 +61485,7 @@
         <v>709</v>
       </c>
       <c r="AB677" s="6"/>
+      <c r="AC677" s="6"/>
       <c r="AD677" s="6"/>
     </row>
     <row r="678" spans="1:30" x14ac:dyDescent="0.2">
@@ -60894,6 +61571,7 @@
         <v>658</v>
       </c>
       <c r="AB678" s="6"/>
+      <c r="AC678" s="6"/>
       <c r="AD678" s="6"/>
     </row>
     <row r="679" spans="1:30" x14ac:dyDescent="0.2">
@@ -60979,6 +61657,7 @@
         <v>714</v>
       </c>
       <c r="AB679" s="6"/>
+      <c r="AC679" s="6"/>
       <c r="AD679" s="6"/>
     </row>
     <row r="680" spans="1:30" x14ac:dyDescent="0.2">
@@ -61064,6 +61743,7 @@
         <v>774</v>
       </c>
       <c r="AB680" s="6"/>
+      <c r="AC680" s="6"/>
       <c r="AD680" s="6"/>
     </row>
     <row r="681" spans="1:30" x14ac:dyDescent="0.2">
@@ -61149,6 +61829,7 @@
         <v>644</v>
       </c>
       <c r="AB681" s="6"/>
+      <c r="AC681" s="6"/>
       <c r="AD681" s="6"/>
     </row>
     <row r="682" spans="1:30" x14ac:dyDescent="0.2">
@@ -61234,6 +61915,7 @@
         <v>629</v>
       </c>
       <c r="AB682" s="6"/>
+      <c r="AC682" s="6"/>
       <c r="AD682" s="6"/>
     </row>
     <row r="683" spans="1:30" x14ac:dyDescent="0.2">
@@ -61319,6 +62001,7 @@
         <v>615</v>
       </c>
       <c r="AB683" s="6"/>
+      <c r="AC683" s="6"/>
       <c r="AD683" s="6"/>
     </row>
     <row r="684" spans="1:30" x14ac:dyDescent="0.2">
@@ -61404,6 +62087,7 @@
         <v>680</v>
       </c>
       <c r="AB684" s="6"/>
+      <c r="AC684" s="6"/>
       <c r="AD684" s="6"/>
     </row>
     <row r="685" spans="1:30" x14ac:dyDescent="0.2">
@@ -61489,6 +62173,7 @@
         <v>737</v>
       </c>
       <c r="AB685" s="6"/>
+      <c r="AC685" s="6"/>
       <c r="AD685" s="6"/>
     </row>
     <row r="686" spans="1:30" x14ac:dyDescent="0.2">
@@ -61574,6 +62259,7 @@
         <v>838</v>
       </c>
       <c r="AB686" s="6"/>
+      <c r="AC686" s="6"/>
       <c r="AD686" s="6"/>
     </row>
     <row r="687" spans="1:30" x14ac:dyDescent="0.2">
@@ -61659,6 +62345,7 @@
         <v>742</v>
       </c>
       <c r="AB687" s="6"/>
+      <c r="AC687" s="6"/>
       <c r="AD687" s="6"/>
     </row>
     <row r="688" spans="1:30" x14ac:dyDescent="0.2">
@@ -61744,6 +62431,7 @@
         <v>650</v>
       </c>
       <c r="AB688" s="6"/>
+      <c r="AC688" s="6"/>
       <c r="AD688" s="6"/>
     </row>
     <row r="689" spans="1:30" x14ac:dyDescent="0.2">
@@ -61829,6 +62517,7 @@
         <v>538</v>
       </c>
       <c r="AB689" s="6"/>
+      <c r="AC689" s="6"/>
       <c r="AD689" s="6"/>
     </row>
     <row r="690" spans="1:30" x14ac:dyDescent="0.2">
@@ -61914,6 +62603,7 @@
         <v>683</v>
       </c>
       <c r="AB690" s="6"/>
+      <c r="AC690" s="6"/>
       <c r="AD690" s="6"/>
     </row>
     <row r="691" spans="1:30" x14ac:dyDescent="0.2">
@@ -61999,6 +62689,7 @@
         <v>730</v>
       </c>
       <c r="AB691" s="6"/>
+      <c r="AC691" s="6"/>
       <c r="AD691" s="6"/>
     </row>
     <row r="692" spans="1:30" x14ac:dyDescent="0.2">
@@ -62084,6 +62775,7 @@
         <v>752</v>
       </c>
       <c r="AB692" s="6"/>
+      <c r="AC692" s="6"/>
       <c r="AD692" s="6"/>
     </row>
     <row r="693" spans="1:30" x14ac:dyDescent="0.2">
@@ -62169,6 +62861,7 @@
         <v>539</v>
       </c>
       <c r="AB693" s="6"/>
+      <c r="AC693" s="6"/>
       <c r="AD693" s="6"/>
     </row>
     <row r="694" spans="1:30" x14ac:dyDescent="0.2">
@@ -62254,6 +62947,7 @@
         <v>561</v>
       </c>
       <c r="AB694" s="6"/>
+      <c r="AC694" s="6"/>
       <c r="AD694" s="6"/>
     </row>
     <row r="695" spans="1:30" x14ac:dyDescent="0.2">
@@ -62339,6 +63033,7 @@
         <v>732</v>
       </c>
       <c r="AB695" s="6"/>
+      <c r="AC695" s="6"/>
       <c r="AD695" s="6"/>
     </row>
     <row r="696" spans="1:30" x14ac:dyDescent="0.2">
@@ -62424,6 +63119,7 @@
         <v>717</v>
       </c>
       <c r="AB696" s="6"/>
+      <c r="AC696" s="6"/>
       <c r="AD696" s="6"/>
     </row>
     <row r="697" spans="1:30" x14ac:dyDescent="0.2">
@@ -62509,6 +63205,7 @@
         <v>692</v>
       </c>
       <c r="AB697" s="6"/>
+      <c r="AC697" s="6"/>
       <c r="AD697" s="6"/>
     </row>
     <row r="698" spans="1:30" x14ac:dyDescent="0.2">
@@ -62594,6 +63291,7 @@
         <v>687</v>
       </c>
       <c r="AB698" s="6"/>
+      <c r="AC698" s="6"/>
       <c r="AD698" s="6"/>
     </row>
     <row r="699" spans="1:30" x14ac:dyDescent="0.2">
@@ -62679,6 +63377,7 @@
         <v>736</v>
       </c>
       <c r="AB699" s="6"/>
+      <c r="AC699" s="6"/>
       <c r="AD699" s="6"/>
     </row>
     <row r="700" spans="1:30" x14ac:dyDescent="0.2">
@@ -62764,6 +63463,7 @@
         <v>629</v>
       </c>
       <c r="AB700" s="6"/>
+      <c r="AC700" s="6"/>
       <c r="AD700" s="6"/>
     </row>
     <row r="701" spans="1:30" x14ac:dyDescent="0.2">
@@ -62849,6 +63549,7 @@
         <v>702</v>
       </c>
       <c r="AB701" s="6"/>
+      <c r="AC701" s="6"/>
       <c r="AD701" s="6"/>
     </row>
     <row r="702" spans="1:30" x14ac:dyDescent="0.2">
@@ -62934,6 +63635,7 @@
         <v>793</v>
       </c>
       <c r="AB702" s="6"/>
+      <c r="AC702" s="6"/>
       <c r="AD702" s="6"/>
     </row>
     <row r="703" spans="1:30" x14ac:dyDescent="0.2">
@@ -63019,6 +63721,7 @@
         <v>611</v>
       </c>
       <c r="AB703" s="6"/>
+      <c r="AC703" s="6"/>
       <c r="AD703" s="6"/>
     </row>
     <row r="704" spans="1:30" x14ac:dyDescent="0.2">
@@ -63104,6 +63807,7 @@
         <v>711</v>
       </c>
       <c r="AB704" s="6"/>
+      <c r="AC704" s="6"/>
       <c r="AD704" s="6"/>
     </row>
     <row r="705" spans="1:30" x14ac:dyDescent="0.2">
@@ -63189,6 +63893,7 @@
         <v>723</v>
       </c>
       <c r="AB705" s="6"/>
+      <c r="AC705" s="6"/>
       <c r="AD705" s="6"/>
     </row>
     <row r="706" spans="1:30" x14ac:dyDescent="0.2">
@@ -63274,6 +63979,7 @@
         <v>653</v>
       </c>
       <c r="AB706" s="6"/>
+      <c r="AC706" s="6"/>
       <c r="AD706" s="6"/>
     </row>
     <row r="707" spans="1:30" x14ac:dyDescent="0.2">
@@ -63359,6 +64065,7 @@
         <v>716</v>
       </c>
       <c r="AB707" s="6"/>
+      <c r="AC707" s="6"/>
       <c r="AD707" s="6"/>
     </row>
     <row r="708" spans="1:30" x14ac:dyDescent="0.2">
@@ -63444,6 +64151,7 @@
         <v>695</v>
       </c>
       <c r="AB708" s="6"/>
+      <c r="AC708" s="6"/>
       <c r="AD708" s="6"/>
     </row>
     <row r="709" spans="1:30" x14ac:dyDescent="0.2">
@@ -63529,6 +64237,7 @@
         <v>760</v>
       </c>
       <c r="AB709" s="6"/>
+      <c r="AC709" s="6"/>
       <c r="AD709" s="6"/>
     </row>
     <row r="710" spans="1:30" x14ac:dyDescent="0.2">
@@ -63614,6 +64323,7 @@
         <v>755</v>
       </c>
       <c r="AB710" s="6"/>
+      <c r="AC710" s="6"/>
       <c r="AD710" s="6"/>
     </row>
     <row r="711" spans="1:30" x14ac:dyDescent="0.2">
@@ -63699,6 +64409,7 @@
         <v>714</v>
       </c>
       <c r="AB711" s="6"/>
+      <c r="AC711" s="6"/>
       <c r="AD711" s="6"/>
     </row>
     <row r="712" spans="1:30" x14ac:dyDescent="0.2">
@@ -63784,6 +64495,7 @@
         <v>775</v>
       </c>
       <c r="AB712" s="6"/>
+      <c r="AC712" s="6"/>
       <c r="AD712" s="6"/>
     </row>
     <row r="713" spans="1:30" x14ac:dyDescent="0.2">
@@ -63869,6 +64581,7 @@
         <v>752</v>
       </c>
       <c r="AB713" s="6"/>
+      <c r="AC713" s="6"/>
       <c r="AD713" s="6"/>
     </row>
     <row r="714" spans="1:30" x14ac:dyDescent="0.2">
@@ -63954,6 +64667,7 @@
         <v>715</v>
       </c>
       <c r="AB714" s="6"/>
+      <c r="AC714" s="6"/>
       <c r="AD714" s="6"/>
     </row>
     <row r="715" spans="1:30" x14ac:dyDescent="0.2">
@@ -64039,6 +64753,7 @@
         <v>780</v>
       </c>
       <c r="AB715" s="6"/>
+      <c r="AC715" s="6"/>
       <c r="AD715" s="6"/>
     </row>
     <row r="716" spans="1:30" x14ac:dyDescent="0.2">
@@ -64124,6 +64839,7 @@
         <v>611</v>
       </c>
       <c r="AB716" s="6"/>
+      <c r="AC716" s="6"/>
       <c r="AD716" s="6"/>
     </row>
     <row r="717" spans="1:30" x14ac:dyDescent="0.2">
@@ -64209,6 +64925,7 @@
         <v>740</v>
       </c>
       <c r="AB717" s="6"/>
+      <c r="AC717" s="6"/>
       <c r="AD717" s="6"/>
     </row>
     <row r="718" spans="1:30" x14ac:dyDescent="0.2">
@@ -64294,6 +65011,7 @@
         <v>711</v>
       </c>
       <c r="AB718" s="6"/>
+      <c r="AC718" s="6"/>
       <c r="AD718" s="6"/>
     </row>
     <row r="719" spans="1:30" x14ac:dyDescent="0.2">
@@ -64379,6 +65097,7 @@
         <v>747</v>
       </c>
       <c r="AB719" s="6"/>
+      <c r="AC719" s="6"/>
       <c r="AD719" s="6"/>
     </row>
     <row r="720" spans="1:30" x14ac:dyDescent="0.2">
@@ -64464,6 +65183,7 @@
         <v>751</v>
       </c>
       <c r="AB720" s="6"/>
+      <c r="AC720" s="6"/>
       <c r="AD720" s="6"/>
     </row>
     <row r="721" spans="1:30" x14ac:dyDescent="0.2">
@@ -64549,6 +65269,7 @@
         <v>790</v>
       </c>
       <c r="AB721" s="6"/>
+      <c r="AC721" s="6"/>
       <c r="AD721" s="6"/>
     </row>
     <row r="722" spans="1:30" x14ac:dyDescent="0.2">
@@ -64634,6 +65355,7 @@
         <v>733</v>
       </c>
       <c r="AB722" s="6"/>
+      <c r="AC722" s="6"/>
       <c r="AD722" s="6"/>
     </row>
     <row r="723" spans="1:30" x14ac:dyDescent="0.2">
@@ -64719,6 +65441,7 @@
         <v>807</v>
       </c>
       <c r="AB723" s="6"/>
+      <c r="AC723" s="6"/>
       <c r="AD723" s="6"/>
     </row>
     <row r="724" spans="1:30" x14ac:dyDescent="0.2">
@@ -64804,6 +65527,7 @@
         <v>719</v>
       </c>
       <c r="AB724" s="6"/>
+      <c r="AC724" s="6"/>
       <c r="AD724" s="6"/>
     </row>
     <row r="725" spans="1:30" x14ac:dyDescent="0.2">
@@ -64889,6 +65613,7 @@
         <v>697</v>
       </c>
       <c r="AB725" s="6"/>
+      <c r="AC725" s="6"/>
       <c r="AD725" s="6"/>
     </row>
     <row r="726" spans="1:30" x14ac:dyDescent="0.2">
@@ -64974,6 +65699,7 @@
         <v>690</v>
       </c>
       <c r="AB726" s="6"/>
+      <c r="AC726" s="6"/>
       <c r="AD726" s="6"/>
     </row>
     <row r="727" spans="1:30" x14ac:dyDescent="0.2">
@@ -65059,6 +65785,7 @@
         <v>738</v>
       </c>
       <c r="AB727" s="6"/>
+      <c r="AC727" s="6"/>
       <c r="AD727" s="6"/>
     </row>
     <row r="728" spans="1:30" x14ac:dyDescent="0.2">
@@ -65144,6 +65871,7 @@
         <v>735</v>
       </c>
       <c r="AB728" s="6"/>
+      <c r="AC728" s="6"/>
       <c r="AD728" s="6"/>
     </row>
     <row r="729" spans="1:30" x14ac:dyDescent="0.2">
@@ -65229,6 +65957,7 @@
         <v>702</v>
       </c>
       <c r="AB729" s="6"/>
+      <c r="AC729" s="6"/>
       <c r="AD729" s="6"/>
     </row>
     <row r="730" spans="1:30" x14ac:dyDescent="0.2">
@@ -65314,6 +66043,7 @@
         <v>621</v>
       </c>
       <c r="AB730" s="6"/>
+      <c r="AC730" s="6"/>
       <c r="AD730" s="6"/>
     </row>
     <row r="731" spans="1:30" x14ac:dyDescent="0.2">
@@ -65399,6 +66129,7 @@
         <v>703</v>
       </c>
       <c r="AB731" s="6"/>
+      <c r="AC731" s="6"/>
       <c r="AD731" s="6"/>
     </row>
     <row r="732" spans="1:30" x14ac:dyDescent="0.2">
@@ -65484,6 +66215,7 @@
         <v>806</v>
       </c>
       <c r="AB732" s="6"/>
+      <c r="AC732" s="6"/>
       <c r="AD732" s="6"/>
     </row>
     <row r="733" spans="1:30" x14ac:dyDescent="0.2">
@@ -65569,6 +66301,7 @@
         <v>629</v>
       </c>
       <c r="AB733" s="6"/>
+      <c r="AC733" s="6"/>
       <c r="AD733" s="6"/>
     </row>
     <row r="734" spans="1:30" x14ac:dyDescent="0.2">
@@ -65654,6 +66387,7 @@
         <v>817</v>
       </c>
       <c r="AB734" s="6"/>
+      <c r="AC734" s="6"/>
       <c r="AD734" s="6"/>
     </row>
     <row r="735" spans="1:30" x14ac:dyDescent="0.2">
@@ -65739,6 +66473,7 @@
         <v>681</v>
       </c>
       <c r="AB735" s="6"/>
+      <c r="AC735" s="6"/>
       <c r="AD735" s="6"/>
     </row>
     <row r="736" spans="1:30" x14ac:dyDescent="0.2">
@@ -65824,6 +66559,7 @@
         <v>749</v>
       </c>
       <c r="AB736" s="6"/>
+      <c r="AC736" s="6"/>
       <c r="AD736" s="6"/>
     </row>
     <row r="737" spans="1:30" x14ac:dyDescent="0.2">
@@ -65909,6 +66645,7 @@
         <v>596</v>
       </c>
       <c r="AB737" s="6"/>
+      <c r="AC737" s="6"/>
       <c r="AD737" s="6"/>
     </row>
     <row r="738" spans="1:30" x14ac:dyDescent="0.2">
@@ -65994,6 +66731,7 @@
         <v>766</v>
       </c>
       <c r="AB738" s="6"/>
+      <c r="AC738" s="6"/>
       <c r="AD738" s="6"/>
     </row>
     <row r="739" spans="1:30" x14ac:dyDescent="0.2">
@@ -66079,6 +66817,7 @@
         <v>709</v>
       </c>
       <c r="AB739" s="6"/>
+      <c r="AC739" s="6"/>
       <c r="AD739" s="6"/>
     </row>
     <row r="740" spans="1:30" x14ac:dyDescent="0.2">
@@ -66164,6 +66903,7 @@
         <v>766</v>
       </c>
       <c r="AB740" s="6"/>
+      <c r="AC740" s="6"/>
       <c r="AD740" s="6"/>
     </row>
     <row r="741" spans="1:30" x14ac:dyDescent="0.2">
@@ -66249,6 +66989,7 @@
         <v>631</v>
       </c>
       <c r="AB741" s="6"/>
+      <c r="AC741" s="6"/>
       <c r="AD741" s="6"/>
     </row>
     <row r="742" spans="1:30" x14ac:dyDescent="0.2">
@@ -66334,6 +67075,7 @@
         <v>693</v>
       </c>
       <c r="AB742" s="6"/>
+      <c r="AC742" s="6"/>
       <c r="AD742" s="6"/>
     </row>
     <row r="743" spans="1:30" x14ac:dyDescent="0.2">
@@ -66419,6 +67161,7 @@
         <v>706</v>
       </c>
       <c r="AB743" s="6"/>
+      <c r="AC743" s="6"/>
       <c r="AD743" s="6"/>
     </row>
     <row r="744" spans="1:30" x14ac:dyDescent="0.2">
@@ -66504,6 +67247,7 @@
         <v>781</v>
       </c>
       <c r="AB744" s="6"/>
+      <c r="AC744" s="6"/>
       <c r="AD744" s="6"/>
     </row>
     <row r="745" spans="1:30" x14ac:dyDescent="0.2">
@@ -66589,6 +67333,7 @@
         <v>730</v>
       </c>
       <c r="AB745" s="6"/>
+      <c r="AC745" s="6"/>
       <c r="AD745" s="6"/>
     </row>
     <row r="746" spans="1:30" x14ac:dyDescent="0.2">
@@ -66674,6 +67419,7 @@
         <v>655</v>
       </c>
       <c r="AB746" s="6"/>
+      <c r="AC746" s="6"/>
       <c r="AD746" s="6"/>
     </row>
     <row r="747" spans="1:30" x14ac:dyDescent="0.2">
@@ -66759,6 +67505,7 @@
         <v>434</v>
       </c>
       <c r="AB747" s="6"/>
+      <c r="AC747" s="6"/>
       <c r="AD747" s="6"/>
     </row>
     <row r="748" spans="1:30" x14ac:dyDescent="0.2">
@@ -66844,6 +67591,7 @@
         <v>616</v>
       </c>
       <c r="AB748" s="6"/>
+      <c r="AC748" s="6"/>
       <c r="AD748" s="6"/>
     </row>
     <row r="749" spans="1:30" x14ac:dyDescent="0.2">
@@ -66929,6 +67677,7 @@
         <v>542</v>
       </c>
       <c r="AB749" s="6"/>
+      <c r="AC749" s="6"/>
       <c r="AD749" s="6"/>
     </row>
     <row r="750" spans="1:30" x14ac:dyDescent="0.2">
@@ -67014,6 +67763,7 @@
         <v>0</v>
       </c>
       <c r="AB750" s="6"/>
+      <c r="AC750" s="6"/>
       <c r="AD750" s="6"/>
     </row>
     <row r="751" spans="1:30" x14ac:dyDescent="0.2">
@@ -67099,6 +67849,7 @@
         <v>710</v>
       </c>
       <c r="AB751" s="6"/>
+      <c r="AC751" s="6"/>
       <c r="AD751" s="6"/>
     </row>
     <row r="752" spans="1:30" x14ac:dyDescent="0.2">
@@ -67184,6 +67935,7 @@
         <v>699</v>
       </c>
       <c r="AB752" s="6"/>
+      <c r="AC752" s="6"/>
       <c r="AD752" s="6"/>
     </row>
     <row r="753" spans="1:30" x14ac:dyDescent="0.2">
@@ -67269,6 +68021,7 @@
         <v>749</v>
       </c>
       <c r="AB753" s="6"/>
+      <c r="AC753" s="6"/>
       <c r="AD753" s="6"/>
     </row>
     <row r="754" spans="1:30" x14ac:dyDescent="0.2">
@@ -67354,6 +68107,7 @@
         <v>737</v>
       </c>
       <c r="AB754" s="6"/>
+      <c r="AC754" s="6"/>
       <c r="AD754" s="6"/>
     </row>
     <row r="755" spans="1:30" x14ac:dyDescent="0.2">
@@ -67439,6 +68193,7 @@
         <v>701</v>
       </c>
       <c r="AB755" s="6"/>
+      <c r="AC755" s="6"/>
       <c r="AD755" s="6"/>
     </row>
     <row r="756" spans="1:30" x14ac:dyDescent="0.2">
@@ -67524,6 +68279,7 @@
         <v>662</v>
       </c>
       <c r="AB756" s="6"/>
+      <c r="AC756" s="6"/>
       <c r="AD756" s="6"/>
     </row>
     <row r="757" spans="1:30" x14ac:dyDescent="0.2">
@@ -67609,6 +68365,7 @@
         <v>660</v>
       </c>
       <c r="AB757" s="6"/>
+      <c r="AC757" s="6"/>
       <c r="AD757" s="6"/>
     </row>
     <row r="758" spans="1:30" x14ac:dyDescent="0.2">
@@ -67694,6 +68451,7 @@
         <v>589</v>
       </c>
       <c r="AB758" s="6"/>
+      <c r="AC758" s="6"/>
       <c r="AD758" s="6"/>
     </row>
     <row r="759" spans="1:30" x14ac:dyDescent="0.2">
@@ -67779,6 +68537,7 @@
         <v>678</v>
       </c>
       <c r="AB759" s="6"/>
+      <c r="AC759" s="6"/>
       <c r="AD759" s="6"/>
     </row>
     <row r="760" spans="1:30" x14ac:dyDescent="0.2">
@@ -67864,6 +68623,7 @@
         <v>664</v>
       </c>
       <c r="AB760" s="6"/>
+      <c r="AC760" s="6"/>
       <c r="AD760" s="6"/>
     </row>
     <row r="761" spans="1:30" x14ac:dyDescent="0.2">
@@ -67949,6 +68709,7 @@
         <v>806</v>
       </c>
       <c r="AB761" s="6"/>
+      <c r="AC761" s="6"/>
       <c r="AD761" s="6"/>
     </row>
     <row r="762" spans="1:30" x14ac:dyDescent="0.2">
@@ -68034,6 +68795,7 @@
         <v>805</v>
       </c>
       <c r="AB762" s="6"/>
+      <c r="AC762" s="6"/>
       <c r="AD762" s="6"/>
     </row>
     <row r="763" spans="1:30" x14ac:dyDescent="0.2">
@@ -68119,6 +68881,7 @@
         <v>771</v>
       </c>
       <c r="AB763" s="6"/>
+      <c r="AC763" s="6"/>
       <c r="AD763" s="6"/>
     </row>
     <row r="764" spans="1:30" x14ac:dyDescent="0.2">
@@ -68204,6 +68967,7 @@
         <v>701</v>
       </c>
       <c r="AB764" s="6"/>
+      <c r="AC764" s="6"/>
       <c r="AD764" s="6"/>
     </row>
     <row r="765" spans="1:30" x14ac:dyDescent="0.2">
@@ -68289,6 +69053,7 @@
         <v>721</v>
       </c>
       <c r="AB765" s="6"/>
+      <c r="AC765" s="6"/>
       <c r="AD765" s="6"/>
     </row>
     <row r="766" spans="1:30" x14ac:dyDescent="0.2">
@@ -68374,6 +69139,7 @@
         <v>569</v>
       </c>
       <c r="AB766" s="6"/>
+      <c r="AC766" s="6"/>
       <c r="AD766" s="6"/>
     </row>
     <row r="767" spans="1:30" x14ac:dyDescent="0.2">
@@ -68459,6 +69225,7 @@
         <v>730</v>
       </c>
       <c r="AB767" s="6"/>
+      <c r="AC767" s="6"/>
       <c r="AD767" s="6"/>
     </row>
     <row r="768" spans="1:30" x14ac:dyDescent="0.2">
@@ -68544,6 +69311,7 @@
         <v>683</v>
       </c>
       <c r="AB768" s="6"/>
+      <c r="AC768" s="6"/>
       <c r="AD768" s="6"/>
     </row>
     <row r="769" spans="1:30" x14ac:dyDescent="0.2">
@@ -68629,6 +69397,7 @@
         <v>666</v>
       </c>
       <c r="AB769" s="6"/>
+      <c r="AC769" s="6"/>
       <c r="AD769" s="6"/>
     </row>
     <row r="770" spans="1:30" x14ac:dyDescent="0.2">
@@ -68714,6 +69483,7 @@
         <v>773</v>
       </c>
       <c r="AB770" s="6"/>
+      <c r="AC770" s="6"/>
       <c r="AD770" s="6"/>
     </row>
     <row r="771" spans="1:30" x14ac:dyDescent="0.2">
@@ -68799,6 +69569,7 @@
         <v>604</v>
       </c>
       <c r="AB771" s="6"/>
+      <c r="AC771" s="6"/>
       <c r="AD771" s="6"/>
     </row>
     <row r="772" spans="1:30" x14ac:dyDescent="0.2">
@@ -68884,6 +69655,7 @@
         <v>674</v>
       </c>
       <c r="AB772" s="6"/>
+      <c r="AC772" s="6"/>
       <c r="AD772" s="6"/>
     </row>
     <row r="773" spans="1:30" x14ac:dyDescent="0.2">
@@ -68969,6 +69741,7 @@
         <v>661</v>
       </c>
       <c r="AB773" s="6"/>
+      <c r="AC773" s="6"/>
       <c r="AD773" s="6"/>
     </row>
     <row r="774" spans="1:30" x14ac:dyDescent="0.2">
@@ -69054,6 +69827,7 @@
         <v>629</v>
       </c>
       <c r="AB774" s="6"/>
+      <c r="AC774" s="6"/>
       <c r="AD774" s="6"/>
     </row>
     <row r="775" spans="1:30" x14ac:dyDescent="0.2">
@@ -69139,6 +69913,7 @@
         <v>736</v>
       </c>
       <c r="AB775" s="6"/>
+      <c r="AC775" s="6"/>
       <c r="AD775" s="6"/>
     </row>
     <row r="776" spans="1:30" x14ac:dyDescent="0.2">
@@ -69224,6 +69999,7 @@
         <v>729</v>
       </c>
       <c r="AB776" s="6"/>
+      <c r="AC776" s="6"/>
       <c r="AD776" s="6"/>
     </row>
     <row r="777" spans="1:30" x14ac:dyDescent="0.2">
@@ -69309,6 +70085,7 @@
         <v>704</v>
       </c>
       <c r="AB777" s="6"/>
+      <c r="AC777" s="6"/>
       <c r="AD777" s="6"/>
     </row>
     <row r="778" spans="1:30" x14ac:dyDescent="0.2">
@@ -69394,6 +70171,7 @@
         <v>540</v>
       </c>
       <c r="AB778" s="6"/>
+      <c r="AC778" s="6"/>
       <c r="AD778" s="6"/>
     </row>
     <row r="779" spans="1:30" x14ac:dyDescent="0.2">
@@ -69479,6 +70257,7 @@
         <v>741</v>
       </c>
       <c r="AB779" s="6"/>
+      <c r="AC779" s="6"/>
       <c r="AD779" s="6"/>
     </row>
     <row r="780" spans="1:30" x14ac:dyDescent="0.2">
@@ -69564,6 +70343,7 @@
         <v>672</v>
       </c>
       <c r="AB780" s="6"/>
+      <c r="AC780" s="6"/>
       <c r="AD780" s="6"/>
     </row>
     <row r="781" spans="1:30" x14ac:dyDescent="0.2">
@@ -69649,6 +70429,7 @@
         <v>832</v>
       </c>
       <c r="AB781" s="6"/>
+      <c r="AC781" s="6"/>
       <c r="AD781" s="6"/>
     </row>
     <row r="782" spans="1:30" x14ac:dyDescent="0.2">
@@ -69734,6 +70515,7 @@
         <v>723</v>
       </c>
       <c r="AB782" s="6"/>
+      <c r="AC782" s="6"/>
       <c r="AD782" s="6"/>
     </row>
     <row r="783" spans="1:30" x14ac:dyDescent="0.2">
@@ -69819,6 +70601,7 @@
         <v>704</v>
       </c>
       <c r="AB783" s="6"/>
+      <c r="AC783" s="6"/>
       <c r="AD783" s="6"/>
     </row>
     <row r="784" spans="1:30" x14ac:dyDescent="0.2">
@@ -69904,6 +70687,7 @@
         <v>683</v>
       </c>
       <c r="AB784" s="6"/>
+      <c r="AC784" s="6"/>
       <c r="AD784" s="6"/>
     </row>
     <row r="785" spans="1:30" x14ac:dyDescent="0.2">
@@ -69989,6 +70773,7 @@
         <v>863</v>
       </c>
       <c r="AB785" s="6"/>
+      <c r="AC785" s="6"/>
       <c r="AD785" s="6"/>
     </row>
     <row r="786" spans="1:30" x14ac:dyDescent="0.2">
@@ -70074,6 +70859,7 @@
         <v>580</v>
       </c>
       <c r="AB786" s="6"/>
+      <c r="AC786" s="6"/>
       <c r="AD786" s="6"/>
     </row>
     <row r="787" spans="1:30" x14ac:dyDescent="0.2">
@@ -70159,6 +70945,7 @@
         <v>737</v>
       </c>
       <c r="AB787" s="6"/>
+      <c r="AC787" s="6"/>
       <c r="AD787" s="6"/>
     </row>
     <row r="788" spans="1:30" x14ac:dyDescent="0.2">
@@ -70244,6 +71031,7 @@
         <v>720</v>
       </c>
       <c r="AB788" s="6"/>
+      <c r="AC788" s="6"/>
       <c r="AD788" s="6"/>
     </row>
     <row r="789" spans="1:30" x14ac:dyDescent="0.2">
@@ -70329,6 +71117,7 @@
         <v>721</v>
       </c>
       <c r="AB789" s="6"/>
+      <c r="AC789" s="6"/>
       <c r="AD789" s="6"/>
     </row>
     <row r="790" spans="1:30" x14ac:dyDescent="0.2">
@@ -70414,6 +71203,7 @@
         <v>680</v>
       </c>
       <c r="AB790" s="6"/>
+      <c r="AC790" s="6"/>
       <c r="AD790" s="6"/>
     </row>
     <row r="791" spans="1:30" x14ac:dyDescent="0.2">
@@ -70499,6 +71289,7 @@
         <v>684</v>
       </c>
       <c r="AB791" s="6"/>
+      <c r="AC791" s="6"/>
       <c r="AD791" s="6"/>
     </row>
     <row r="792" spans="1:30" x14ac:dyDescent="0.2">
@@ -70584,6 +71375,7 @@
         <v>731</v>
       </c>
       <c r="AB792" s="6"/>
+      <c r="AC792" s="6"/>
       <c r="AD792" s="6"/>
     </row>
     <row r="793" spans="1:30" x14ac:dyDescent="0.2">
@@ -70669,6 +71461,7 @@
         <v>782</v>
       </c>
       <c r="AB793" s="6"/>
+      <c r="AC793" s="6"/>
       <c r="AD793" s="6"/>
     </row>
     <row r="794" spans="1:30" x14ac:dyDescent="0.2">
@@ -70754,6 +71547,7 @@
         <v>812</v>
       </c>
       <c r="AB794" s="6"/>
+      <c r="AC794" s="6"/>
       <c r="AD794" s="6"/>
     </row>
     <row r="795" spans="1:30" x14ac:dyDescent="0.2">
@@ -70839,6 +71633,7 @@
         <v>769</v>
       </c>
       <c r="AB795" s="6"/>
+      <c r="AC795" s="6"/>
       <c r="AD795" s="6"/>
     </row>
     <row r="796" spans="1:30" x14ac:dyDescent="0.2">
@@ -70924,6 +71719,7 @@
         <v>787</v>
       </c>
       <c r="AB796" s="6"/>
+      <c r="AC796" s="6"/>
       <c r="AD796" s="6"/>
     </row>
     <row r="797" spans="1:30" x14ac:dyDescent="0.2">
@@ -71009,6 +71805,7 @@
         <v>716</v>
       </c>
       <c r="AB797" s="6"/>
+      <c r="AC797" s="6"/>
       <c r="AD797" s="6"/>
     </row>
     <row r="798" spans="1:30" x14ac:dyDescent="0.2">
@@ -71094,6 +71891,7 @@
         <v>631</v>
       </c>
       <c r="AB798" s="6"/>
+      <c r="AC798" s="6"/>
       <c r="AD798" s="6"/>
     </row>
     <row r="799" spans="1:30" x14ac:dyDescent="0.2">
@@ -71179,6 +71977,7 @@
         <v>694</v>
       </c>
       <c r="AB799" s="6"/>
+      <c r="AC799" s="6"/>
       <c r="AD799" s="6"/>
     </row>
     <row r="800" spans="1:30" x14ac:dyDescent="0.2">
@@ -71264,6 +72063,7 @@
         <v>622</v>
       </c>
       <c r="AB800" s="6"/>
+      <c r="AC800" s="6"/>
       <c r="AD800" s="6"/>
     </row>
     <row r="801" spans="1:30" x14ac:dyDescent="0.2">
@@ -71349,6 +72149,7 @@
         <v>817</v>
       </c>
       <c r="AB801" s="6"/>
+      <c r="AC801" s="6"/>
       <c r="AD801" s="6"/>
     </row>
     <row r="802" spans="1:30" x14ac:dyDescent="0.2">
@@ -71434,6 +72235,7 @@
         <v>655</v>
       </c>
       <c r="AB802" s="6"/>
+      <c r="AC802" s="6"/>
       <c r="AD802" s="6"/>
     </row>
     <row r="803" spans="1:30" x14ac:dyDescent="0.2">
@@ -71519,6 +72321,7 @@
         <v>671</v>
       </c>
       <c r="AB803" s="6"/>
+      <c r="AC803" s="6"/>
       <c r="AD803" s="6"/>
     </row>
     <row r="804" spans="1:30" x14ac:dyDescent="0.2">
@@ -71604,6 +72407,7 @@
         <v>648</v>
       </c>
       <c r="AB804" s="6"/>
+      <c r="AC804" s="6"/>
       <c r="AD804" s="6"/>
     </row>
     <row r="805" spans="1:30" x14ac:dyDescent="0.2">
@@ -71689,6 +72493,7 @@
         <v>721</v>
       </c>
       <c r="AB805" s="6"/>
+      <c r="AC805" s="6"/>
       <c r="AD805" s="6"/>
     </row>
     <row r="806" spans="1:30" x14ac:dyDescent="0.2">
@@ -71774,6 +72579,7 @@
         <v>798</v>
       </c>
       <c r="AB806" s="6"/>
+      <c r="AC806" s="6"/>
       <c r="AD806" s="6"/>
     </row>
     <row r="807" spans="1:30" x14ac:dyDescent="0.2">
@@ -71859,6 +72665,7 @@
         <v>639</v>
       </c>
       <c r="AB807" s="6"/>
+      <c r="AC807" s="6"/>
       <c r="AD807" s="6"/>
     </row>
     <row r="808" spans="1:30" x14ac:dyDescent="0.2">
@@ -71944,6 +72751,7 @@
         <v>603</v>
       </c>
       <c r="AB808" s="6"/>
+      <c r="AC808" s="6"/>
       <c r="AD808" s="6"/>
     </row>
     <row r="809" spans="1:30" x14ac:dyDescent="0.2">
@@ -72029,6 +72837,7 @@
         <v>539</v>
       </c>
       <c r="AB809" s="6"/>
+      <c r="AC809" s="6"/>
       <c r="AD809" s="6"/>
     </row>
     <row r="810" spans="1:30" x14ac:dyDescent="0.2">
@@ -72114,6 +72923,7 @@
         <v>587</v>
       </c>
       <c r="AB810" s="6"/>
+      <c r="AC810" s="6"/>
       <c r="AD810" s="6"/>
     </row>
     <row r="811" spans="1:30" x14ac:dyDescent="0.2">
@@ -72199,6 +73009,7 @@
         <v>664</v>
       </c>
       <c r="AB811" s="6"/>
+      <c r="AC811" s="6"/>
       <c r="AD811" s="6"/>
     </row>
     <row r="812" spans="1:30" x14ac:dyDescent="0.2">
@@ -72284,6 +73095,7 @@
         <v>696</v>
       </c>
       <c r="AB812" s="6"/>
+      <c r="AC812" s="6"/>
       <c r="AD812" s="6"/>
     </row>
     <row r="813" spans="1:30" x14ac:dyDescent="0.2">
@@ -72369,6 +73181,7 @@
         <v>750</v>
       </c>
       <c r="AB813" s="6"/>
+      <c r="AC813" s="6"/>
       <c r="AD813" s="6"/>
     </row>
     <row r="814" spans="1:30" x14ac:dyDescent="0.2">
@@ -72454,6 +73267,7 @@
         <v>749</v>
       </c>
       <c r="AB814" s="6"/>
+      <c r="AC814" s="6"/>
       <c r="AD814" s="6"/>
     </row>
     <row r="815" spans="1:30" x14ac:dyDescent="0.2">
@@ -72539,6 +73353,7 @@
         <v>803</v>
       </c>
       <c r="AB815" s="6"/>
+      <c r="AC815" s="6"/>
       <c r="AD815" s="6"/>
     </row>
     <row r="816" spans="1:30" x14ac:dyDescent="0.2">
@@ -72624,6 +73439,7 @@
         <v>643</v>
       </c>
       <c r="AB816" s="6"/>
+      <c r="AC816" s="6"/>
       <c r="AD816" s="6"/>
     </row>
     <row r="817" spans="1:30" x14ac:dyDescent="0.2">
@@ -72709,6 +73525,7 @@
         <v>703</v>
       </c>
       <c r="AB817" s="6"/>
+      <c r="AC817" s="6"/>
       <c r="AD817" s="6"/>
     </row>
     <row r="818" spans="1:30" x14ac:dyDescent="0.2">
@@ -72794,6 +73611,7 @@
         <v>700</v>
       </c>
       <c r="AB818" s="6"/>
+      <c r="AC818" s="6"/>
       <c r="AD818" s="6"/>
     </row>
     <row r="819" spans="1:30" x14ac:dyDescent="0.2">
@@ -72879,6 +73697,7 @@
         <v>725</v>
       </c>
       <c r="AB819" s="6"/>
+      <c r="AC819" s="6"/>
       <c r="AD819" s="6"/>
     </row>
     <row r="820" spans="1:30" x14ac:dyDescent="0.2">
@@ -72964,6 +73783,7 @@
         <v>745</v>
       </c>
       <c r="AB820" s="6"/>
+      <c r="AC820" s="6"/>
       <c r="AD820" s="6"/>
     </row>
     <row r="821" spans="1:30" x14ac:dyDescent="0.2">
@@ -73049,6 +73869,7 @@
         <v>757</v>
       </c>
       <c r="AB821" s="6"/>
+      <c r="AC821" s="6"/>
       <c r="AD821" s="6"/>
     </row>
     <row r="822" spans="1:30" x14ac:dyDescent="0.2">
@@ -73134,6 +73955,7 @@
         <v>868</v>
       </c>
       <c r="AB822" s="6"/>
+      <c r="AC822" s="6"/>
       <c r="AD822" s="6"/>
     </row>
     <row r="823" spans="1:30" x14ac:dyDescent="0.2">
@@ -73219,6 +74041,7 @@
         <v>607</v>
       </c>
       <c r="AB823" s="6"/>
+      <c r="AC823" s="6"/>
       <c r="AD823" s="6"/>
     </row>
     <row r="824" spans="1:30" x14ac:dyDescent="0.2">
@@ -73304,6 +74127,7 @@
         <v>741</v>
       </c>
       <c r="AB824" s="6"/>
+      <c r="AC824" s="6"/>
       <c r="AD824" s="6"/>
     </row>
     <row r="825" spans="1:30" x14ac:dyDescent="0.2">
@@ -73389,6 +74213,7 @@
         <v>694</v>
       </c>
       <c r="AB825" s="6"/>
+      <c r="AC825" s="6"/>
       <c r="AD825" s="6"/>
     </row>
     <row r="826" spans="1:30" x14ac:dyDescent="0.2">
@@ -73474,6 +74299,7 @@
         <v>764</v>
       </c>
       <c r="AB826" s="6"/>
+      <c r="AC826" s="6"/>
       <c r="AD826" s="6"/>
     </row>
     <row r="827" spans="1:30" x14ac:dyDescent="0.2">
@@ -73559,6 +74385,7 @@
         <v>833</v>
       </c>
       <c r="AB827" s="6"/>
+      <c r="AC827" s="6"/>
       <c r="AD827" s="6"/>
     </row>
     <row r="828" spans="1:30" x14ac:dyDescent="0.2">
@@ -73644,6 +74471,7 @@
         <v>799</v>
       </c>
       <c r="AB828" s="6"/>
+      <c r="AC828" s="6"/>
       <c r="AD828" s="6"/>
     </row>
     <row r="829" spans="1:30" x14ac:dyDescent="0.2">
@@ -73729,6 +74557,7 @@
         <v>744</v>
       </c>
       <c r="AB829" s="6"/>
+      <c r="AC829" s="6"/>
       <c r="AD829" s="6"/>
     </row>
     <row r="830" spans="1:30" x14ac:dyDescent="0.2">
@@ -73814,6 +74643,7 @@
         <v>749.20000000000027</v>
       </c>
       <c r="AB830" s="6"/>
+      <c r="AC830" s="6"/>
       <c r="AD830" s="6"/>
     </row>
     <row r="831" spans="1:30" x14ac:dyDescent="0.2">
@@ -73899,6 +74729,7 @@
         <v>696.58</v>
       </c>
       <c r="AB831" s="6"/>
+      <c r="AC831" s="6"/>
       <c r="AD831" s="6"/>
     </row>
     <row r="832" spans="1:30" x14ac:dyDescent="0.2">
@@ -73984,6 +74815,7 @@
         <v>781.25000000000045</v>
       </c>
       <c r="AB832" s="6"/>
+      <c r="AC832" s="6"/>
       <c r="AD832" s="6"/>
     </row>
     <row r="833" spans="1:30" x14ac:dyDescent="0.2">
@@ -74069,6 +74901,7 @@
         <v>755.38000000000056</v>
       </c>
       <c r="AB833" s="6"/>
+      <c r="AC833" s="6"/>
       <c r="AD833" s="6"/>
     </row>
     <row r="834" spans="1:30" x14ac:dyDescent="0.2">
@@ -74154,6 +74987,7 @@
         <v>781.25999999999931</v>
       </c>
       <c r="AB834" s="6"/>
+      <c r="AC834" s="6"/>
       <c r="AD834" s="6"/>
     </row>
     <row r="835" spans="1:30" x14ac:dyDescent="0.2">
@@ -74239,6 +75073,7 @@
         <v>751.34000000000037</v>
       </c>
       <c r="AB835" s="6"/>
+      <c r="AC835" s="6"/>
       <c r="AD835" s="6"/>
     </row>
     <row r="836" spans="1:30" x14ac:dyDescent="0.2">
@@ -74324,6 +75159,7 @@
         <v>831.22</v>
       </c>
       <c r="AB836" s="6"/>
+      <c r="AC836" s="6"/>
       <c r="AD836" s="6"/>
     </row>
     <row r="837" spans="1:30" x14ac:dyDescent="0.2">
@@ -74409,6 +75245,7 @@
         <v>740.67999999999984</v>
       </c>
       <c r="AB837" s="6"/>
+      <c r="AC837" s="6"/>
       <c r="AD837" s="6"/>
     </row>
     <row r="838" spans="1:30" x14ac:dyDescent="0.2">
@@ -74494,6 +75331,7 @@
         <v>621.23999999999967</v>
       </c>
       <c r="AB838" s="6"/>
+      <c r="AC838" s="6"/>
       <c r="AD838" s="6"/>
     </row>
     <row r="839" spans="1:30" x14ac:dyDescent="0.2">
@@ -74579,6 +75417,7 @@
         <v>700.81999999999925</v>
       </c>
       <c r="AB839" s="6"/>
+      <c r="AC839" s="6"/>
       <c r="AD839" s="6"/>
     </row>
     <row r="840" spans="1:30" x14ac:dyDescent="0.2">
@@ -74664,6 +75503,7 @@
         <v>801.36999999999989</v>
       </c>
       <c r="AB840" s="6"/>
+      <c r="AC840" s="6"/>
       <c r="AD840" s="6"/>
     </row>
     <row r="841" spans="1:30" x14ac:dyDescent="0.2">
@@ -74749,6 +75589,7 @@
         <v>609.94999999999936</v>
       </c>
       <c r="AB841" s="6"/>
+      <c r="AC841" s="6"/>
       <c r="AD841" s="6"/>
     </row>
     <row r="842" spans="1:30" x14ac:dyDescent="0.2">
@@ -74834,6 +75675,7 @@
         <v>698.45000000000061</v>
       </c>
       <c r="AB842" s="6"/>
+      <c r="AC842" s="6"/>
       <c r="AD842" s="6"/>
     </row>
     <row r="843" spans="1:30" x14ac:dyDescent="0.2">
@@ -74919,6 +75761,7 @@
         <v>692.93000000000006</v>
       </c>
       <c r="AB843" s="6"/>
+      <c r="AC843" s="6"/>
       <c r="AD843" s="6"/>
     </row>
     <row r="844" spans="1:30" x14ac:dyDescent="0.2">
@@ -75004,6 +75847,7 @@
         <v>758.1899999999988</v>
       </c>
       <c r="AB844" s="6"/>
+      <c r="AC844" s="6"/>
       <c r="AD844" s="6"/>
     </row>
     <row r="845" spans="1:30" x14ac:dyDescent="0.2">
@@ -75089,6 +75933,7 @@
         <v>712.84000000000026</v>
       </c>
       <c r="AB845" s="6"/>
+      <c r="AC845" s="6"/>
       <c r="AD845" s="6"/>
     </row>
     <row r="846" spans="1:30" x14ac:dyDescent="0.2">
@@ -75174,6 +76019,7 @@
         <v>703.78000000000111</v>
       </c>
       <c r="AB846" s="6"/>
+      <c r="AC846" s="6"/>
       <c r="AD846" s="6"/>
     </row>
     <row r="847" spans="1:30" x14ac:dyDescent="0.2">
@@ -75259,6 +76105,7 @@
         <v>683.84000000000094</v>
       </c>
       <c r="AB847" s="6"/>
+      <c r="AC847" s="6"/>
       <c r="AD847" s="6"/>
     </row>
     <row r="848" spans="1:30" x14ac:dyDescent="0.2">
@@ -75344,6 +76191,7 @@
         <v>832.76999999999953</v>
       </c>
       <c r="AB848" s="6"/>
+      <c r="AC848" s="6"/>
       <c r="AD848" s="6"/>
     </row>
     <row r="849" spans="1:30" x14ac:dyDescent="0.2">
@@ -75429,6 +76277,7 @@
         <v>759.95999999999913</v>
       </c>
       <c r="AB849" s="6"/>
+      <c r="AC849" s="6"/>
       <c r="AD849" s="6"/>
     </row>
     <row r="850" spans="1:30" x14ac:dyDescent="0.2">
@@ -75514,6 +76363,7 @@
         <v>730.88999999999976</v>
       </c>
       <c r="AB850" s="6"/>
+      <c r="AC850" s="6"/>
       <c r="AD850" s="6"/>
     </row>
     <row r="851" spans="1:30" x14ac:dyDescent="0.2">
@@ -75599,521 +76449,625 @@
         <v>735.55999999999881</v>
       </c>
       <c r="AB851" s="6"/>
+      <c r="AC851" s="6"/>
       <c r="AD851" s="6"/>
     </row>
     <row r="852" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Z852" s="6"/>
       <c r="AB852" s="6"/>
+      <c r="AC852" s="6"/>
       <c r="AD852" s="6"/>
     </row>
     <row r="853" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Z853" s="6"/>
       <c r="AB853" s="6"/>
+      <c r="AC853" s="6"/>
       <c r="AD853" s="6"/>
     </row>
     <row r="854" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Z854" s="6"/>
       <c r="AB854" s="6"/>
+      <c r="AC854" s="6"/>
       <c r="AD854" s="6"/>
     </row>
     <row r="855" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Z855" s="6"/>
       <c r="AB855" s="6"/>
+      <c r="AC855" s="6"/>
       <c r="AD855" s="6"/>
     </row>
     <row r="856" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Z856" s="6"/>
       <c r="AB856" s="6"/>
+      <c r="AC856" s="6"/>
       <c r="AD856" s="6"/>
     </row>
     <row r="857" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Z857" s="6"/>
       <c r="AB857" s="6"/>
+      <c r="AC857" s="6"/>
       <c r="AD857" s="6"/>
     </row>
     <row r="858" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Z858" s="6"/>
       <c r="AB858" s="6"/>
+      <c r="AC858" s="6"/>
       <c r="AD858" s="6"/>
     </row>
     <row r="859" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Z859" s="6"/>
       <c r="AB859" s="6"/>
+      <c r="AC859" s="6"/>
       <c r="AD859" s="6"/>
     </row>
     <row r="860" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Z860" s="6"/>
       <c r="AB860" s="6"/>
+      <c r="AC860" s="6"/>
       <c r="AD860" s="6"/>
     </row>
     <row r="861" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Z861" s="6"/>
       <c r="AB861" s="6"/>
+      <c r="AC861" s="6"/>
       <c r="AD861" s="6"/>
     </row>
     <row r="862" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Z862" s="6"/>
       <c r="AB862" s="6"/>
+      <c r="AC862" s="6"/>
       <c r="AD862" s="6"/>
     </row>
     <row r="863" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Z863" s="6"/>
       <c r="AB863" s="6"/>
+      <c r="AC863" s="6"/>
       <c r="AD863" s="6"/>
     </row>
     <row r="864" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Z864" s="6"/>
       <c r="AB864" s="6"/>
+      <c r="AC864" s="6"/>
       <c r="AD864" s="6"/>
     </row>
     <row r="865" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z865" s="6"/>
       <c r="AB865" s="6"/>
+      <c r="AC865" s="6"/>
       <c r="AD865" s="6"/>
     </row>
     <row r="866" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z866" s="6"/>
       <c r="AB866" s="6"/>
+      <c r="AC866" s="6"/>
       <c r="AD866" s="6"/>
     </row>
     <row r="867" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z867" s="6"/>
       <c r="AB867" s="6"/>
+      <c r="AC867" s="6"/>
       <c r="AD867" s="6"/>
     </row>
     <row r="868" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z868" s="6"/>
       <c r="AB868" s="6"/>
+      <c r="AC868" s="6"/>
       <c r="AD868" s="6"/>
     </row>
     <row r="869" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z869" s="6"/>
       <c r="AB869" s="6"/>
+      <c r="AC869" s="6"/>
       <c r="AD869" s="6"/>
     </row>
     <row r="870" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z870" s="6"/>
       <c r="AB870" s="6"/>
+      <c r="AC870" s="6"/>
       <c r="AD870" s="6"/>
     </row>
     <row r="871" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z871" s="6"/>
       <c r="AB871" s="6"/>
+      <c r="AC871" s="6"/>
       <c r="AD871" s="6"/>
     </row>
     <row r="872" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z872" s="6"/>
       <c r="AB872" s="6"/>
+      <c r="AC872" s="6"/>
       <c r="AD872" s="6"/>
     </row>
     <row r="873" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z873" s="6"/>
       <c r="AB873" s="6"/>
+      <c r="AC873" s="6"/>
       <c r="AD873" s="6"/>
     </row>
     <row r="874" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z874" s="6"/>
       <c r="AB874" s="6"/>
+      <c r="AC874" s="6"/>
       <c r="AD874" s="6"/>
     </row>
     <row r="875" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z875" s="6"/>
       <c r="AB875" s="6"/>
+      <c r="AC875" s="6"/>
       <c r="AD875" s="6"/>
     </row>
     <row r="876" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z876" s="6"/>
       <c r="AB876" s="6"/>
+      <c r="AC876" s="6"/>
       <c r="AD876" s="6"/>
     </row>
     <row r="877" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z877" s="6"/>
       <c r="AB877" s="6"/>
+      <c r="AC877" s="6"/>
       <c r="AD877" s="6"/>
     </row>
     <row r="878" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z878" s="6"/>
       <c r="AB878" s="6"/>
+      <c r="AC878" s="6"/>
       <c r="AD878" s="6"/>
     </row>
     <row r="879" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z879" s="6"/>
       <c r="AB879" s="6"/>
+      <c r="AC879" s="6"/>
       <c r="AD879" s="6"/>
     </row>
     <row r="880" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z880" s="6"/>
       <c r="AB880" s="6"/>
+      <c r="AC880" s="6"/>
       <c r="AD880" s="6"/>
     </row>
     <row r="881" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z881" s="6"/>
       <c r="AB881" s="6"/>
+      <c r="AC881" s="6"/>
       <c r="AD881" s="6"/>
     </row>
     <row r="882" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z882" s="6"/>
       <c r="AB882" s="6"/>
+      <c r="AC882" s="6"/>
       <c r="AD882" s="6"/>
     </row>
     <row r="883" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z883" s="6"/>
       <c r="AB883" s="6"/>
+      <c r="AC883" s="6"/>
       <c r="AD883" s="6"/>
     </row>
     <row r="884" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z884" s="6"/>
       <c r="AB884" s="6"/>
+      <c r="AC884" s="6"/>
       <c r="AD884" s="6"/>
     </row>
     <row r="885" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z885" s="6"/>
       <c r="AB885" s="6"/>
+      <c r="AC885" s="6"/>
       <c r="AD885" s="6"/>
     </row>
     <row r="886" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z886" s="6"/>
       <c r="AB886" s="6"/>
+      <c r="AC886" s="6"/>
       <c r="AD886" s="6"/>
     </row>
     <row r="887" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z887" s="6"/>
       <c r="AB887" s="6"/>
+      <c r="AC887" s="6"/>
       <c r="AD887" s="6"/>
     </row>
     <row r="888" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z888" s="6"/>
       <c r="AB888" s="6"/>
+      <c r="AC888" s="6"/>
       <c r="AD888" s="6"/>
     </row>
     <row r="889" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z889" s="6"/>
       <c r="AB889" s="6"/>
+      <c r="AC889" s="6"/>
       <c r="AD889" s="6"/>
     </row>
     <row r="890" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z890" s="6"/>
       <c r="AB890" s="6"/>
+      <c r="AC890" s="6"/>
       <c r="AD890" s="6"/>
     </row>
     <row r="891" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z891" s="6"/>
       <c r="AB891" s="6"/>
+      <c r="AC891" s="6"/>
       <c r="AD891" s="6"/>
     </row>
     <row r="892" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z892" s="6"/>
       <c r="AB892" s="6"/>
+      <c r="AC892" s="6"/>
       <c r="AD892" s="6"/>
     </row>
     <row r="893" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z893" s="6"/>
       <c r="AB893" s="6"/>
+      <c r="AC893" s="6"/>
       <c r="AD893" s="6"/>
     </row>
     <row r="894" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z894" s="6"/>
       <c r="AB894" s="6"/>
+      <c r="AC894" s="6"/>
       <c r="AD894" s="6"/>
     </row>
     <row r="895" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z895" s="6"/>
       <c r="AB895" s="6"/>
+      <c r="AC895" s="6"/>
       <c r="AD895" s="6"/>
     </row>
     <row r="896" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z896" s="6"/>
       <c r="AB896" s="6"/>
+      <c r="AC896" s="6"/>
       <c r="AD896" s="6"/>
     </row>
     <row r="897" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z897" s="6"/>
       <c r="AB897" s="6"/>
+      <c r="AC897" s="6"/>
       <c r="AD897" s="6"/>
     </row>
     <row r="898" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z898" s="6"/>
       <c r="AB898" s="6"/>
+      <c r="AC898" s="6"/>
       <c r="AD898" s="6"/>
     </row>
     <row r="899" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z899" s="6"/>
       <c r="AB899" s="6"/>
+      <c r="AC899" s="6"/>
       <c r="AD899" s="6"/>
     </row>
     <row r="900" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z900" s="6"/>
       <c r="AB900" s="6"/>
+      <c r="AC900" s="6"/>
       <c r="AD900" s="6"/>
     </row>
     <row r="901" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z901" s="6"/>
       <c r="AB901" s="6"/>
+      <c r="AC901" s="6"/>
       <c r="AD901" s="6"/>
     </row>
     <row r="902" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z902" s="6"/>
       <c r="AB902" s="6"/>
+      <c r="AC902" s="6"/>
       <c r="AD902" s="6"/>
     </row>
     <row r="903" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z903" s="6"/>
       <c r="AB903" s="6"/>
+      <c r="AC903" s="6"/>
       <c r="AD903" s="6"/>
     </row>
     <row r="904" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z904" s="6"/>
       <c r="AB904" s="6"/>
+      <c r="AC904" s="6"/>
       <c r="AD904" s="6"/>
     </row>
     <row r="905" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z905" s="6"/>
       <c r="AB905" s="6"/>
+      <c r="AC905" s="6"/>
       <c r="AD905" s="6"/>
     </row>
     <row r="906" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z906" s="6"/>
       <c r="AB906" s="6"/>
+      <c r="AC906" s="6"/>
       <c r="AD906" s="6"/>
     </row>
     <row r="907" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z907" s="6"/>
       <c r="AB907" s="6"/>
+      <c r="AC907" s="6"/>
       <c r="AD907" s="6"/>
     </row>
     <row r="908" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z908" s="6"/>
       <c r="AB908" s="6"/>
+      <c r="AC908" s="6"/>
       <c r="AD908" s="6"/>
     </row>
     <row r="909" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z909" s="6"/>
       <c r="AB909" s="6"/>
+      <c r="AC909" s="6"/>
       <c r="AD909" s="6"/>
     </row>
     <row r="910" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z910" s="6"/>
       <c r="AB910" s="6"/>
+      <c r="AC910" s="6"/>
       <c r="AD910" s="6"/>
     </row>
     <row r="911" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z911" s="6"/>
       <c r="AB911" s="6"/>
+      <c r="AC911" s="6"/>
       <c r="AD911" s="6"/>
     </row>
     <row r="912" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z912" s="6"/>
       <c r="AB912" s="6"/>
+      <c r="AC912" s="6"/>
       <c r="AD912" s="6"/>
     </row>
     <row r="913" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z913" s="6"/>
       <c r="AB913" s="6"/>
+      <c r="AC913" s="6"/>
       <c r="AD913" s="6"/>
     </row>
     <row r="914" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z914" s="6"/>
       <c r="AB914" s="6"/>
+      <c r="AC914" s="6"/>
       <c r="AD914" s="6"/>
     </row>
     <row r="915" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z915" s="6"/>
       <c r="AB915" s="6"/>
+      <c r="AC915" s="6"/>
       <c r="AD915" s="6"/>
     </row>
     <row r="916" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z916" s="6"/>
       <c r="AB916" s="6"/>
+      <c r="AC916" s="6"/>
       <c r="AD916" s="6"/>
     </row>
     <row r="917" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z917" s="6"/>
       <c r="AB917" s="6"/>
+      <c r="AC917" s="6"/>
       <c r="AD917" s="6"/>
     </row>
     <row r="918" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z918" s="6"/>
       <c r="AB918" s="6"/>
+      <c r="AC918" s="6"/>
       <c r="AD918" s="6"/>
     </row>
     <row r="919" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z919" s="6"/>
       <c r="AB919" s="6"/>
+      <c r="AC919" s="6"/>
       <c r="AD919" s="6"/>
     </row>
     <row r="920" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z920" s="6"/>
       <c r="AB920" s="6"/>
+      <c r="AC920" s="6"/>
       <c r="AD920" s="6"/>
     </row>
     <row r="921" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z921" s="6"/>
       <c r="AB921" s="6"/>
+      <c r="AC921" s="6"/>
       <c r="AD921" s="6"/>
     </row>
     <row r="922" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z922" s="6"/>
       <c r="AB922" s="6"/>
+      <c r="AC922" s="6"/>
       <c r="AD922" s="6"/>
     </row>
     <row r="923" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z923" s="6"/>
       <c r="AB923" s="6"/>
+      <c r="AC923" s="6"/>
       <c r="AD923" s="6"/>
     </row>
     <row r="924" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z924" s="6"/>
       <c r="AB924" s="6"/>
+      <c r="AC924" s="6"/>
       <c r="AD924" s="6"/>
     </row>
     <row r="925" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z925" s="6"/>
       <c r="AB925" s="6"/>
+      <c r="AC925" s="6"/>
       <c r="AD925" s="6"/>
     </row>
     <row r="926" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z926" s="6"/>
       <c r="AB926" s="6"/>
+      <c r="AC926" s="6"/>
       <c r="AD926" s="6"/>
     </row>
     <row r="927" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z927" s="6"/>
       <c r="AB927" s="6"/>
+      <c r="AC927" s="6"/>
       <c r="AD927" s="6"/>
     </row>
     <row r="928" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z928" s="6"/>
       <c r="AB928" s="6"/>
+      <c r="AC928" s="6"/>
       <c r="AD928" s="6"/>
     </row>
     <row r="929" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z929" s="6"/>
       <c r="AB929" s="6"/>
+      <c r="AC929" s="6"/>
       <c r="AD929" s="6"/>
     </row>
     <row r="930" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z930" s="6"/>
       <c r="AB930" s="6"/>
+      <c r="AC930" s="6"/>
       <c r="AD930" s="6"/>
     </row>
     <row r="931" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z931" s="6"/>
       <c r="AB931" s="6"/>
+      <c r="AC931" s="6"/>
       <c r="AD931" s="6"/>
     </row>
     <row r="932" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z932" s="6"/>
       <c r="AB932" s="6"/>
+      <c r="AC932" s="6"/>
       <c r="AD932" s="6"/>
     </row>
     <row r="933" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z933" s="6"/>
       <c r="AB933" s="6"/>
+      <c r="AC933" s="6"/>
       <c r="AD933" s="6"/>
     </row>
     <row r="934" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z934" s="6"/>
       <c r="AB934" s="6"/>
+      <c r="AC934" s="6"/>
       <c r="AD934" s="6"/>
     </row>
     <row r="935" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z935" s="6"/>
       <c r="AB935" s="6"/>
+      <c r="AC935" s="6"/>
       <c r="AD935" s="6"/>
     </row>
     <row r="936" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z936" s="6"/>
       <c r="AB936" s="6"/>
+      <c r="AC936" s="6"/>
       <c r="AD936" s="6"/>
     </row>
     <row r="937" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z937" s="6"/>
       <c r="AB937" s="6"/>
+      <c r="AC937" s="6"/>
       <c r="AD937" s="6"/>
     </row>
     <row r="938" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z938" s="6"/>
       <c r="AB938" s="6"/>
+      <c r="AC938" s="6"/>
       <c r="AD938" s="6"/>
     </row>
     <row r="939" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z939" s="6"/>
       <c r="AB939" s="6"/>
+      <c r="AC939" s="6"/>
       <c r="AD939" s="6"/>
     </row>
     <row r="940" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z940" s="6"/>
       <c r="AB940" s="6"/>
+      <c r="AC940" s="6"/>
       <c r="AD940" s="6"/>
     </row>
     <row r="941" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z941" s="6"/>
       <c r="AB941" s="6"/>
+      <c r="AC941" s="6"/>
       <c r="AD941" s="6"/>
     </row>
     <row r="942" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z942" s="6"/>
       <c r="AB942" s="6"/>
+      <c r="AC942" s="6"/>
       <c r="AD942" s="6"/>
     </row>
     <row r="943" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z943" s="6"/>
       <c r="AB943" s="6"/>
+      <c r="AC943" s="6"/>
       <c r="AD943" s="6"/>
     </row>
     <row r="944" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z944" s="6"/>
       <c r="AB944" s="6"/>
+      <c r="AC944" s="6"/>
       <c r="AD944" s="6"/>
     </row>
     <row r="945" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z945" s="6"/>
       <c r="AB945" s="6"/>
+      <c r="AC945" s="6"/>
       <c r="AD945" s="6"/>
     </row>
     <row r="946" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z946" s="6"/>
       <c r="AB946" s="6"/>
+      <c r="AC946" s="6"/>
       <c r="AD946" s="6"/>
     </row>
     <row r="947" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z947" s="6"/>
       <c r="AB947" s="6"/>
+      <c r="AC947" s="6"/>
       <c r="AD947" s="6"/>
     </row>
     <row r="948" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z948" s="6"/>
       <c r="AB948" s="6"/>
+      <c r="AC948" s="6"/>
       <c r="AD948" s="6"/>
     </row>
     <row r="949" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z949" s="6"/>
       <c r="AB949" s="6"/>
+      <c r="AC949" s="6"/>
       <c r="AD949" s="6"/>
     </row>
     <row r="950" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z950" s="6"/>
       <c r="AB950" s="6"/>
+      <c r="AC950" s="6"/>
       <c r="AD950" s="6"/>
     </row>
     <row r="951" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z951" s="6"/>
       <c r="AB951" s="6"/>
+      <c r="AC951" s="6"/>
       <c r="AD951" s="6"/>
     </row>
     <row r="952" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z952" s="6"/>
       <c r="AB952" s="6"/>
+      <c r="AC952" s="6"/>
       <c r="AD952" s="6"/>
     </row>
     <row r="953" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z953" s="6"/>
       <c r="AB953" s="6"/>
+      <c r="AC953" s="6"/>
       <c r="AD953" s="6"/>
     </row>
     <row r="954" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z954" s="6"/>
       <c r="AB954" s="6"/>
+      <c r="AC954" s="6"/>
       <c r="AD954" s="6"/>
     </row>
   </sheetData>

--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cp\Documents\GitHub\DecatlonEstadistics\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F87333-AB65-4D14-A383-A805724920EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385A7A07-3B14-4C63-935E-DFED122868FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3204,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q197" sqref="Q197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20041,7 +20041,7 @@
         <v>835</v>
       </c>
       <c r="Q196">
-        <v>1.0249999999999999</v>
+        <v>1025</v>
       </c>
       <c r="R196">
         <v>14.95</v>
